--- a/content/program/TRISTAN2025_final_program.xlsx
+++ b/content/program/TRISTAN2025_final_program.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC8CD36-5E32-534A-9B73-2D30DFE4BD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750A71FB-AB7A-F943-B92A-089097A0FFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{6B18BE26-13C5-0449-A7C1-25BFDB85670B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6B18BE26-13C5-0449-A7C1-25BFDB85670B}"/>
   </bookViews>
   <sheets>
     <sheet name="Program list (2)" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7501" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7501" uniqueCount="1096">
   <si>
     <t>Humanitarian Logistics</t>
   </si>
@@ -3436,6 +3436,10 @@
   </si>
   <si>
     <t>未決済</t>
+  </si>
+  <si>
+    <t>Minghao Chen, Zhiyuan Shi, Ang Li and Max Z. Li</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3775,15 +3779,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3800,6 +3795,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4144,8 +4148,8 @@
   </sheetPr>
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="81" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="31"/>
@@ -4184,16 +4188,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>1062</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="55" t="s">
         <v>1067</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="60">
         <v>1</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="54" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="36">
@@ -4207,10 +4211,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="62" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="29">
         <v>55</v>
       </c>
@@ -4222,10 +4226,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="62" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="29">
         <v>412</v>
       </c>
@@ -4237,12 +4241,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="62" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="53">
+      <c r="A5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="58">
         <v>2</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="52" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="29">
@@ -4256,10 +4260,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="62" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="29">
         <v>253</v>
       </c>
@@ -4271,10 +4275,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="62" customHeight="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="29">
         <v>72</v>
       </c>
@@ -4286,12 +4290,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="62" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="53">
+      <c r="A8" s="52"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="58">
         <v>3</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="52" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="29">
@@ -4305,10 +4309,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="62" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="55"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="29">
         <v>37</v>
       </c>
@@ -4320,10 +4324,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="37">
         <v>452</v>
       </c>
@@ -4335,16 +4339,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="54" t="s">
         <v>1062</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="55" t="s">
         <v>1068</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="60">
         <v>1</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="54" t="s">
         <v>191</v>
       </c>
       <c r="E11" s="36">
@@ -4358,10 +4362,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="62" customHeight="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="29">
         <v>441</v>
       </c>
@@ -4373,10 +4377,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="62" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="55"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="29">
         <v>212</v>
       </c>
@@ -4388,12 +4392,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="62" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="53">
+      <c r="A14" s="52"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="58">
         <v>2</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="52" t="s">
         <v>199</v>
       </c>
       <c r="E14" s="29">
@@ -4407,10 +4411,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="62" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="29">
         <v>296</v>
       </c>
@@ -4422,10 +4426,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="62" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="29">
         <v>457</v>
       </c>
@@ -4437,12 +4441,12 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="62" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="53">
+      <c r="A17" s="52"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="58">
         <v>3</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="52" t="s">
         <v>265</v>
       </c>
       <c r="E17" s="29">
@@ -4456,10 +4460,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="62" customHeight="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="29">
         <v>211</v>
       </c>
@@ -4471,10 +4475,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="56"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="37">
         <v>199</v>
       </c>
@@ -4486,16 +4490,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="54" t="s">
         <v>1062</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="55" t="s">
         <v>1069</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="60">
         <v>1</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="54" t="s">
         <v>155</v>
       </c>
       <c r="E20" s="36">
@@ -4509,10 +4513,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="62" customHeight="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="55"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="29">
         <v>13</v>
       </c>
@@ -4524,10 +4528,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="62" customHeight="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="55"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="29">
         <v>17</v>
       </c>
@@ -4539,10 +4543,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="62" customHeight="1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="55"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="29">
         <v>148</v>
       </c>
@@ -4554,12 +4558,12 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="62" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="53">
+      <c r="A24" s="52"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="58">
         <v>2</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="52" t="s">
         <v>219</v>
       </c>
       <c r="E24" s="29">
@@ -4573,10 +4577,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="62" customHeight="1">
-      <c r="A25" s="55"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="55"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="29">
         <v>247</v>
       </c>
@@ -4588,10 +4592,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="62" customHeight="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="55"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="29">
         <v>254</v>
       </c>
@@ -4603,10 +4607,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="62" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="55"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="29">
         <v>143</v>
       </c>
@@ -4618,12 +4622,12 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="62" customHeight="1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="53">
+      <c r="A28" s="52"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="58">
         <v>3</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="52" t="s">
         <v>266</v>
       </c>
       <c r="E28" s="29">
@@ -4637,10 +4641,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="62" customHeight="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="55"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="29">
         <v>29</v>
       </c>
@@ -4652,10 +4656,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="62" customHeight="1">
-      <c r="A30" s="55"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="55"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="29">
         <v>404</v>
       </c>
@@ -4667,10 +4671,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="56"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="37">
         <v>15</v>
       </c>
@@ -4682,16 +4686,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="54" t="s">
         <v>1062</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="55" t="s">
         <v>1070</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="60">
         <v>1</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="54" t="s">
         <v>267</v>
       </c>
       <c r="E32" s="36">
@@ -4705,10 +4709,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="62" customHeight="1">
-      <c r="A33" s="55"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="55"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="29">
         <v>484</v>
       </c>
@@ -4720,10 +4724,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="62" customHeight="1">
-      <c r="A34" s="55"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="55"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="29">
         <v>110</v>
       </c>
@@ -4735,10 +4739,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="62" customHeight="1">
-      <c r="A35" s="55"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="55"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="29">
         <v>144</v>
       </c>
@@ -4750,12 +4754,12 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="62" customHeight="1">
-      <c r="A36" s="55"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="53">
+      <c r="A36" s="52"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="58">
         <v>2</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="52" t="s">
         <v>233</v>
       </c>
       <c r="E36" s="29">
@@ -4769,10 +4773,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="62" customHeight="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="55"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="29">
         <v>385</v>
       </c>
@@ -4784,10 +4788,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="62" customHeight="1">
-      <c r="A38" s="55"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="55"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="29">
         <v>160</v>
       </c>
@@ -4799,10 +4803,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="62" customHeight="1">
-      <c r="A39" s="55"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="55"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="29">
         <v>292</v>
       </c>
@@ -4814,12 +4818,12 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="62" customHeight="1">
-      <c r="A40" s="55"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="53">
+      <c r="A40" s="52"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="58">
         <v>3</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="52" t="s">
         <v>186</v>
       </c>
       <c r="E40" s="29">
@@ -4833,10 +4837,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="62" customHeight="1">
-      <c r="A41" s="55"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="55"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="29">
         <v>278</v>
       </c>
@@ -4848,10 +4852,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="62" customHeight="1">
-      <c r="A42" s="55"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="55"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="29">
         <v>181</v>
       </c>
@@ -4863,10 +4867,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A43" s="56"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="56"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="37">
         <v>464</v>
       </c>
@@ -4878,16 +4882,16 @@
       </c>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="54" t="s">
         <v>1063</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="55" t="s">
         <v>1067</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C44" s="60">
         <v>1</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="54" t="s">
         <v>268</v>
       </c>
       <c r="E44" s="36">
@@ -4901,10 +4905,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="62" customHeight="1">
-      <c r="A45" s="55"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="55"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="29">
         <v>204</v>
       </c>
@@ -4916,10 +4920,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="62" customHeight="1">
-      <c r="A46" s="55"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="55"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="29">
         <v>206</v>
       </c>
@@ -4931,12 +4935,12 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="62" customHeight="1">
-      <c r="A47" s="55"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="53">
+      <c r="A47" s="52"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="58">
         <v>2</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="52" t="s">
         <v>269</v>
       </c>
       <c r="E47" s="29">
@@ -4950,10 +4954,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="62" customHeight="1">
-      <c r="A48" s="55"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="55"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="29">
         <v>213</v>
       </c>
@@ -4965,10 +4969,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="62" customHeight="1">
-      <c r="A49" s="55"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="55"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="29">
         <v>141</v>
       </c>
@@ -4980,12 +4984,12 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="62" customHeight="1">
-      <c r="A50" s="55"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="53">
+      <c r="A50" s="52"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="58">
         <v>3</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="52" t="s">
         <v>261</v>
       </c>
       <c r="E50" s="29">
@@ -4999,10 +5003,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="62" customHeight="1">
-      <c r="A51" s="55"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="55"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="29">
         <v>91</v>
       </c>
@@ -5014,10 +5018,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="62" customHeight="1" thickBot="1">
-      <c r="A52" s="56"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="56"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="29">
         <v>65</v>
       </c>
@@ -5029,16 +5033,16 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="54" t="s">
         <v>1063</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="55" t="s">
         <v>1068</v>
       </c>
-      <c r="C53" s="52">
+      <c r="C53" s="60">
         <v>1</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="54" t="s">
         <v>270</v>
       </c>
       <c r="E53" s="36">
@@ -5052,10 +5056,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="62" customHeight="1">
-      <c r="A54" s="55"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="55"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="52"/>
       <c r="E54" s="29">
         <v>433</v>
       </c>
@@ -5067,10 +5071,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="62" customHeight="1">
-      <c r="A55" s="55"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="55"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="52"/>
       <c r="E55" s="29">
         <v>163</v>
       </c>
@@ -5082,12 +5086,12 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="62" customHeight="1">
-      <c r="A56" s="55"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="53">
+      <c r="A56" s="52"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="58">
         <v>2</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="52" t="s">
         <v>271</v>
       </c>
       <c r="E56" s="29">
@@ -5101,10 +5105,10 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="62" customHeight="1">
-      <c r="A57" s="55"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="55"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="29">
         <v>257</v>
       </c>
@@ -5116,10 +5120,10 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="62" customHeight="1">
-      <c r="A58" s="55"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="55"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="29">
         <v>344</v>
       </c>
@@ -5131,12 +5135,12 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="62" customHeight="1">
-      <c r="A59" s="55"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="53">
+      <c r="A59" s="52"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="58">
         <v>3</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="52" t="s">
         <v>238</v>
       </c>
       <c r="E59" s="29">
@@ -5150,10 +5154,10 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="62" customHeight="1">
-      <c r="A60" s="55"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="55"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="52"/>
       <c r="E60" s="29">
         <v>276</v>
       </c>
@@ -5165,10 +5169,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A61" s="56"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="56"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="37">
         <v>366</v>
       </c>
@@ -5180,16 +5184,16 @@
       </c>
     </row>
     <row r="62" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="54" t="s">
         <v>1063</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="55" t="s">
         <v>1069</v>
       </c>
-      <c r="C62" s="52">
+      <c r="C62" s="60">
         <v>1</v>
       </c>
-      <c r="D62" s="57" t="s">
+      <c r="D62" s="54" t="s">
         <v>272</v>
       </c>
       <c r="E62" s="36">
@@ -5203,10 +5207,10 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="62" customHeight="1">
-      <c r="A63" s="55"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="55"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="29">
         <v>351</v>
       </c>
@@ -5218,10 +5222,10 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="62" customHeight="1">
-      <c r="A64" s="55"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="55"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="29">
         <v>489</v>
       </c>
@@ -5233,10 +5237,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="62" customHeight="1">
-      <c r="A65" s="55"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="55"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="29">
         <v>16</v>
       </c>
@@ -5248,12 +5252,12 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="62" customHeight="1">
-      <c r="A66" s="55"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="53">
+      <c r="A66" s="52"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="58">
         <v>2</v>
       </c>
-      <c r="D66" s="55" t="s">
+      <c r="D66" s="52" t="s">
         <v>228</v>
       </c>
       <c r="E66" s="29">
@@ -5267,10 +5271,10 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="62" customHeight="1">
-      <c r="A67" s="55"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="55"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="29">
         <v>58</v>
       </c>
@@ -5282,10 +5286,10 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="62" customHeight="1">
-      <c r="A68" s="55"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="55"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="52"/>
       <c r="E68" s="29">
         <v>115</v>
       </c>
@@ -5297,10 +5301,10 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="62" customHeight="1">
-      <c r="A69" s="55"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="55"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="29">
         <v>130</v>
       </c>
@@ -5312,12 +5316,12 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="62" customHeight="1">
-      <c r="A70" s="55"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="53">
+      <c r="A70" s="52"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="58">
         <v>3</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="52" t="s">
         <v>43</v>
       </c>
       <c r="E70" s="29">
@@ -5331,10 +5335,10 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="62" customHeight="1">
-      <c r="A71" s="55"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="55"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="52"/>
       <c r="E71" s="29">
         <v>329</v>
       </c>
@@ -5346,10 +5350,10 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="62" customHeight="1">
-      <c r="A72" s="55"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="55"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="29">
         <v>474</v>
       </c>
@@ -5361,10 +5365,10 @@
       </c>
     </row>
     <row r="73" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A73" s="56"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="56"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="53"/>
       <c r="E73" s="37">
         <v>283</v>
       </c>
@@ -5376,16 +5380,16 @@
       </c>
     </row>
     <row r="74" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A74" s="57" t="s">
+      <c r="A74" s="54" t="s">
         <v>1063</v>
       </c>
-      <c r="B74" s="58" t="s">
+      <c r="B74" s="55" t="s">
         <v>1070</v>
       </c>
-      <c r="C74" s="52">
+      <c r="C74" s="60">
         <v>1</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="54" t="s">
         <v>273</v>
       </c>
       <c r="E74" s="36">
@@ -5399,10 +5403,10 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="62" customHeight="1">
-      <c r="A75" s="55"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="55"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="29">
         <v>275</v>
       </c>
@@ -5414,10 +5418,10 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="62" customHeight="1">
-      <c r="A76" s="55"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="55"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="52"/>
       <c r="E76" s="29">
         <v>348</v>
       </c>
@@ -5429,10 +5433,10 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="62" customHeight="1">
-      <c r="A77" s="55"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="55"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="52"/>
       <c r="E77" s="29">
         <v>191</v>
       </c>
@@ -5444,12 +5448,12 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="62" customHeight="1">
-      <c r="A78" s="55"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="53">
+      <c r="A78" s="52"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="58">
         <v>2</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D78" s="52" t="s">
         <v>274</v>
       </c>
       <c r="E78" s="29">
@@ -5463,10 +5467,10 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="62" customHeight="1">
-      <c r="A79" s="55"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="55"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="29">
         <v>419</v>
       </c>
@@ -5478,10 +5482,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="62" customHeight="1">
-      <c r="A80" s="55"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="55"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="52"/>
       <c r="E80" s="29">
         <v>357</v>
       </c>
@@ -5493,10 +5497,10 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="62" customHeight="1">
-      <c r="A81" s="55"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="55"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="52"/>
       <c r="E81" s="29">
         <v>19</v>
       </c>
@@ -5508,12 +5512,12 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="62" customHeight="1">
-      <c r="A82" s="55"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="53">
+      <c r="A82" s="52"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="58">
         <v>3</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="D82" s="52" t="s">
         <v>275</v>
       </c>
       <c r="E82" s="29">
@@ -5527,10 +5531,10 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="62" customHeight="1">
-      <c r="A83" s="55"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="55"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="52"/>
       <c r="E83" s="29">
         <v>5</v>
       </c>
@@ -5542,10 +5546,10 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="62" customHeight="1">
-      <c r="A84" s="55"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="55"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="29">
         <v>268</v>
       </c>
@@ -5557,10 +5561,10 @@
       </c>
     </row>
     <row r="85" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A85" s="56"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="56"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="53"/>
       <c r="E85" s="37">
         <v>325</v>
       </c>
@@ -5572,16 +5576,16 @@
       </c>
     </row>
     <row r="86" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A86" s="57" t="s">
+      <c r="A86" s="54" t="s">
         <v>1064</v>
       </c>
-      <c r="B86" s="58" t="s">
+      <c r="B86" s="55" t="s">
         <v>1067</v>
       </c>
-      <c r="C86" s="52">
+      <c r="C86" s="60">
         <v>1</v>
       </c>
-      <c r="D86" s="57" t="s">
+      <c r="D86" s="54" t="s">
         <v>579</v>
       </c>
       <c r="E86" s="36">
@@ -5595,10 +5599,10 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="62" customHeight="1">
-      <c r="A87" s="55"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="55"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="29">
         <v>150</v>
       </c>
@@ -5610,10 +5614,10 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="62" customHeight="1">
-      <c r="A88" s="55"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="55"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="52"/>
       <c r="E88" s="29">
         <v>117</v>
       </c>
@@ -5625,12 +5629,12 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="62" customHeight="1">
-      <c r="A89" s="55"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="53">
+      <c r="A89" s="52"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="58">
         <v>2</v>
       </c>
-      <c r="D89" s="55" t="s">
+      <c r="D89" s="52" t="s">
         <v>51</v>
       </c>
       <c r="E89" s="29">
@@ -5644,10 +5648,10 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="62" customHeight="1">
-      <c r="A90" s="55"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="55"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="29">
         <v>133</v>
       </c>
@@ -5659,10 +5663,10 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="62" customHeight="1">
-      <c r="A91" s="55"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="55"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="52"/>
       <c r="E91" s="29">
         <v>242</v>
       </c>
@@ -5674,12 +5678,12 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="62" customHeight="1">
-      <c r="A92" s="55"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="53">
+      <c r="A92" s="52"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="58">
         <v>3</v>
       </c>
-      <c r="D92" s="55" t="s">
+      <c r="D92" s="52" t="s">
         <v>242</v>
       </c>
       <c r="E92" s="29">
@@ -5693,10 +5697,10 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="62" customHeight="1">
-      <c r="A93" s="55"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="55"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="52"/>
       <c r="E93" s="29">
         <v>304</v>
       </c>
@@ -5708,10 +5712,10 @@
       </c>
     </row>
     <row r="94" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A94" s="56"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="56"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="53"/>
       <c r="E94" s="37">
         <v>316</v>
       </c>
@@ -5723,33 +5727,33 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A95" s="57" t="s">
+      <c r="A95" s="54" t="s">
         <v>1064</v>
       </c>
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="55" t="s">
         <v>1068</v>
       </c>
-      <c r="C95" s="52">
+      <c r="C95" s="60">
         <v>1</v>
       </c>
-      <c r="D95" s="57" t="s">
+      <c r="D95" s="54" t="s">
         <v>279</v>
       </c>
       <c r="E95" s="36">
         <v>447</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>564</v>
+        <v>1095</v>
       </c>
       <c r="G95" s="23" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="62" customHeight="1">
-      <c r="A96" s="55"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="55"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="29">
         <v>105</v>
       </c>
@@ -5761,10 +5765,10 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="62" customHeight="1">
-      <c r="A97" s="55"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="55"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="52"/>
       <c r="E97" s="29">
         <v>314</v>
       </c>
@@ -5776,12 +5780,12 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="62" customHeight="1">
-      <c r="A98" s="55"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="53">
+      <c r="A98" s="52"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="58">
         <v>2</v>
       </c>
-      <c r="D98" s="55" t="s">
+      <c r="D98" s="52" t="s">
         <v>257</v>
       </c>
       <c r="E98" s="29">
@@ -5795,10 +5799,10 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="62" customHeight="1">
-      <c r="A99" s="55"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="55"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="52"/>
       <c r="E99" s="29">
         <v>124</v>
       </c>
@@ -5810,10 +5814,10 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="62" customHeight="1">
-      <c r="A100" s="55"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="55"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="52"/>
       <c r="E100" s="29">
         <v>290</v>
       </c>
@@ -5825,12 +5829,12 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="62" customHeight="1">
-      <c r="A101" s="55"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="53">
+      <c r="A101" s="52"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="58">
         <v>3</v>
       </c>
-      <c r="D101" s="55" t="s">
+      <c r="D101" s="52" t="s">
         <v>548</v>
       </c>
       <c r="E101" s="29">
@@ -5844,10 +5848,10 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="62" customHeight="1">
-      <c r="A102" s="55"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="55"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="52"/>
       <c r="E102" s="29">
         <v>293</v>
       </c>
@@ -5859,10 +5863,10 @@
       </c>
     </row>
     <row r="103" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A103" s="56"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="56"/>
+      <c r="A103" s="53"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="53"/>
       <c r="E103" s="37">
         <v>449</v>
       </c>
@@ -5874,16 +5878,16 @@
       </c>
     </row>
     <row r="104" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A104" s="57" t="s">
+      <c r="A104" s="54" t="s">
         <v>1064</v>
       </c>
-      <c r="B104" s="58" t="s">
+      <c r="B104" s="55" t="s">
         <v>1069</v>
       </c>
-      <c r="C104" s="52">
+      <c r="C104" s="60">
         <v>1</v>
       </c>
-      <c r="D104" s="57" t="s">
+      <c r="D104" s="54" t="s">
         <v>181</v>
       </c>
       <c r="E104" s="36">
@@ -5897,10 +5901,10 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="62" customHeight="1">
-      <c r="A105" s="55"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="55"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="52"/>
       <c r="E105" s="29">
         <v>182</v>
       </c>
@@ -5912,10 +5916,10 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="62" customHeight="1">
-      <c r="A106" s="55"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="55"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="52"/>
       <c r="E106" s="29">
         <v>414</v>
       </c>
@@ -5927,10 +5931,10 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="62" customHeight="1">
-      <c r="A107" s="55"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="55"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="29">
         <v>445</v>
       </c>
@@ -5942,12 +5946,12 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="62" customHeight="1">
-      <c r="A108" s="55"/>
-      <c r="B108" s="59"/>
-      <c r="C108" s="53">
+      <c r="A108" s="52"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="58">
         <v>2</v>
       </c>
-      <c r="D108" s="55" t="s">
+      <c r="D108" s="52" t="s">
         <v>214</v>
       </c>
       <c r="E108" s="29">
@@ -5961,10 +5965,10 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="62" customHeight="1">
-      <c r="A109" s="55"/>
-      <c r="B109" s="59"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="55"/>
+      <c r="A109" s="52"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="52"/>
       <c r="E109" s="29">
         <v>340</v>
       </c>
@@ -5976,10 +5980,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="62" customHeight="1">
-      <c r="A110" s="55"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="55"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="52"/>
       <c r="E110" s="29">
         <v>111</v>
       </c>
@@ -5991,10 +5995,10 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="62" customHeight="1">
-      <c r="A111" s="55"/>
-      <c r="B111" s="59"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="55"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="52"/>
       <c r="E111" s="29">
         <v>371</v>
       </c>
@@ -6006,12 +6010,12 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="62" customHeight="1">
-      <c r="A112" s="55"/>
-      <c r="B112" s="59"/>
-      <c r="C112" s="53">
+      <c r="A112" s="52"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="58">
         <v>3</v>
       </c>
-      <c r="D112" s="55" t="s">
+      <c r="D112" s="52" t="s">
         <v>176</v>
       </c>
       <c r="E112" s="29">
@@ -6025,10 +6029,10 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="62" customHeight="1">
-      <c r="A113" s="55"/>
-      <c r="B113" s="59"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="55"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="52"/>
       <c r="E113" s="29">
         <v>47</v>
       </c>
@@ -6040,10 +6044,10 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="62" customHeight="1">
-      <c r="A114" s="55"/>
-      <c r="B114" s="59"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="55"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="52"/>
       <c r="E114" s="29">
         <v>347</v>
       </c>
@@ -6055,10 +6059,10 @@
       </c>
     </row>
     <row r="115" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A115" s="56"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="54"/>
-      <c r="D115" s="56"/>
+      <c r="A115" s="53"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="53"/>
       <c r="E115" s="37">
         <v>487</v>
       </c>
@@ -6070,16 +6074,16 @@
       </c>
     </row>
     <row r="116" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A116" s="57" t="s">
+      <c r="A116" s="54" t="s">
         <v>1064</v>
       </c>
-      <c r="B116" s="58" t="s">
+      <c r="B116" s="55" t="s">
         <v>1070</v>
       </c>
-      <c r="C116" s="52">
+      <c r="C116" s="60">
         <v>1</v>
       </c>
-      <c r="D116" s="57" t="s">
+      <c r="D116" s="54" t="s">
         <v>278</v>
       </c>
       <c r="E116" s="36">
@@ -6093,10 +6097,10 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="62" customHeight="1">
-      <c r="A117" s="55"/>
-      <c r="B117" s="59"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="55"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="52"/>
       <c r="E117" s="29">
         <v>97</v>
       </c>
@@ -6108,10 +6112,10 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="62" customHeight="1">
-      <c r="A118" s="55"/>
-      <c r="B118" s="59"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="55"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="56"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="52"/>
       <c r="E118" s="29">
         <v>152</v>
       </c>
@@ -6123,10 +6127,10 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="62" customHeight="1">
-      <c r="A119" s="55"/>
-      <c r="B119" s="59"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="55"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="56"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="52"/>
       <c r="E119" s="29">
         <v>317</v>
       </c>
@@ -6138,12 +6142,12 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="62" customHeight="1">
-      <c r="A120" s="55"/>
-      <c r="B120" s="59"/>
-      <c r="C120" s="53">
+      <c r="A120" s="52"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="58">
         <v>2</v>
       </c>
-      <c r="D120" s="55" t="s">
+      <c r="D120" s="52" t="s">
         <v>282</v>
       </c>
       <c r="E120" s="29">
@@ -6157,10 +6161,10 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="62" customHeight="1">
-      <c r="A121" s="55"/>
-      <c r="B121" s="59"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="55"/>
+      <c r="A121" s="52"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="52"/>
       <c r="E121" s="29">
         <v>301</v>
       </c>
@@ -6172,10 +6176,10 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="62" customHeight="1">
-      <c r="A122" s="55"/>
-      <c r="B122" s="59"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="55"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="52"/>
       <c r="E122" s="29">
         <v>334</v>
       </c>
@@ -6187,10 +6191,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="62" customHeight="1">
-      <c r="A123" s="55"/>
-      <c r="B123" s="59"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="55"/>
+      <c r="A123" s="52"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="52"/>
       <c r="E123" s="29">
         <v>421</v>
       </c>
@@ -6202,12 +6206,12 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="62" customHeight="1">
-      <c r="A124" s="55"/>
-      <c r="B124" s="59"/>
-      <c r="C124" s="53">
+      <c r="A124" s="52"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="58">
         <v>3</v>
       </c>
-      <c r="D124" s="55" t="s">
+      <c r="D124" s="52" t="s">
         <v>150</v>
       </c>
       <c r="E124" s="29">
@@ -6221,10 +6225,10 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="62" customHeight="1">
-      <c r="A125" s="55"/>
-      <c r="B125" s="59"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="55"/>
+      <c r="A125" s="52"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="58"/>
+      <c r="D125" s="52"/>
       <c r="E125" s="29">
         <v>61</v>
       </c>
@@ -6236,10 +6240,10 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="62" customHeight="1">
-      <c r="A126" s="55"/>
-      <c r="B126" s="59"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="55"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="58"/>
+      <c r="D126" s="52"/>
       <c r="E126" s="29">
         <v>24</v>
       </c>
@@ -6251,10 +6255,10 @@
       </c>
     </row>
     <row r="127" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A127" s="56"/>
-      <c r="B127" s="60"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="56"/>
+      <c r="A127" s="53"/>
+      <c r="B127" s="57"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="53"/>
       <c r="E127" s="37">
         <v>132</v>
       </c>
@@ -6266,16 +6270,16 @@
       </c>
     </row>
     <row r="128" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A128" s="57" t="s">
+      <c r="A128" s="54" t="s">
         <v>1065</v>
       </c>
-      <c r="B128" s="58" t="s">
+      <c r="B128" s="55" t="s">
         <v>1067</v>
       </c>
-      <c r="C128" s="52">
+      <c r="C128" s="60">
         <v>1</v>
       </c>
-      <c r="D128" s="57" t="s">
+      <c r="D128" s="54" t="s">
         <v>495</v>
       </c>
       <c r="E128" s="36">
@@ -6289,10 +6293,10 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="62" customHeight="1">
-      <c r="A129" s="55"/>
-      <c r="B129" s="59"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="55"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="52"/>
       <c r="E129" s="29">
         <v>405</v>
       </c>
@@ -6304,10 +6308,10 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="62" customHeight="1">
-      <c r="A130" s="55"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="55"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="56"/>
+      <c r="C130" s="58"/>
+      <c r="D130" s="52"/>
       <c r="E130" s="29">
         <v>483</v>
       </c>
@@ -6319,12 +6323,12 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="62" customHeight="1">
-      <c r="A131" s="55"/>
-      <c r="B131" s="59"/>
-      <c r="C131" s="53">
+      <c r="A131" s="52"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="58">
         <v>2</v>
       </c>
-      <c r="D131" s="55" t="s">
+      <c r="D131" s="52" t="s">
         <v>283</v>
       </c>
       <c r="E131" s="29">
@@ -6338,10 +6342,10 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="62" customHeight="1">
-      <c r="A132" s="55"/>
-      <c r="B132" s="59"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="55"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="58"/>
+      <c r="D132" s="52"/>
       <c r="E132" s="29">
         <v>151</v>
       </c>
@@ -6353,12 +6357,12 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="62" customHeight="1">
-      <c r="A133" s="55"/>
-      <c r="B133" s="59"/>
-      <c r="C133" s="53">
+      <c r="A133" s="52"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="58">
         <v>3</v>
       </c>
-      <c r="D133" s="55" t="s">
+      <c r="D133" s="52" t="s">
         <v>276</v>
       </c>
       <c r="E133" s="29">
@@ -6372,10 +6376,10 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="62" customHeight="1">
-      <c r="A134" s="55"/>
-      <c r="B134" s="59"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="55"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="52"/>
       <c r="E134" s="29">
         <v>493</v>
       </c>
@@ -6387,10 +6391,10 @@
       </c>
     </row>
     <row r="135" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A135" s="56"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="54"/>
-      <c r="D135" s="56"/>
+      <c r="A135" s="53"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="53"/>
       <c r="E135" s="37">
         <v>256</v>
       </c>
@@ -6402,16 +6406,16 @@
       </c>
     </row>
     <row r="136" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A136" s="57" t="s">
+      <c r="A136" s="54" t="s">
         <v>1065</v>
       </c>
-      <c r="B136" s="58" t="s">
+      <c r="B136" s="55" t="s">
         <v>1068</v>
       </c>
-      <c r="C136" s="52">
+      <c r="C136" s="60">
         <v>1</v>
       </c>
-      <c r="D136" s="57" t="s">
+      <c r="D136" s="54" t="s">
         <v>224</v>
       </c>
       <c r="E136" s="36">
@@ -6425,10 +6429,10 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="62" customHeight="1">
-      <c r="A137" s="55"/>
-      <c r="B137" s="59"/>
-      <c r="C137" s="53"/>
-      <c r="D137" s="55"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="58"/>
+      <c r="D137" s="52"/>
       <c r="E137" s="29">
         <v>374</v>
       </c>
@@ -6440,10 +6444,10 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="62" customHeight="1">
-      <c r="A138" s="55"/>
-      <c r="B138" s="59"/>
-      <c r="C138" s="53"/>
-      <c r="D138" s="55"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="52"/>
       <c r="E138" s="29">
         <v>195</v>
       </c>
@@ -6455,12 +6459,12 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="62" customHeight="1">
-      <c r="A139" s="55"/>
-      <c r="B139" s="59"/>
-      <c r="C139" s="53">
+      <c r="A139" s="52"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="58">
         <v>2</v>
       </c>
-      <c r="D139" s="55" t="s">
+      <c r="D139" s="52" t="s">
         <v>280</v>
       </c>
       <c r="E139" s="29">
@@ -6474,10 +6478,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="62" customHeight="1">
-      <c r="A140" s="55"/>
-      <c r="B140" s="59"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="55"/>
+      <c r="A140" s="52"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="52"/>
       <c r="E140" s="29">
         <v>270</v>
       </c>
@@ -6489,10 +6493,10 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="62" customHeight="1">
-      <c r="A141" s="55"/>
-      <c r="B141" s="59"/>
-      <c r="C141" s="53"/>
-      <c r="D141" s="55"/>
+      <c r="A141" s="52"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="52"/>
       <c r="E141" s="29">
         <v>471</v>
       </c>
@@ -6504,12 +6508,12 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="62" customHeight="1">
-      <c r="A142" s="55"/>
-      <c r="B142" s="59"/>
-      <c r="C142" s="53">
+      <c r="A142" s="52"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="58">
         <v>3</v>
       </c>
-      <c r="D142" s="55" t="s">
+      <c r="D142" s="52" t="s">
         <v>203</v>
       </c>
       <c r="E142" s="29">
@@ -6523,10 +6527,10 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="62" customHeight="1">
-      <c r="A143" s="55"/>
-      <c r="B143" s="59"/>
-      <c r="C143" s="53"/>
-      <c r="D143" s="55"/>
+      <c r="A143" s="52"/>
+      <c r="B143" s="56"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="52"/>
       <c r="E143" s="29">
         <v>76</v>
       </c>
@@ -6538,10 +6542,10 @@
       </c>
     </row>
     <row r="144" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A144" s="56"/>
-      <c r="B144" s="60"/>
-      <c r="C144" s="54"/>
-      <c r="D144" s="56"/>
+      <c r="A144" s="53"/>
+      <c r="B144" s="57"/>
+      <c r="C144" s="59"/>
+      <c r="D144" s="53"/>
       <c r="E144" s="37">
         <v>207</v>
       </c>
@@ -6553,16 +6557,16 @@
       </c>
     </row>
     <row r="145" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A145" s="57" t="s">
+      <c r="A145" s="54" t="s">
         <v>1065</v>
       </c>
-      <c r="B145" s="58" t="s">
+      <c r="B145" s="55" t="s">
         <v>1071</v>
       </c>
-      <c r="C145" s="52">
+      <c r="C145" s="60">
         <v>1</v>
       </c>
-      <c r="D145" s="57" t="s">
+      <c r="D145" s="54" t="s">
         <v>281</v>
       </c>
       <c r="E145" s="36">
@@ -6576,10 +6580,10 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="62" customHeight="1">
-      <c r="A146" s="55"/>
-      <c r="B146" s="59"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="55"/>
+      <c r="A146" s="52"/>
+      <c r="B146" s="56"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="52"/>
       <c r="E146" s="29">
         <v>406</v>
       </c>
@@ -6591,10 +6595,10 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="62" customHeight="1">
-      <c r="A147" s="55"/>
-      <c r="B147" s="59"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="55"/>
+      <c r="A147" s="52"/>
+      <c r="B147" s="56"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="52"/>
       <c r="E147" s="29">
         <v>279</v>
       </c>
@@ -6606,12 +6610,12 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="62" customHeight="1">
-      <c r="A148" s="55"/>
-      <c r="B148" s="59"/>
-      <c r="C148" s="53">
+      <c r="A148" s="52"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="58">
         <v>2</v>
       </c>
-      <c r="D148" s="55" t="s">
+      <c r="D148" s="52" t="s">
         <v>277</v>
       </c>
       <c r="E148" s="29">
@@ -6625,10 +6629,10 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="62" customHeight="1">
-      <c r="A149" s="55"/>
-      <c r="B149" s="59"/>
-      <c r="C149" s="53"/>
-      <c r="D149" s="55"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="58"/>
+      <c r="D149" s="52"/>
       <c r="E149" s="29">
         <v>69</v>
       </c>
@@ -6640,10 +6644,10 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="62" customHeight="1">
-      <c r="A150" s="55"/>
-      <c r="B150" s="59"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="55"/>
+      <c r="A150" s="52"/>
+      <c r="B150" s="56"/>
+      <c r="C150" s="58"/>
+      <c r="D150" s="52"/>
       <c r="E150" s="29">
         <v>378</v>
       </c>
@@ -6655,12 +6659,12 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="62" customHeight="1">
-      <c r="A151" s="55"/>
-      <c r="B151" s="59"/>
-      <c r="C151" s="53">
+      <c r="A151" s="52"/>
+      <c r="B151" s="56"/>
+      <c r="C151" s="58">
         <v>3</v>
       </c>
-      <c r="D151" s="55" t="s">
+      <c r="D151" s="52" t="s">
         <v>448</v>
       </c>
       <c r="E151" s="29">
@@ -6674,10 +6678,10 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="62" customHeight="1">
-      <c r="A152" s="55"/>
-      <c r="B152" s="59"/>
-      <c r="C152" s="53"/>
-      <c r="D152" s="55"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="56"/>
+      <c r="C152" s="58"/>
+      <c r="D152" s="52"/>
       <c r="E152" s="29">
         <v>167</v>
       </c>
@@ -6689,10 +6693,10 @@
       </c>
     </row>
     <row r="153" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A153" s="56"/>
-      <c r="B153" s="60"/>
-      <c r="C153" s="54"/>
-      <c r="D153" s="56"/>
+      <c r="A153" s="53"/>
+      <c r="B153" s="57"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="53"/>
       <c r="E153" s="37">
         <v>326</v>
       </c>
@@ -6704,16 +6708,16 @@
       </c>
     </row>
     <row r="154" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A154" s="57" t="s">
+      <c r="A154" s="54" t="s">
         <v>1065</v>
       </c>
-      <c r="B154" s="58" t="s">
+      <c r="B154" s="55" t="s">
         <v>1072</v>
       </c>
-      <c r="C154" s="52">
+      <c r="C154" s="60">
         <v>1</v>
       </c>
-      <c r="D154" s="57" t="s">
+      <c r="D154" s="54" t="s">
         <v>442</v>
       </c>
       <c r="E154" s="36">
@@ -6727,10 +6731,10 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="62" customHeight="1">
-      <c r="A155" s="55"/>
-      <c r="B155" s="59"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="55"/>
+      <c r="A155" s="52"/>
+      <c r="B155" s="56"/>
+      <c r="C155" s="58"/>
+      <c r="D155" s="52"/>
       <c r="E155" s="29">
         <v>203</v>
       </c>
@@ -6742,10 +6746,10 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="62" customHeight="1">
-      <c r="A156" s="55"/>
-      <c r="B156" s="59"/>
-      <c r="C156" s="53"/>
-      <c r="D156" s="55"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="56"/>
+      <c r="C156" s="58"/>
+      <c r="D156" s="52"/>
       <c r="E156" s="29">
         <v>398</v>
       </c>
@@ -6757,12 +6761,12 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="62" customHeight="1">
-      <c r="A157" s="55"/>
-      <c r="B157" s="59"/>
-      <c r="C157" s="53">
+      <c r="A157" s="52"/>
+      <c r="B157" s="56"/>
+      <c r="C157" s="58">
         <v>2</v>
       </c>
-      <c r="D157" s="55" t="s">
+      <c r="D157" s="52" t="s">
         <v>284</v>
       </c>
       <c r="E157" s="29">
@@ -6776,10 +6780,10 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="62" customHeight="1">
-      <c r="A158" s="55"/>
-      <c r="B158" s="59"/>
-      <c r="C158" s="53"/>
-      <c r="D158" s="55"/>
+      <c r="A158" s="52"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="52"/>
       <c r="E158" s="29">
         <v>53</v>
       </c>
@@ -6791,10 +6795,10 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="62" customHeight="1">
-      <c r="A159" s="55"/>
-      <c r="B159" s="59"/>
-      <c r="C159" s="53"/>
-      <c r="D159" s="55"/>
+      <c r="A159" s="52"/>
+      <c r="B159" s="56"/>
+      <c r="C159" s="58"/>
+      <c r="D159" s="52"/>
       <c r="E159" s="29">
         <v>320</v>
       </c>
@@ -6806,12 +6810,12 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="62" customHeight="1">
-      <c r="A160" s="55"/>
-      <c r="B160" s="59"/>
-      <c r="C160" s="53">
+      <c r="A160" s="52"/>
+      <c r="B160" s="56"/>
+      <c r="C160" s="58">
         <v>3</v>
       </c>
-      <c r="D160" s="55" t="s">
+      <c r="D160" s="52" t="s">
         <v>285</v>
       </c>
       <c r="E160" s="29">
@@ -6825,10 +6829,10 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="62" customHeight="1">
-      <c r="A161" s="55"/>
-      <c r="B161" s="59"/>
-      <c r="C161" s="53"/>
-      <c r="D161" s="55"/>
+      <c r="A161" s="52"/>
+      <c r="B161" s="56"/>
+      <c r="C161" s="58"/>
+      <c r="D161" s="52"/>
       <c r="E161" s="29">
         <v>85</v>
       </c>
@@ -6840,10 +6844,10 @@
       </c>
     </row>
     <row r="162" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A162" s="56"/>
-      <c r="B162" s="60"/>
-      <c r="C162" s="54"/>
-      <c r="D162" s="56"/>
+      <c r="A162" s="53"/>
+      <c r="B162" s="57"/>
+      <c r="C162" s="59"/>
+      <c r="D162" s="53"/>
       <c r="E162" s="37">
         <v>121</v>
       </c>
@@ -6862,18 +6866,86 @@
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="A128:A135"/>
-    <mergeCell ref="B128:B135"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="A154:A162"/>
-    <mergeCell ref="A136:A144"/>
-    <mergeCell ref="A145:A153"/>
-    <mergeCell ref="B145:B153"/>
-    <mergeCell ref="B154:B162"/>
-    <mergeCell ref="B136:B144"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="D116:D119"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D39"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B20:B31"/>
@@ -6898,45 +6970,18 @@
     <mergeCell ref="A44:A52"/>
     <mergeCell ref="B44:B52"/>
     <mergeCell ref="B86:B94"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="D116:D119"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="A128:A135"/>
+    <mergeCell ref="B128:B135"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="A154:A162"/>
+    <mergeCell ref="A136:A144"/>
+    <mergeCell ref="A145:A153"/>
+    <mergeCell ref="B145:B153"/>
+    <mergeCell ref="B154:B162"/>
+    <mergeCell ref="B136:B144"/>
     <mergeCell ref="C145:C147"/>
     <mergeCell ref="C142:C144"/>
     <mergeCell ref="C139:C141"/>
@@ -6949,47 +6994,6 @@
     <mergeCell ref="C151:C153"/>
     <mergeCell ref="C148:C150"/>
     <mergeCell ref="D142:D144"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C24:C27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
@@ -7019,7 +7023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212612BB-E84A-4441-9066-EF49AFBE483D}">
   <dimension ref="A1:BB165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/content/program/TRISTAN2025_final_program.xlsx
+++ b/content/program/TRISTAN2025_final_program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D314DE0-5C1B-C449-982E-4933509704EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5F228-8BE4-DF42-BEBA-D0AF6F8B243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="3" xr2:uid="{6B18BE26-13C5-0449-A7C1-25BFDB85670B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6B18BE26-13C5-0449-A7C1-25BFDB85670B}"/>
   </bookViews>
   <sheets>
     <sheet name="Program list (2)" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Paper Data" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Program list (2)'!$A$1:$G$162</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Program list (2)'!$A$1:$G$152</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7501" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7481" uniqueCount="1098">
   <si>
     <t>Humanitarian Logistics</t>
   </si>
@@ -3443,6 +3443,13 @@
   <si>
     <t>Zhenjun Tian, Zhaoxia Guo, Feng Guo, Mouna Bamoumen and Jan Fransoo. A deep attention model for solving vehicle routing problems with uncertain parking availability</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Md Tabish Haque, Jan Eisold and Nikola Besinovic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Monday, June 23rd</t>
   </si>
 </sst>
 </file>
@@ -3660,7 +3667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3789,14 +3796,8 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3816,11 +3817,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4159,10 +4169,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScale="81" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A112" zoomScale="40" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145:B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="31"/>
@@ -4201,16 +4211,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="60">
         <v>1</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="53" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="36">
@@ -4224,10 +4234,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="62" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="29">
         <v>55</v>
       </c>
@@ -4239,10 +4249,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="62" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="29">
         <v>412</v>
       </c>
@@ -4254,12 +4264,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="62" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="52">
+      <c r="A5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="59">
         <v>2</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="54" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="29">
@@ -4273,10 +4283,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="62" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="56"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="29">
         <v>253</v>
       </c>
@@ -4288,10 +4298,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="62" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="56"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="29">
         <v>72</v>
       </c>
@@ -4303,12 +4313,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="62" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="52">
+      <c r="A8" s="54"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="59">
         <v>3</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="29">
@@ -4322,10 +4332,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="62" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="56"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="29">
         <v>37</v>
       </c>
@@ -4337,10 +4347,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="37">
         <v>452</v>
       </c>
@@ -4351,2662 +4361,2512 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:7" ht="62" customHeight="1">
+      <c r="A11" s="54" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C11" s="59">
+        <v>1</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="29">
+        <v>441</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="62" customHeight="1">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="29">
+        <v>212</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="62" customHeight="1">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="59">
+        <v>2</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="29">
+        <v>12</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="62" customHeight="1">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="29">
+        <v>296</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="62" customHeight="1">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="29">
+        <v>457</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="62" customHeight="1">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="59">
+        <v>3</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="29">
+        <v>27</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="62" customHeight="1">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="29">
+        <v>211</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="37">
+        <v>199</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A19" s="53" t="s">
         <v>1059</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B19" s="56" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C19" s="60">
+        <v>1</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="36">
+        <v>156</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="62" customHeight="1">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="29">
+        <v>13</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="62" customHeight="1">
+      <c r="A21" s="54"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="29">
+        <v>17</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="62" customHeight="1">
+      <c r="A22" s="54"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="29">
+        <v>148</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="62" customHeight="1">
+      <c r="A23" s="54"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="59">
+        <v>2</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="29">
+        <v>38</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="62" customHeight="1">
+      <c r="A24" s="54"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="29">
+        <v>247</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="62" customHeight="1">
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="29">
+        <v>254</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="62" customHeight="1">
+      <c r="A26" s="54"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="29">
+        <v>143</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="62" customHeight="1">
+      <c r="A27" s="54"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="59">
+        <v>3</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" s="29">
+        <v>388</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="62" customHeight="1">
+      <c r="A28" s="54"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="29">
+        <v>29</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="62" customHeight="1">
+      <c r="A29" s="54"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="29">
+        <v>404</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A30" s="55"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="37">
+        <v>15</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A31" s="53" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C31" s="60">
+        <v>1</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31" s="36">
+        <v>337</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="62" customHeight="1">
+      <c r="A32" s="54"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="29">
+        <v>484</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="62" customHeight="1">
+      <c r="A33" s="54"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="29">
+        <v>110</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="62" customHeight="1">
+      <c r="A34" s="54"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="29">
+        <v>144</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="62" customHeight="1">
+      <c r="A35" s="54"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="59">
+        <v>2</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="29">
+        <v>382</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="62" customHeight="1">
+      <c r="A36" s="54"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="29">
+        <v>385</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="62" customHeight="1">
+      <c r="A37" s="54"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="29">
+        <v>160</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="62" customHeight="1">
+      <c r="A38" s="54"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="29">
+        <v>292</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="62" customHeight="1">
+      <c r="A39" s="54"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="59">
+        <v>3</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="29">
+        <v>278</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="62" customHeight="1">
+      <c r="A40" s="54"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="29">
+        <v>181</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A41" s="55"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="37">
+        <v>464</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A42" s="53" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C42" s="60">
+        <v>1</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="36">
+        <v>23</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="62" customHeight="1">
+      <c r="A43" s="54"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="29">
+        <v>204</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="62" customHeight="1">
+      <c r="A44" s="54"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="29">
+        <v>206</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="62" customHeight="1">
+      <c r="A45" s="54"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="59">
+        <v>2</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="E45" s="29">
+        <v>101</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="62" customHeight="1">
+      <c r="A46" s="54"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="29">
+        <v>213</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="62" customHeight="1">
+      <c r="A47" s="54"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="29">
+        <v>141</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="62" customHeight="1">
+      <c r="A48" s="54"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="59">
+        <v>3</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" s="29">
+        <v>456</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="62" customHeight="1" thickBot="1">
+      <c r="A49" s="55"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="29">
+        <v>65</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>976</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A50" s="53" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B50" s="56" t="s">
         <v>1065</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C50" s="60">
         <v>1</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="D50" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" s="36">
+        <v>407</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="62" customHeight="1">
+      <c r="A51" s="54"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="29">
+        <v>433</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="62" customHeight="1">
+      <c r="A52" s="54"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="29">
+        <v>163</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="62" customHeight="1">
+      <c r="A53" s="54"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="59">
+        <v>2</v>
+      </c>
+      <c r="D53" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53" s="29">
+        <v>491</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="62" customHeight="1">
+      <c r="A54" s="54"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="29">
+        <v>257</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="62" customHeight="1">
+      <c r="A55" s="54"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="29">
+        <v>344</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="62" customHeight="1">
+      <c r="A56" s="54"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="59">
+        <v>3</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" s="29">
+        <v>420</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="62" customHeight="1">
+      <c r="A57" s="54"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="29">
+        <v>276</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A58" s="55"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="37">
+        <v>366</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A59" s="53" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C59" s="60">
+        <v>1</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="E59" s="36">
+        <v>245</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="62" customHeight="1">
+      <c r="A60" s="54"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="29">
+        <v>351</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="62" customHeight="1">
+      <c r="A61" s="54"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="29">
+        <v>489</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="62" customHeight="1">
+      <c r="A62" s="54"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="29">
+        <v>16</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="62" customHeight="1">
+      <c r="A63" s="54"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="59">
+        <v>2</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" s="29">
+        <v>410</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="62" customHeight="1">
+      <c r="A64" s="54"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="29">
+        <v>58</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="62" customHeight="1">
+      <c r="A65" s="54"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="29">
+        <v>115</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="62" customHeight="1">
+      <c r="A66" s="54"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="29">
+        <v>130</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="62" customHeight="1">
+      <c r="A67" s="54"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="59">
+        <v>3</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="29">
+        <v>154</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="62" customHeight="1">
+      <c r="A68" s="54"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="29">
+        <v>329</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="62" customHeight="1">
+      <c r="A69" s="54"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="29">
+        <v>474</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A70" s="55"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="37">
+        <v>283</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A71" s="53" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C71" s="60">
+        <v>1</v>
+      </c>
+      <c r="D71" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="36">
+        <v>147</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="62" customHeight="1">
+      <c r="A72" s="54"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="29">
+        <v>275</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="G72" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="62" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="29">
+    </row>
+    <row r="73" spans="1:7" ht="62" customHeight="1">
+      <c r="A73" s="54"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="29">
+        <v>348</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="62" customHeight="1">
+      <c r="A74" s="54"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="29">
+        <v>191</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="62" customHeight="1">
+      <c r="A75" s="54"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="59">
+        <v>2</v>
+      </c>
+      <c r="D75" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E75" s="29">
+        <v>431</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="62" customHeight="1">
+      <c r="A76" s="54"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="29">
+        <v>419</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="62" customHeight="1">
+      <c r="A77" s="54"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="29">
+        <v>357</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="G77" s="25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="62" customHeight="1">
+      <c r="A78" s="54"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="29">
+        <v>19</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="62" customHeight="1">
+      <c r="A79" s="54"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="59">
+        <v>3</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="E79" s="29">
+        <v>96</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="62" customHeight="1">
+      <c r="A80" s="54"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="29">
+        <v>5</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="62" customHeight="1">
+      <c r="A81" s="54"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="29">
+        <v>268</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="62" customHeight="1" thickBot="1">
+      <c r="A82" s="54"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="29">
+        <v>398</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A83" s="53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B83" s="56" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C83" s="60">
+        <v>1</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="E83" s="36">
+        <v>102</v>
+      </c>
+      <c r="F83" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="62" customHeight="1">
+      <c r="A84" s="54"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="29">
+        <v>150</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="62" customHeight="1">
+      <c r="A85" s="54"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="29">
+        <v>117</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="62" customHeight="1">
+      <c r="A86" s="54"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="59">
+        <v>2</v>
+      </c>
+      <c r="D86" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="29">
+        <v>274</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="62" customHeight="1">
+      <c r="A87" s="54"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="29">
+        <v>133</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="62" customHeight="1">
+      <c r="A88" s="54"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="29">
+        <v>242</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="62" customHeight="1">
+      <c r="A89" s="54"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="59">
+        <v>3</v>
+      </c>
+      <c r="D89" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="29">
+        <v>297</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="62" customHeight="1">
+      <c r="A90" s="54"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="29">
+        <v>304</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A91" s="55"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="37">
+        <v>316</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A92" s="53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B92" s="56" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C92" s="60">
+        <v>1</v>
+      </c>
+      <c r="D92" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="E92" s="36">
+        <v>447</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="62" customHeight="1">
+      <c r="A93" s="54"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="29">
+        <v>314</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="62" customHeight="1">
+      <c r="A94" s="54"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="59">
+        <v>2</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="E94" s="29">
+        <v>289</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="62" customHeight="1">
+      <c r="A95" s="54"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="29">
+        <v>124</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="62" customHeight="1">
+      <c r="A96" s="54"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="29">
+        <v>290</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="62" customHeight="1">
+      <c r="A97" s="54"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="59">
+        <v>3</v>
+      </c>
+      <c r="D97" s="54" t="s">
+        <v>546</v>
+      </c>
+      <c r="E97" s="29">
+        <v>73</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="G97" s="25" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="62" customHeight="1">
+      <c r="A98" s="54"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="29">
+        <v>293</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A99" s="55"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="37">
+        <v>449</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A100" s="53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B100" s="56" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C100" s="60">
+        <v>1</v>
+      </c>
+      <c r="D100" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="E100" s="36">
+        <v>307</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="62" customHeight="1">
+      <c r="A101" s="54"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="29">
+        <v>182</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G101" s="25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="62" customHeight="1">
+      <c r="A102" s="54"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="29">
+        <v>414</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="62" customHeight="1">
+      <c r="A103" s="54"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="29">
+        <v>445</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="G103" s="25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="62" customHeight="1">
+      <c r="A104" s="54"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="59">
+        <v>2</v>
+      </c>
+      <c r="D104" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="E104" s="29">
+        <v>333</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="62" customHeight="1">
+      <c r="A105" s="54"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="29">
+        <v>340</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="G105" s="25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="62" customHeight="1">
+      <c r="A106" s="54"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="29">
+        <v>111</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="62" customHeight="1">
+      <c r="A107" s="54"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="59">
+        <v>3</v>
+      </c>
+      <c r="D107" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E107" s="29">
+        <v>100</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="62" customHeight="1">
+      <c r="A108" s="54"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="29">
+        <v>347</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A109" s="55"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="37">
+        <v>487</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A110" s="53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B110" s="56" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C110" s="60">
+        <v>1</v>
+      </c>
+      <c r="D110" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="E110" s="36">
+        <v>244</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="62" customHeight="1">
+      <c r="A111" s="54"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="29">
+        <v>97</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="G111" s="25" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="62" customHeight="1">
+      <c r="A112" s="54"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="29">
+        <v>152</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="62" customHeight="1">
+      <c r="A113" s="54"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="29">
+        <v>317</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="G113" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="62" customHeight="1">
+      <c r="A114" s="54"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="59">
+        <v>2</v>
+      </c>
+      <c r="D114" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="E114" s="29">
+        <v>250</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="62" customHeight="1">
+      <c r="A115" s="54"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="29">
+        <v>301</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="G115" s="25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="62" customHeight="1">
+      <c r="A116" s="54"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="29">
+        <v>334</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="62" customHeight="1">
+      <c r="A117" s="54"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="59">
+        <v>3</v>
+      </c>
+      <c r="D117" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" s="29">
+        <v>255</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="G117" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="62" customHeight="1">
+      <c r="A118" s="54"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="29">
+        <v>61</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A119" s="55"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="61"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="37">
+        <v>132</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="G119" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A120" s="53" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B120" s="56" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C120" s="60">
+        <v>1</v>
+      </c>
+      <c r="D120" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="E120" s="36">
+        <v>198</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="62" customHeight="1">
+      <c r="A121" s="54"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="29">
+        <v>405</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="G121" s="25" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="62" customHeight="1">
+      <c r="A122" s="54"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="29">
+        <v>483</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="62" customHeight="1">
+      <c r="A123" s="54"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="59">
+        <v>2</v>
+      </c>
+      <c r="D123" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="E123" s="29">
+        <v>71</v>
+      </c>
+      <c r="F123" s="52" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G123" s="25" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="62" customHeight="1">
+      <c r="A124" s="54"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="29">
+        <v>151</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="62" customHeight="1">
+      <c r="A125" s="54"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="59">
+        <v>3</v>
+      </c>
+      <c r="D125" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="E125" s="29">
+        <v>66</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="G125" s="25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="62" customHeight="1">
+      <c r="A126" s="54"/>
+      <c r="B126" s="57"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="29">
+        <v>493</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A127" s="55"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="37">
+        <v>256</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="G127" s="27" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="62" customHeight="1">
+      <c r="A128" s="53" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B128" s="57" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C128" s="60">
+        <v>1</v>
+      </c>
+      <c r="D128" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E128" s="29">
+        <v>374</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="62" customHeight="1">
+      <c r="A129" s="54"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="29">
+        <v>195</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="62" customHeight="1">
+      <c r="A130" s="54"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="59">
+        <v>2</v>
+      </c>
+      <c r="D130" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="E130" s="29">
+        <v>365</v>
+      </c>
+      <c r="F130" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="62" customHeight="1">
+      <c r="A131" s="54"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="29">
+        <v>270</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="G131" s="25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="62" customHeight="1">
+      <c r="A132" s="54"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="59"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="29">
+        <v>471</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="62" customHeight="1">
+      <c r="A133" s="54"/>
+      <c r="B133" s="57"/>
+      <c r="C133" s="59">
+        <v>3</v>
+      </c>
+      <c r="D133" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E133" s="29">
+        <v>443</v>
+      </c>
+      <c r="F133" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="G133" s="25" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="62" customHeight="1">
+      <c r="A134" s="54"/>
+      <c r="B134" s="57"/>
+      <c r="C134" s="59"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="29">
+        <v>76</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A135" s="55"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="61"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="37">
+        <v>207</v>
+      </c>
+      <c r="F135" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="G135" s="27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A136" s="53" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B136" s="56" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C136" s="60">
+        <v>1</v>
+      </c>
+      <c r="D136" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="E136" s="36">
+        <v>170</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="G136" s="23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="62" customHeight="1">
+      <c r="A137" s="54"/>
+      <c r="B137" s="57"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="29">
+        <v>406</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="G137" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="62" customHeight="1">
+      <c r="A138" s="54"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="59"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="29">
+        <v>279</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="62" customHeight="1">
+      <c r="A139" s="54"/>
+      <c r="B139" s="57"/>
+      <c r="C139" s="59">
+        <v>2</v>
+      </c>
+      <c r="D139" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E139" s="29">
+        <v>202</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="G139" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="62" customHeight="1">
+      <c r="A140" s="54"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="29">
+        <v>69</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="62" customHeight="1">
+      <c r="A141" s="54"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="29">
+        <v>378</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="G141" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="62" customHeight="1">
+      <c r="A142" s="54"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="59">
+        <v>3</v>
+      </c>
+      <c r="D142" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="E142" s="29">
+        <v>153</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="62" customHeight="1">
+      <c r="A143" s="54"/>
+      <c r="B143" s="57"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="54"/>
+      <c r="E143" s="29">
+        <v>167</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="G143" s="25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A144" s="55"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="61"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="37">
+        <v>326</v>
+      </c>
+      <c r="F144" s="34" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G144" s="27" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A145" s="53" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B145" s="56" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C145" s="60">
+        <v>1</v>
+      </c>
+      <c r="D145" s="53" t="s">
         <v>441</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="62" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="29">
-        <v>212</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="62" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="52">
+      <c r="E145" s="36">
+        <v>470</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="G145" s="23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="62" customHeight="1">
+      <c r="A146" s="54"/>
+      <c r="B146" s="57"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="29">
+        <v>203</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="62" customHeight="1">
+      <c r="A147" s="54"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="59">
         <v>2</v>
       </c>
-      <c r="D14" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="29">
-        <v>12</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="62" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="29">
-        <v>296</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="62" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="29">
-        <v>457</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="62" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="52">
+      <c r="D147" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="E147" s="29">
+        <v>123</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="G147" s="25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="62" customHeight="1">
+      <c r="A148" s="54"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="29">
+        <v>53</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="62" customHeight="1">
+      <c r="A149" s="54"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="59"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="29">
+        <v>320</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="G149" s="25" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="62" customHeight="1">
+      <c r="A150" s="54"/>
+      <c r="B150" s="57"/>
+      <c r="C150" s="59">
         <v>3</v>
       </c>
-      <c r="D17" s="56" t="s">
-        <v>264</v>
-      </c>
-      <c r="E17" s="29">
-        <v>27</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="62" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="29">
-        <v>211</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="37">
-        <v>199</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A20" s="55" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C20" s="53">
-        <v>1</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="36">
-        <v>156</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="62" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="29">
-        <v>13</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="62" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="29">
-        <v>17</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="62" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="29">
-        <v>148</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="62" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="52">
-        <v>2</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="E24" s="29">
-        <v>38</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="62" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="29">
-        <v>247</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="62" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="29">
-        <v>254</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="62" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="29">
-        <v>143</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="62" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="52">
-        <v>3</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="E28" s="29">
-        <v>388</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="62" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="29">
-        <v>29</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="62" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="29">
-        <v>404</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="37">
-        <v>15</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A32" s="55" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C32" s="53">
-        <v>1</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" s="36">
-        <v>337</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="62" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="29">
-        <v>484</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="62" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="29">
-        <v>110</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="62" customHeight="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="29">
-        <v>144</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="62" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="52">
-        <v>2</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="E36" s="29">
-        <v>382</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="62" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="29">
-        <v>385</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="62" customHeight="1">
-      <c r="A38" s="56"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="29">
-        <v>160</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="62" customHeight="1">
-      <c r="A39" s="56"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="29">
-        <v>292</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="G39" s="25" t="s">
+      <c r="D150" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="E150" s="29">
         <v>397</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="62" customHeight="1">
-      <c r="A40" s="56"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="52">
-        <v>3</v>
-      </c>
-      <c r="D40" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="29">
-        <v>460</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="62" customHeight="1">
-      <c r="A41" s="56"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="29">
-        <v>278</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="62" customHeight="1">
-      <c r="A42" s="56"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="29">
-        <v>181</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A43" s="57"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="37">
-        <v>464</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A44" s="55" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B44" s="58" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C44" s="53">
-        <v>1</v>
-      </c>
-      <c r="D44" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" s="36">
-        <v>23</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="62" customHeight="1">
-      <c r="A45" s="56"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="29">
-        <v>204</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="62" customHeight="1">
-      <c r="A46" s="56"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="29">
-        <v>206</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="62" customHeight="1">
-      <c r="A47" s="56"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="52">
-        <v>2</v>
-      </c>
-      <c r="D47" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="E47" s="29">
-        <v>101</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="62" customHeight="1">
-      <c r="A48" s="56"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="29">
-        <v>213</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="62" customHeight="1">
-      <c r="A49" s="56"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="29">
-        <v>141</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="62" customHeight="1">
-      <c r="A50" s="56"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="52">
-        <v>3</v>
-      </c>
-      <c r="D50" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="E50" s="29">
-        <v>456</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="62" customHeight="1">
-      <c r="A51" s="56"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="29">
-        <v>91</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="62" customHeight="1" thickBot="1">
-      <c r="A52" s="57"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="29">
-        <v>65</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>976</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A53" s="55" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B53" s="58" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C53" s="53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="E53" s="36">
-        <v>407</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="62" customHeight="1">
-      <c r="A54" s="56"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="29">
-        <v>433</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="62" customHeight="1">
-      <c r="A55" s="56"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="29">
-        <v>163</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="62" customHeight="1">
-      <c r="A56" s="56"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="52">
-        <v>2</v>
-      </c>
-      <c r="D56" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="E56" s="29">
-        <v>491</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="62" customHeight="1">
-      <c r="A57" s="56"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="29">
-        <v>257</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="62" customHeight="1">
-      <c r="A58" s="56"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="29">
-        <v>344</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="62" customHeight="1">
-      <c r="A59" s="56"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="52">
-        <v>3</v>
-      </c>
-      <c r="D59" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="E59" s="29">
-        <v>420</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="62" customHeight="1">
-      <c r="A60" s="56"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="29">
-        <v>276</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A61" s="57"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="37">
-        <v>366</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A62" s="55" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B62" s="58" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C62" s="53">
-        <v>1</v>
-      </c>
-      <c r="D62" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="E62" s="36">
-        <v>245</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="G62" s="23" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="62" customHeight="1">
-      <c r="A63" s="56"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="29">
-        <v>351</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="62" customHeight="1">
-      <c r="A64" s="56"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="29">
-        <v>489</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="62" customHeight="1">
-      <c r="A65" s="56"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="29">
-        <v>16</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="62" customHeight="1">
-      <c r="A66" s="56"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="52">
-        <v>2</v>
-      </c>
-      <c r="D66" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="E66" s="29">
-        <v>410</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="62" customHeight="1">
-      <c r="A67" s="56"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="29">
-        <v>58</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="62" customHeight="1">
-      <c r="A68" s="56"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="29">
-        <v>115</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="62" customHeight="1">
-      <c r="A69" s="56"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="29">
-        <v>130</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="62" customHeight="1">
-      <c r="A70" s="56"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="52">
-        <v>3</v>
-      </c>
-      <c r="D70" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="29">
-        <v>154</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="62" customHeight="1">
-      <c r="A71" s="56"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="29">
-        <v>329</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="62" customHeight="1">
-      <c r="A72" s="56"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="29">
-        <v>474</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A73" s="57"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="37">
-        <v>283</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A74" s="55" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B74" s="58" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C74" s="53">
-        <v>1</v>
-      </c>
-      <c r="D74" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="E74" s="36">
-        <v>147</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="62" customHeight="1">
-      <c r="A75" s="56"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="29">
-        <v>275</v>
-      </c>
-      <c r="F75" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G75" s="25" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="62" customHeight="1">
-      <c r="A76" s="56"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="29">
-        <v>348</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="62" customHeight="1">
-      <c r="A77" s="56"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="29">
-        <v>191</v>
-      </c>
-      <c r="F77" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="G77" s="25" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="62" customHeight="1">
-      <c r="A78" s="56"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="52">
-        <v>2</v>
-      </c>
-      <c r="D78" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="E78" s="29">
+      <c r="F150" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="G150" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="F78" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="62" customHeight="1">
-      <c r="A79" s="56"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="29">
-        <v>419</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="62" customHeight="1">
-      <c r="A80" s="56"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="29">
-        <v>357</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="62" customHeight="1">
-      <c r="A81" s="56"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="29">
-        <v>19</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="62" customHeight="1">
-      <c r="A82" s="56"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="52">
-        <v>3</v>
-      </c>
-      <c r="D82" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="E82" s="29">
-        <v>96</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="62" customHeight="1">
-      <c r="A83" s="56"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="29">
-        <v>5</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="G83" s="25" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="62" customHeight="1">
-      <c r="A84" s="56"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="29">
-        <v>268</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A85" s="57"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="37">
-        <v>325</v>
-      </c>
-      <c r="F85" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="G85" s="27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A86" s="55" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B86" s="58" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C86" s="53">
-        <v>1</v>
-      </c>
-      <c r="D86" s="55" t="s">
-        <v>577</v>
-      </c>
-      <c r="E86" s="36">
-        <v>102</v>
-      </c>
-      <c r="F86" s="35" t="s">
-        <v>581</v>
-      </c>
-      <c r="G86" s="23" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="62" customHeight="1">
-      <c r="A87" s="56"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="29">
-        <v>150</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="G87" s="25" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="62" customHeight="1">
-      <c r="A88" s="56"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="29">
-        <v>117</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="G88" s="25" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="62" customHeight="1">
-      <c r="A89" s="56"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="52">
-        <v>2</v>
-      </c>
-      <c r="D89" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="E89" s="29">
-        <v>274</v>
-      </c>
-      <c r="F89" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="G89" s="25" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="62" customHeight="1">
-      <c r="A90" s="56"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="29">
-        <v>133</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="62" customHeight="1">
-      <c r="A91" s="56"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="29">
-        <v>242</v>
-      </c>
-      <c r="F91" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="G91" s="25" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="62" customHeight="1">
-      <c r="A92" s="56"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="52">
-        <v>3</v>
-      </c>
-      <c r="D92" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="E92" s="29">
-        <v>297</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="62" customHeight="1">
-      <c r="A93" s="56"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="29">
-        <v>304</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="G93" s="25" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A94" s="57"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="37">
-        <v>316</v>
-      </c>
-      <c r="F94" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="G94" s="27" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A95" s="55" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B95" s="58" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C95" s="53">
-        <v>1</v>
-      </c>
-      <c r="D95" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="E95" s="36">
-        <v>447</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G95" s="23" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="62" customHeight="1">
-      <c r="A96" s="56"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="29">
-        <v>105</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="G96" s="25" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="62" customHeight="1">
-      <c r="A97" s="56"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="29">
-        <v>314</v>
-      </c>
-      <c r="F97" s="25" t="s">
-        <v>558</v>
-      </c>
-      <c r="G97" s="25" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="62" customHeight="1">
-      <c r="A98" s="56"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="52">
-        <v>2</v>
-      </c>
-      <c r="D98" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="E98" s="29">
-        <v>289</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="62" customHeight="1">
-      <c r="A99" s="56"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="29">
-        <v>124</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>554</v>
-      </c>
-      <c r="G99" s="25" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="62" customHeight="1">
-      <c r="A100" s="56"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="29">
-        <v>290</v>
-      </c>
-      <c r="F100" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="G100" s="25" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="62" customHeight="1">
-      <c r="A101" s="56"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="52">
-        <v>3</v>
-      </c>
-      <c r="D101" s="56" t="s">
-        <v>546</v>
-      </c>
-      <c r="E101" s="29">
-        <v>73</v>
-      </c>
-      <c r="F101" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="G101" s="25" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="62" customHeight="1">
-      <c r="A102" s="56"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="29">
-        <v>293</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="G102" s="25" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A103" s="57"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="37">
-        <v>449</v>
-      </c>
-      <c r="F103" s="27" t="s">
-        <v>545</v>
-      </c>
-      <c r="G103" s="27" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A104" s="55" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B104" s="58" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C104" s="53">
-        <v>1</v>
-      </c>
-      <c r="D104" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="E104" s="36">
-        <v>307</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="62" customHeight="1">
-      <c r="A105" s="56"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="29">
-        <v>182</v>
-      </c>
-      <c r="F105" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="G105" s="25" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="62" customHeight="1">
-      <c r="A106" s="56"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="29">
-        <v>414</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="G106" s="25" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="62" customHeight="1">
-      <c r="A107" s="56"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="29">
-        <v>445</v>
-      </c>
-      <c r="F107" s="25" t="s">
-        <v>910</v>
-      </c>
-      <c r="G107" s="25" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="62" customHeight="1">
-      <c r="A108" s="56"/>
-      <c r="B108" s="59"/>
-      <c r="C108" s="52">
-        <v>2</v>
-      </c>
-      <c r="D108" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E108" s="29">
-        <v>333</v>
-      </c>
-      <c r="F108" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="G108" s="25" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="62" customHeight="1">
-      <c r="A109" s="56"/>
-      <c r="B109" s="59"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="29">
-        <v>340</v>
-      </c>
-      <c r="F109" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="G109" s="25" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="62" customHeight="1">
-      <c r="A110" s="56"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="29">
-        <v>111</v>
-      </c>
-      <c r="F110" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="G110" s="25" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="62" customHeight="1">
-      <c r="A111" s="56"/>
-      <c r="B111" s="59"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="29">
-        <v>371</v>
-      </c>
-      <c r="F111" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="G111" s="25" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="62" customHeight="1">
-      <c r="A112" s="56"/>
-      <c r="B112" s="59"/>
-      <c r="C112" s="52">
-        <v>3</v>
-      </c>
-      <c r="D112" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="E112" s="29">
-        <v>100</v>
-      </c>
-      <c r="F112" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="62" customHeight="1">
-      <c r="A113" s="56"/>
-      <c r="B113" s="59"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="29">
-        <v>47</v>
-      </c>
-      <c r="F113" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="G113" s="25" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="62" customHeight="1">
-      <c r="A114" s="56"/>
-      <c r="B114" s="59"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="29">
-        <v>347</v>
-      </c>
-      <c r="F114" s="33" t="s">
-        <v>524</v>
-      </c>
-      <c r="G114" s="25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A115" s="57"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="54"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="37">
-        <v>487</v>
-      </c>
-      <c r="F115" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="G115" s="27" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A116" s="55" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B116" s="58" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C116" s="53">
-        <v>1</v>
-      </c>
-      <c r="D116" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="E116" s="36">
-        <v>244</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="G116" s="23" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="62" customHeight="1">
-      <c r="A117" s="56"/>
-      <c r="B117" s="59"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="29">
-        <v>97</v>
-      </c>
-      <c r="F117" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="G117" s="25" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="62" customHeight="1">
-      <c r="A118" s="56"/>
-      <c r="B118" s="59"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="29">
-        <v>152</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="G118" s="25" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="62" customHeight="1">
-      <c r="A119" s="56"/>
-      <c r="B119" s="59"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="29">
-        <v>317</v>
-      </c>
-      <c r="F119" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="G119" s="25" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="62" customHeight="1">
-      <c r="A120" s="56"/>
-      <c r="B120" s="59"/>
-      <c r="C120" s="52">
-        <v>2</v>
-      </c>
-      <c r="D120" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="E120" s="29">
-        <v>250</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="G120" s="25" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="62" customHeight="1">
-      <c r="A121" s="56"/>
-      <c r="B121" s="59"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="29">
-        <v>301</v>
-      </c>
-      <c r="F121" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="G121" s="25" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="62" customHeight="1">
-      <c r="A122" s="56"/>
-      <c r="B122" s="59"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="29">
-        <v>334</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>948</v>
-      </c>
-      <c r="G122" s="25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="62" customHeight="1">
-      <c r="A123" s="56"/>
-      <c r="B123" s="59"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="56"/>
-      <c r="E123" s="29">
-        <v>421</v>
-      </c>
-      <c r="F123" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="G123" s="25" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="62" customHeight="1">
-      <c r="A124" s="56"/>
-      <c r="B124" s="59"/>
-      <c r="C124" s="52">
-        <v>3</v>
-      </c>
-      <c r="D124" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="E124" s="29">
-        <v>255</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G124" s="25" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="62" customHeight="1">
-      <c r="A125" s="56"/>
-      <c r="B125" s="59"/>
-      <c r="C125" s="52"/>
-      <c r="D125" s="56"/>
-      <c r="E125" s="29">
-        <v>61</v>
-      </c>
-      <c r="F125" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="G125" s="25" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="62" customHeight="1">
-      <c r="A126" s="56"/>
-      <c r="B126" s="59"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="56"/>
-      <c r="E126" s="29">
-        <v>24</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="G126" s="25" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A127" s="57"/>
-      <c r="B127" s="60"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="37">
-        <v>132</v>
-      </c>
-      <c r="F127" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="G127" s="27" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A128" s="55" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B128" s="58" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C128" s="53">
-        <v>1</v>
-      </c>
-      <c r="D128" s="55" t="s">
-        <v>493</v>
-      </c>
-      <c r="E128" s="36">
-        <v>198</v>
-      </c>
-      <c r="F128" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="G128" s="23" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="62" customHeight="1">
-      <c r="A129" s="56"/>
-      <c r="B129" s="59"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="29">
-        <v>405</v>
-      </c>
-      <c r="F129" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="G129" s="25" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="62" customHeight="1">
-      <c r="A130" s="56"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="29">
-        <v>483</v>
-      </c>
-      <c r="F130" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="G130" s="25" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="62" customHeight="1">
-      <c r="A131" s="56"/>
-      <c r="B131" s="59"/>
-      <c r="C131" s="52">
-        <v>2</v>
-      </c>
-      <c r="D131" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="E131" s="29">
-        <v>71</v>
-      </c>
-      <c r="F131" s="62" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G131" s="25" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="62" customHeight="1">
-      <c r="A132" s="56"/>
-      <c r="B132" s="59"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="29">
-        <v>151</v>
-      </c>
-      <c r="F132" s="25" t="s">
-        <v>980</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="62" customHeight="1">
-      <c r="A133" s="56"/>
-      <c r="B133" s="59"/>
-      <c r="C133" s="52">
-        <v>3</v>
-      </c>
-      <c r="D133" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="E133" s="29">
-        <v>66</v>
-      </c>
-      <c r="F133" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="G133" s="25" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="62" customHeight="1">
-      <c r="A134" s="56"/>
-      <c r="B134" s="59"/>
-      <c r="C134" s="52"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="29">
-        <v>493</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="G134" s="25" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A135" s="57"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="54"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="37">
-        <v>256</v>
-      </c>
-      <c r="F135" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="G135" s="27" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A136" s="55" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B136" s="58" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C136" s="53">
-        <v>1</v>
-      </c>
-      <c r="D136" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="E136" s="36">
-        <v>25</v>
-      </c>
-      <c r="F136" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="G136" s="23" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="62" customHeight="1">
-      <c r="A137" s="56"/>
-      <c r="B137" s="59"/>
-      <c r="C137" s="52"/>
-      <c r="D137" s="56"/>
-      <c r="E137" s="29">
-        <v>374</v>
-      </c>
-      <c r="F137" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="G137" s="25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="62" customHeight="1">
-      <c r="A138" s="56"/>
-      <c r="B138" s="59"/>
-      <c r="C138" s="52"/>
-      <c r="D138" s="56"/>
-      <c r="E138" s="29">
-        <v>195</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="G138" s="25" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="62" customHeight="1">
-      <c r="A139" s="56"/>
-      <c r="B139" s="59"/>
-      <c r="C139" s="52">
-        <v>2</v>
-      </c>
-      <c r="D139" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="E139" s="29">
-        <v>365</v>
-      </c>
-      <c r="F139" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="G139" s="25" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="62" customHeight="1">
-      <c r="A140" s="56"/>
-      <c r="B140" s="59"/>
-      <c r="C140" s="52"/>
-      <c r="D140" s="56"/>
-      <c r="E140" s="29">
-        <v>270</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="G140" s="25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="62" customHeight="1">
-      <c r="A141" s="56"/>
-      <c r="B141" s="59"/>
-      <c r="C141" s="52"/>
-      <c r="D141" s="56"/>
-      <c r="E141" s="29">
-        <v>471</v>
-      </c>
-      <c r="F141" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="G141" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="62" customHeight="1">
-      <c r="A142" s="56"/>
-      <c r="B142" s="59"/>
-      <c r="C142" s="52">
-        <v>3</v>
-      </c>
-      <c r="D142" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="E142" s="29">
-        <v>443</v>
-      </c>
-      <c r="F142" s="33" t="s">
-        <v>469</v>
-      </c>
-      <c r="G142" s="25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="62" customHeight="1">
-      <c r="A143" s="56"/>
-      <c r="B143" s="59"/>
-      <c r="C143" s="52"/>
-      <c r="D143" s="56"/>
-      <c r="E143" s="29">
-        <v>76</v>
-      </c>
-      <c r="F143" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="G143" s="25" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A144" s="57"/>
-      <c r="B144" s="60"/>
-      <c r="C144" s="54"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="37">
-        <v>207</v>
-      </c>
-      <c r="F144" s="34" t="s">
-        <v>465</v>
-      </c>
-      <c r="G144" s="27" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A145" s="55" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B145" s="58" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C145" s="53">
-        <v>1</v>
-      </c>
-      <c r="D145" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="E145" s="36">
-        <v>170</v>
-      </c>
-      <c r="F145" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="G145" s="23" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="62" customHeight="1">
-      <c r="A146" s="56"/>
-      <c r="B146" s="59"/>
-      <c r="C146" s="52"/>
-      <c r="D146" s="56"/>
-      <c r="E146" s="29">
-        <v>406</v>
-      </c>
-      <c r="F146" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="G146" s="25" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="62" customHeight="1">
-      <c r="A147" s="56"/>
-      <c r="B147" s="59"/>
-      <c r="C147" s="52"/>
-      <c r="D147" s="56"/>
-      <c r="E147" s="29">
-        <v>279</v>
-      </c>
-      <c r="F147" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="G147" s="25" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="62" customHeight="1">
-      <c r="A148" s="56"/>
-      <c r="B148" s="59"/>
-      <c r="C148" s="52">
-        <v>2</v>
-      </c>
-      <c r="D148" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="E148" s="29">
-        <v>202</v>
-      </c>
-      <c r="F148" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="G148" s="25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="62" customHeight="1">
-      <c r="A149" s="56"/>
-      <c r="B149" s="59"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="56"/>
-      <c r="E149" s="29">
-        <v>69</v>
-      </c>
-      <c r="F149" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="G149" s="25" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="62" customHeight="1">
-      <c r="A150" s="56"/>
-      <c r="B150" s="59"/>
-      <c r="C150" s="52"/>
-      <c r="D150" s="56"/>
-      <c r="E150" s="29">
-        <v>378</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="G150" s="25" t="s">
-        <v>452</v>
-      </c>
     </row>
     <row r="151" spans="1:7" ht="62" customHeight="1">
-      <c r="A151" s="56"/>
-      <c r="B151" s="59"/>
-      <c r="C151" s="52">
-        <v>3</v>
-      </c>
-      <c r="D151" s="56" t="s">
-        <v>447</v>
-      </c>
+      <c r="A151" s="54"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="54"/>
       <c r="E151" s="29">
-        <v>153</v>
-      </c>
-      <c r="F151" s="25" t="s">
-        <v>451</v>
+        <v>85</v>
+      </c>
+      <c r="F151" s="20" t="s">
+        <v>1048</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="62" customHeight="1">
-      <c r="A152" s="56"/>
-      <c r="B152" s="59"/>
-      <c r="C152" s="52"/>
-      <c r="D152" s="56"/>
-      <c r="E152" s="29">
-        <v>167</v>
-      </c>
-      <c r="F152" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="G152" s="25" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A153" s="57"/>
-      <c r="B153" s="60"/>
-      <c r="C153" s="54"/>
-      <c r="D153" s="57"/>
-      <c r="E153" s="37">
-        <v>326</v>
-      </c>
-      <c r="F153" s="34" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G153" s="27" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A154" s="55" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B154" s="58" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C154" s="53">
-        <v>1</v>
-      </c>
-      <c r="D154" s="55" t="s">
-        <v>441</v>
-      </c>
-      <c r="E154" s="36">
-        <v>470</v>
-      </c>
-      <c r="F154" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="G154" s="23" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="62" customHeight="1">
-      <c r="A155" s="56"/>
-      <c r="B155" s="59"/>
-      <c r="C155" s="52"/>
-      <c r="D155" s="56"/>
-      <c r="E155" s="29">
-        <v>203</v>
-      </c>
-      <c r="F155" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="G155" s="25" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="62" customHeight="1">
-      <c r="A156" s="56"/>
-      <c r="B156" s="59"/>
-      <c r="C156" s="52"/>
-      <c r="D156" s="56"/>
-      <c r="E156" s="29">
-        <v>398</v>
-      </c>
-      <c r="F156" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="G156" s="25" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="62" customHeight="1">
-      <c r="A157" s="56"/>
-      <c r="B157" s="59"/>
-      <c r="C157" s="52">
-        <v>2</v>
-      </c>
-      <c r="D157" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="E157" s="29">
-        <v>123</v>
-      </c>
-      <c r="F157" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="G157" s="25" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="62" customHeight="1">
-      <c r="A158" s="56"/>
-      <c r="B158" s="59"/>
-      <c r="C158" s="52"/>
-      <c r="D158" s="56"/>
-      <c r="E158" s="29">
-        <v>53</v>
-      </c>
-      <c r="F158" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="G158" s="25" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="62" customHeight="1">
-      <c r="A159" s="56"/>
-      <c r="B159" s="59"/>
-      <c r="C159" s="52"/>
-      <c r="D159" s="56"/>
-      <c r="E159" s="29">
-        <v>320</v>
-      </c>
-      <c r="F159" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="G159" s="25" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="62" customHeight="1">
-      <c r="A160" s="56"/>
-      <c r="B160" s="59"/>
-      <c r="C160" s="52">
-        <v>3</v>
-      </c>
-      <c r="D160" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="E160" s="29">
-        <v>397</v>
-      </c>
-      <c r="F160" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="G160" s="25" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="62" customHeight="1">
-      <c r="A161" s="56"/>
-      <c r="B161" s="59"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="56"/>
-      <c r="E161" s="29">
-        <v>85</v>
-      </c>
-      <c r="F161" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G161" s="25" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A162" s="57"/>
-      <c r="B162" s="60"/>
-      <c r="C162" s="54"/>
-      <c r="D162" s="57"/>
-      <c r="E162" s="37">
+    <row r="152" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A152" s="55"/>
+      <c r="B152" s="58"/>
+      <c r="C152" s="61"/>
+      <c r="D152" s="55"/>
+      <c r="E152" s="37">
         <v>121</v>
       </c>
-      <c r="F162" s="27" t="s">
+      <c r="F152" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="G162" s="27" t="s">
+      <c r="G152" s="27" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="27">
-      <c r="A165" s="28"/>
-      <c r="B165" s="41"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="25"/>
+    <row r="155" spans="1:7" ht="27">
+      <c r="A155" s="28"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="A128:A135"/>
-    <mergeCell ref="B128:B135"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="A154:A162"/>
-    <mergeCell ref="A136:A144"/>
-    <mergeCell ref="A145:A153"/>
-    <mergeCell ref="B145:B153"/>
-    <mergeCell ref="B154:B162"/>
-    <mergeCell ref="B136:B144"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="D160:D162"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="B104:B115"/>
-    <mergeCell ref="B116:B127"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="A104:A115"/>
-    <mergeCell ref="A116:A127"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="A62:A73"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="A95:A103"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D35:D38"/>
     <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="B32:B43"/>
-    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="B50:B58"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B110:B119"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="B59:B70"/>
+    <mergeCell ref="B71:B82"/>
+    <mergeCell ref="A100:A109"/>
+    <mergeCell ref="A110:A119"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="A71:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="A145:A152"/>
+    <mergeCell ref="A128:A135"/>
+    <mergeCell ref="A136:A144"/>
+    <mergeCell ref="B136:B144"/>
+    <mergeCell ref="B145:B152"/>
+    <mergeCell ref="B128:B135"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C139:C141"/>
     <mergeCell ref="D133:D135"/>
-    <mergeCell ref="D136:D138"/>
     <mergeCell ref="D139:D141"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="D116:D119"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D142:D144"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
@@ -7014,20 +6874,20 @@
   <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="15" manualBreakCount="15">
     <brk id="10" max="6" man="1"/>
-    <brk id="19" max="6" man="1"/>
-    <brk id="31" max="6" man="1"/>
-    <brk id="43" max="6" man="1"/>
-    <brk id="52" max="6" man="1"/>
-    <brk id="61" max="6" man="1"/>
-    <brk id="73" max="6" man="1"/>
-    <brk id="85" max="6" man="1"/>
-    <brk id="94" max="6" man="1"/>
-    <brk id="103" max="6" man="1"/>
-    <brk id="115" max="6" man="1"/>
+    <brk id="18" max="6" man="1"/>
+    <brk id="30" max="6" man="1"/>
+    <brk id="41" max="6" man="1"/>
+    <brk id="49" max="6" man="1"/>
+    <brk id="58" max="6" man="1"/>
+    <brk id="70" max="6" man="1"/>
+    <brk id="82" max="6" man="1"/>
+    <brk id="91" max="6" man="1"/>
+    <brk id="99" max="6" man="1"/>
+    <brk id="109" max="6" man="1"/>
+    <brk id="119" max="6" man="1"/>
     <brk id="127" max="6" man="1"/>
     <brk id="135" max="6" man="1"/>
     <brk id="144" max="6" man="1"/>
-    <brk id="153" max="6" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -7036,7 +6896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212612BB-E84A-4441-9066-EF49AFBE483D}">
   <dimension ref="A1:BB165"/>
   <sheetViews>
-    <sheetView topLeftCell="O118" zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="99" workbookViewId="0">
       <selection activeCell="Z127" sqref="Z127"/>
     </sheetView>
   </sheetViews>
@@ -31490,7 +31350,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -31510,7 +31370,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
@@ -31528,7 +31388,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
@@ -31546,7 +31406,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -31580,7 +31440,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -31600,7 +31460,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -31618,7 +31478,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
@@ -31636,7 +31496,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
@@ -31662,7 +31522,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="62" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -31682,7 +31542,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
@@ -31700,7 +31560,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="4" t="s">
         <v>57</v>
       </c>
@@ -31718,7 +31578,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="4" t="s">
         <v>61</v>
       </c>
@@ -31744,7 +31604,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="62" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -31764,7 +31624,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="4" t="s">
         <v>70</v>
       </c>
@@ -31782,7 +31642,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="4" t="s">
         <v>74</v>
       </c>
@@ -31800,7 +31660,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="4" t="s">
         <v>78</v>
       </c>
@@ -31834,7 +31694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06B3927-9809-D34F-A2BE-BCF7105F6F0A}">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="138" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="93" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/content/program/TRISTAN2025_final_program.xlsx
+++ b/content/program/TRISTAN2025_final_program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5F228-8BE4-DF42-BEBA-D0AF6F8B243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033B62F1-5D73-8247-B4A5-6B6E4F39FF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6B18BE26-13C5-0449-A7C1-25BFDB85670B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{6B18BE26-13C5-0449-A7C1-25BFDB85670B}"/>
   </bookViews>
   <sheets>
     <sheet name="Program list (2)" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Paper Data" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Program list (2)'!$A$1:$G$152</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Program list (2)'!$A$1:$G$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7481" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7479" uniqueCount="1098">
   <si>
     <t>Humanitarian Logistics</t>
   </si>
@@ -3667,7 +3667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3799,13 +3799,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3817,20 +3826,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4169,10 +4166,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A112" zoomScale="40" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145:B152"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="31"/>
@@ -4211,16 +4208,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="58" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="54">
         <v>1</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="36">
@@ -4234,10 +4231,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="62" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="54"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="29">
         <v>55</v>
       </c>
@@ -4249,10 +4246,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="62" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="54"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="29">
         <v>412</v>
       </c>
@@ -4264,12 +4261,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="62" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="59">
+      <c r="A5" s="56"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="53">
         <v>2</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="56" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="29">
@@ -4283,10 +4280,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="62" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="54"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="29">
         <v>253</v>
       </c>
@@ -4298,10 +4295,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="62" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="54"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="29">
         <v>72</v>
       </c>
@@ -4313,12 +4310,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="62" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="59">
+      <c r="A8" s="56"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="53">
         <v>3</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="56" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="29">
@@ -4332,10 +4329,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="62" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="54"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="29">
         <v>37</v>
       </c>
@@ -4347,10 +4344,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="55"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="37">
         <v>452</v>
       </c>
@@ -4362,16 +4359,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="62" customHeight="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="56" t="s">
         <v>1097</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="60" t="s">
         <v>1065</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="53">
         <v>1</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="58" t="s">
         <v>190</v>
       </c>
       <c r="E11" s="29">
@@ -4385,10 +4382,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="62" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="63"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="29">
         <v>212</v>
       </c>
@@ -4400,12 +4397,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="62" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="59">
+      <c r="A13" s="56"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="53">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="56" t="s">
         <v>198</v>
       </c>
       <c r="E13" s="29">
@@ -4419,2454 +4416,2439 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="62" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="54"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="29">
+        <v>457</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="62" customHeight="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="53">
+        <v>3</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="29">
+        <v>27</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="G15" s="25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="62" customHeight="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="29">
+        <v>211</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="37">
+        <v>199</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A18" s="58" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C18" s="54">
+        <v>1</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="36">
+        <v>156</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="62" customHeight="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="29">
+        <v>13</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="62" customHeight="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="29">
+        <v>17</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="62" customHeight="1">
+      <c r="A21" s="56"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="29">
+        <v>148</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="62" customHeight="1">
+      <c r="A22" s="56"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="53">
+        <v>2</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="29">
+        <v>38</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="62" customHeight="1">
+      <c r="A23" s="56"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="29">
+        <v>247</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="62" customHeight="1">
+      <c r="A24" s="56"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="29">
+        <v>254</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="62" customHeight="1">
+      <c r="A25" s="56"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="29">
+        <v>143</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="62" customHeight="1">
+      <c r="A26" s="56"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="53">
+        <v>3</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="29">
+        <v>388</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="62" customHeight="1">
+      <c r="A27" s="56"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="29">
+        <v>29</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="62" customHeight="1">
+      <c r="A28" s="56"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="29">
+        <v>404</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A29" s="57"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="37">
+        <v>15</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A30" s="58" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C30" s="54">
+        <v>1</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="36">
+        <v>337</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="62" customHeight="1">
+      <c r="A31" s="56"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="29">
+        <v>484</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="62" customHeight="1">
+      <c r="A32" s="56"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="29">
+        <v>110</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="62" customHeight="1">
+      <c r="A33" s="56"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="29">
+        <v>144</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="62" customHeight="1">
+      <c r="A34" s="56"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="53">
+        <v>2</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="29">
+        <v>382</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="62" customHeight="1">
+      <c r="A35" s="56"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="29">
+        <v>385</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="62" customHeight="1">
+      <c r="A36" s="56"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="29">
+        <v>160</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="62" customHeight="1">
+      <c r="A37" s="56"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="29">
         <v>292</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="F37" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="62" customHeight="1">
+      <c r="A38" s="56"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="53">
+        <v>3</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="29">
+        <v>278</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="62" customHeight="1">
+      <c r="A39" s="56"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="29">
+        <v>181</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A40" s="57"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="37">
+        <v>464</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A41" s="58" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C41" s="54">
+        <v>1</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="36">
+        <v>23</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="62" customHeight="1">
+      <c r="A42" s="56"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="29">
+        <v>204</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="62" customHeight="1">
+      <c r="A43" s="56"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="29">
+        <v>206</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="62" customHeight="1">
+      <c r="A44" s="56"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="53">
+        <v>2</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="E44" s="29">
+        <v>101</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="62" customHeight="1">
+      <c r="A45" s="56"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="29">
+        <v>213</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="62" customHeight="1">
+      <c r="A46" s="56"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="29">
+        <v>141</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="62" customHeight="1">
+      <c r="A47" s="56"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="53">
+        <v>3</v>
+      </c>
+      <c r="D47" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" s="29">
+        <v>456</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="62" customHeight="1" thickBot="1">
+      <c r="A48" s="57"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="29">
+        <v>65</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>976</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A49" s="58" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C49" s="54">
+        <v>1</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="E49" s="36">
+        <v>407</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="62" customHeight="1">
+      <c r="A50" s="56"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="29">
+        <v>433</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="62" customHeight="1">
+      <c r="A51" s="56"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="29">
+        <v>163</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="62" customHeight="1">
+      <c r="A52" s="56"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="53">
+        <v>2</v>
+      </c>
+      <c r="D52" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="29">
+        <v>491</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="62" customHeight="1">
+      <c r="A53" s="56"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="29">
+        <v>257</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="62" customHeight="1">
+      <c r="A54" s="56"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="29">
+        <v>344</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="62" customHeight="1">
+      <c r="A55" s="56"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="53">
+        <v>3</v>
+      </c>
+      <c r="D55" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="E55" s="29">
+        <v>420</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="62" customHeight="1">
+      <c r="A56" s="56"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="29">
+        <v>276</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A57" s="57"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="37">
+        <v>366</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A58" s="58" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C58" s="54">
+        <v>1</v>
+      </c>
+      <c r="D58" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" s="36">
+        <v>245</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="62" customHeight="1">
+      <c r="A59" s="56"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="29">
+        <v>351</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="62" customHeight="1">
+      <c r="A60" s="56"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="29">
+        <v>489</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="62" customHeight="1">
+      <c r="A61" s="56"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="29">
+        <v>16</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="62" customHeight="1">
+      <c r="A62" s="56"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="53">
+        <v>2</v>
+      </c>
+      <c r="D62" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" s="29">
+        <v>410</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="62" customHeight="1">
+      <c r="A63" s="56"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="29">
+        <v>58</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="62" customHeight="1">
+      <c r="A64" s="56"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="29">
+        <v>115</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="62" customHeight="1">
+      <c r="A65" s="56"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="29">
+        <v>130</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="62" customHeight="1">
+      <c r="A66" s="56"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="53">
+        <v>3</v>
+      </c>
+      <c r="D66" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="29">
+        <v>154</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="62" customHeight="1">
+      <c r="A67" s="56"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="29">
+        <v>329</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="62" customHeight="1">
+      <c r="A68" s="56"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="29">
+        <v>474</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A69" s="57"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="37">
+        <v>283</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A70" s="58" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C70" s="54">
+        <v>1</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" s="36">
+        <v>147</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="62" customHeight="1">
+      <c r="A71" s="56"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="29">
+        <v>275</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="62" customHeight="1">
+      <c r="A72" s="56"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="29">
+        <v>348</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="62" customHeight="1">
+      <c r="A73" s="56"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="29">
+        <v>191</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="62" customHeight="1">
+      <c r="A74" s="56"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="53">
+        <v>2</v>
+      </c>
+      <c r="D74" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" s="29">
+        <v>431</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="62" customHeight="1">
+      <c r="A75" s="56"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="29">
+        <v>419</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="62" customHeight="1">
+      <c r="A76" s="56"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="29">
+        <v>357</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="62" customHeight="1">
+      <c r="A77" s="56"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="29">
+        <v>19</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="G77" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="62" customHeight="1">
+      <c r="A78" s="56"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="53">
+        <v>3</v>
+      </c>
+      <c r="D78" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78" s="29">
+        <v>96</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="62" customHeight="1">
+      <c r="A79" s="56"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="29">
+        <v>5</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="62" customHeight="1">
+      <c r="A80" s="56"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="29">
+        <v>268</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="62" customHeight="1" thickBot="1">
+      <c r="A81" s="56"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="29">
+        <v>398</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A82" s="58" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B82" s="59" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C82" s="54">
+        <v>1</v>
+      </c>
+      <c r="D82" s="58" t="s">
+        <v>577</v>
+      </c>
+      <c r="E82" s="36">
+        <v>102</v>
+      </c>
+      <c r="F82" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="62" customHeight="1">
+      <c r="A83" s="56"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="29">
+        <v>150</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="62" customHeight="1">
+      <c r="A84" s="56"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="29">
+        <v>117</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="62" customHeight="1">
+      <c r="A85" s="56"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="53">
+        <v>2</v>
+      </c>
+      <c r="D85" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" s="29">
+        <v>274</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="62" customHeight="1">
+      <c r="A86" s="56"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="29">
+        <v>133</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="62" customHeight="1">
+      <c r="A87" s="56"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="29">
+        <v>242</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="62" customHeight="1">
+      <c r="A88" s="56"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="53">
+        <v>3</v>
+      </c>
+      <c r="D88" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" s="29">
+        <v>297</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="62" customHeight="1">
+      <c r="A89" s="56"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="29">
+        <v>304</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A90" s="57"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="37">
+        <v>316</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="G90" s="27" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A91" s="58" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B91" s="59" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C91" s="54">
+        <v>1</v>
+      </c>
+      <c r="D91" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="E91" s="36">
+        <v>447</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="62" customHeight="1">
+      <c r="A92" s="56"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="29">
+        <v>314</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="62" customHeight="1">
+      <c r="A93" s="56"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="53">
+        <v>2</v>
+      </c>
+      <c r="D93" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="E93" s="29">
+        <v>289</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="62" customHeight="1">
+      <c r="A94" s="56"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="29">
+        <v>124</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="62" customHeight="1">
+      <c r="A95" s="56"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="29">
+        <v>290</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="62" customHeight="1">
+      <c r="A96" s="56"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="53">
+        <v>3</v>
+      </c>
+      <c r="D96" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="E96" s="29">
+        <v>73</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="62" customHeight="1">
+      <c r="A97" s="56"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="29">
         <v>293</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="62" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="29">
-        <v>457</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="62" customHeight="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="59">
+      <c r="F97" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="G97" s="25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A98" s="57"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="37">
+        <v>449</v>
+      </c>
+      <c r="F98" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A99" s="58" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B99" s="59" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C99" s="54">
+        <v>1</v>
+      </c>
+      <c r="D99" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E99" s="36">
+        <v>307</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="62" customHeight="1">
+      <c r="A100" s="56"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="29">
+        <v>182</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="62" customHeight="1">
+      <c r="A101" s="56"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="29">
+        <v>414</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="G101" s="25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="62" customHeight="1">
+      <c r="A102" s="56"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="29">
+        <v>445</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="62" customHeight="1">
+      <c r="A103" s="56"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="53">
+        <v>2</v>
+      </c>
+      <c r="D103" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="E103" s="29">
+        <v>333</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="G103" s="25" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="62" customHeight="1">
+      <c r="A104" s="56"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="29">
+        <v>340</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="62" customHeight="1">
+      <c r="A105" s="56"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="29">
+        <v>111</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="G105" s="25" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="62" customHeight="1">
+      <c r="A106" s="56"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="53">
         <v>3</v>
       </c>
-      <c r="D16" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" s="29">
-        <v>27</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="62" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="29">
-        <v>211</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="37">
-        <v>199</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="G18" s="27" t="s">
+      <c r="D106" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="E106" s="29">
+        <v>100</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="62" customHeight="1">
+      <c r="A107" s="56"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="29">
+        <v>347</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A108" s="57"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="37">
+        <v>487</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="G108" s="27" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A109" s="58" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B109" s="59" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C109" s="54">
+        <v>1</v>
+      </c>
+      <c r="D109" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="E109" s="36">
+        <v>244</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="62" customHeight="1">
+      <c r="A110" s="56"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="29">
+        <v>97</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="62" customHeight="1">
+      <c r="A111" s="56"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="29">
+        <v>152</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="G111" s="25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="62" customHeight="1">
+      <c r="A112" s="56"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="29">
+        <v>317</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="62" customHeight="1">
+      <c r="A113" s="56"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="53">
+        <v>2</v>
+      </c>
+      <c r="D113" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="E113" s="29">
+        <v>250</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="G113" s="25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="62" customHeight="1">
+      <c r="A114" s="56"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="29">
         <v>301</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A19" s="53" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C19" s="60">
+      <c r="F114" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="62" customHeight="1">
+      <c r="A115" s="56"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="29">
+        <v>334</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="G115" s="25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="62" customHeight="1">
+      <c r="A116" s="56"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="53">
+        <v>3</v>
+      </c>
+      <c r="D116" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116" s="29">
+        <v>255</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="62" customHeight="1">
+      <c r="A117" s="56"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="29">
+        <v>61</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="G117" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A118" s="57"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="37">
+        <v>132</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="G118" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A119" s="58" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B119" s="59" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C119" s="54">
         <v>1</v>
       </c>
-      <c r="D19" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="36">
-        <v>156</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="62" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="29">
-        <v>13</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="62" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="29">
-        <v>17</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="62" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="29">
-        <v>148</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="62" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="59">
+      <c r="D119" s="58" t="s">
+        <v>493</v>
+      </c>
+      <c r="E119" s="36">
+        <v>198</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="62" customHeight="1">
+      <c r="A120" s="56"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="29">
+        <v>405</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="G120" s="25" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="62" customHeight="1">
+      <c r="A121" s="56"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="29">
+        <v>483</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="G121" s="25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="62" customHeight="1">
+      <c r="A122" s="56"/>
+      <c r="B122" s="60"/>
+      <c r="C122" s="53">
         <v>2</v>
       </c>
-      <c r="D23" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="E23" s="29">
-        <v>38</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="62" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="29">
-        <v>247</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="62" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="29">
-        <v>254</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="62" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="29">
-        <v>143</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="62" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="59">
+      <c r="D122" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="E122" s="29">
+        <v>71</v>
+      </c>
+      <c r="F122" s="52" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="62" customHeight="1">
+      <c r="A123" s="56"/>
+      <c r="B123" s="60"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="29">
+        <v>151</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="G123" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="62" customHeight="1">
+      <c r="A124" s="56"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="53">
         <v>3</v>
       </c>
-      <c r="D27" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="E27" s="29">
-        <v>388</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="62" customHeight="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="29">
-        <v>29</v>
-      </c>
-      <c r="F28" s="25" t="s">
+      <c r="D124" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="E124" s="29">
+        <v>66</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="62" customHeight="1">
+      <c r="A125" s="56"/>
+      <c r="B125" s="60"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="29">
+        <v>493</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="G125" s="25" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A126" s="57"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="37">
+        <v>256</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="G126" s="27" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="62" customHeight="1">
+      <c r="A127" s="58" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B127" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C127" s="54">
+        <v>1</v>
+      </c>
+      <c r="D127" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E127" s="29">
+        <v>374</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G127" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="62" customHeight="1">
+      <c r="A128" s="56"/>
+      <c r="B128" s="60"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="29">
+        <v>195</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="62" customHeight="1">
+      <c r="A129" s="56"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="53">
+        <v>2</v>
+      </c>
+      <c r="D129" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="E129" s="29">
+        <v>365</v>
+      </c>
+      <c r="F129" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="62" customHeight="1">
+      <c r="A130" s="56"/>
+      <c r="B130" s="60"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="29">
+        <v>270</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="62" customHeight="1">
+      <c r="A131" s="56"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="29">
+        <v>471</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="G131" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="62" customHeight="1">
+      <c r="A132" s="56"/>
+      <c r="B132" s="60"/>
+      <c r="C132" s="53">
+        <v>3</v>
+      </c>
+      <c r="D132" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="E132" s="29">
+        <v>443</v>
+      </c>
+      <c r="F132" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="62" customHeight="1">
+      <c r="A133" s="56"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="29">
+        <v>76</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="G133" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A134" s="57"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="37">
+        <v>207</v>
+      </c>
+      <c r="F134" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="G134" s="27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A135" s="58" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B135" s="59" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C135" s="54">
+        <v>1</v>
+      </c>
+      <c r="D135" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="E135" s="36">
+        <v>170</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="62" customHeight="1">
+      <c r="A136" s="56"/>
+      <c r="B136" s="60"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="56"/>
+      <c r="E136" s="29">
+        <v>406</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="G136" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="62" customHeight="1">
+      <c r="A137" s="56"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="56"/>
+      <c r="E137" s="29">
+        <v>279</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G137" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="62" customHeight="1">
+      <c r="A138" s="56"/>
+      <c r="B138" s="60"/>
+      <c r="C138" s="53">
+        <v>2</v>
+      </c>
+      <c r="D138" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="E138" s="29">
+        <v>202</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="62" customHeight="1">
+      <c r="A139" s="56"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="56"/>
+      <c r="E139" s="29">
+        <v>69</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="G139" s="25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="62" customHeight="1">
+      <c r="A140" s="56"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="56"/>
+      <c r="E140" s="29">
+        <v>378</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="62" customHeight="1">
+      <c r="A141" s="56"/>
+      <c r="B141" s="60"/>
+      <c r="C141" s="53">
+        <v>3</v>
+      </c>
+      <c r="D141" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="E141" s="29">
+        <v>153</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="G141" s="25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="62" customHeight="1">
+      <c r="A142" s="56"/>
+      <c r="B142" s="60"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="56"/>
+      <c r="E142" s="29">
+        <v>167</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A143" s="57"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="55"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="37">
+        <v>326</v>
+      </c>
+      <c r="F143" s="34" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G143" s="27" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A144" s="58" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B144" s="59" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C144" s="54">
+        <v>1</v>
+      </c>
+      <c r="D144" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="E144" s="36">
+        <v>470</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="62" customHeight="1">
+      <c r="A145" s="56"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="56"/>
+      <c r="E145" s="29">
+        <v>203</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="G145" s="25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="62" customHeight="1">
+      <c r="A146" s="56"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="53">
+        <v>2</v>
+      </c>
+      <c r="D146" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="E146" s="29">
+        <v>123</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="62" customHeight="1">
+      <c r="A147" s="56"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="56"/>
+      <c r="E147" s="29">
+        <v>53</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="G147" s="25" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="62" customHeight="1">
+      <c r="A148" s="56"/>
+      <c r="B148" s="60"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="29">
         <v>320</v>
       </c>
-      <c r="G28" s="25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="62" customHeight="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="29">
-        <v>404</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A30" s="55"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="37">
-        <v>15</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A31" s="53" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C31" s="60">
-        <v>1</v>
-      </c>
-      <c r="D31" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="36">
-        <v>337</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="62" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="29">
-        <v>484</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="62" customHeight="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="29">
-        <v>110</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="62" customHeight="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="29">
-        <v>144</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="62" customHeight="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="59">
-        <v>2</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="E35" s="29">
-        <v>382</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="62" customHeight="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="29">
-        <v>385</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="62" customHeight="1">
-      <c r="A37" s="54"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="29">
-        <v>160</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="62" customHeight="1">
-      <c r="A38" s="54"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="29">
-        <v>292</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="G38" s="25" t="s">
+      <c r="F148" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="62" customHeight="1">
+      <c r="A149" s="56"/>
+      <c r="B149" s="60"/>
+      <c r="C149" s="53">
+        <v>3</v>
+      </c>
+      <c r="D149" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="E149" s="29">
         <v>397</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="62" customHeight="1">
-      <c r="A39" s="54"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="59">
-        <v>3</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="29">
-        <v>278</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="62" customHeight="1">
-      <c r="A40" s="54"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="29">
-        <v>181</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A41" s="55"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="37">
-        <v>464</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A42" s="53" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B42" s="56" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C42" s="60">
-        <v>1</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="E42" s="36">
-        <v>23</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="62" customHeight="1">
-      <c r="A43" s="54"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="29">
-        <v>204</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="62" customHeight="1">
-      <c r="A44" s="54"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="29">
-        <v>206</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="62" customHeight="1">
-      <c r="A45" s="54"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="59">
-        <v>2</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="E45" s="29">
-        <v>101</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="62" customHeight="1">
-      <c r="A46" s="54"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="29">
-        <v>213</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="62" customHeight="1">
-      <c r="A47" s="54"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="29">
-        <v>141</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="62" customHeight="1">
-      <c r="A48" s="54"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="59">
-        <v>3</v>
-      </c>
-      <c r="D48" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="E48" s="29">
-        <v>456</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="62" customHeight="1" thickBot="1">
-      <c r="A49" s="55"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="29">
-        <v>65</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>976</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A50" s="53" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B50" s="56" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C50" s="60">
-        <v>1</v>
-      </c>
-      <c r="D50" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="E50" s="36">
-        <v>407</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="62" customHeight="1">
-      <c r="A51" s="54"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="29">
-        <v>433</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="62" customHeight="1">
-      <c r="A52" s="54"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="29">
-        <v>163</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="62" customHeight="1">
-      <c r="A53" s="54"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="59">
-        <v>2</v>
-      </c>
-      <c r="D53" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="E53" s="29">
-        <v>491</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="62" customHeight="1">
-      <c r="A54" s="54"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="29">
-        <v>257</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="62" customHeight="1">
-      <c r="A55" s="54"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="29">
-        <v>344</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="62" customHeight="1">
-      <c r="A56" s="54"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="59">
-        <v>3</v>
-      </c>
-      <c r="D56" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="E56" s="29">
-        <v>420</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="62" customHeight="1">
-      <c r="A57" s="54"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="29">
-        <v>276</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A58" s="55"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="37">
-        <v>366</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A59" s="53" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B59" s="56" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C59" s="60">
-        <v>1</v>
-      </c>
-      <c r="D59" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="E59" s="36">
-        <v>245</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="62" customHeight="1">
-      <c r="A60" s="54"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="29">
-        <v>351</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="62" customHeight="1">
-      <c r="A61" s="54"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="29">
-        <v>489</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="62" customHeight="1">
-      <c r="A62" s="54"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="29">
-        <v>16</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="62" customHeight="1">
-      <c r="A63" s="54"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="59">
-        <v>2</v>
-      </c>
-      <c r="D63" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="E63" s="29">
-        <v>410</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="62" customHeight="1">
-      <c r="A64" s="54"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="29">
-        <v>58</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="62" customHeight="1">
-      <c r="A65" s="54"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="29">
-        <v>115</v>
-      </c>
-      <c r="F65" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="62" customHeight="1">
-      <c r="A66" s="54"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="29">
-        <v>130</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="62" customHeight="1">
-      <c r="A67" s="54"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="59">
-        <v>3</v>
-      </c>
-      <c r="D67" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="29">
-        <v>154</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="62" customHeight="1">
-      <c r="A68" s="54"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="29">
-        <v>329</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="62" customHeight="1">
-      <c r="A69" s="54"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="29">
-        <v>474</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A70" s="55"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="37">
-        <v>283</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A71" s="53" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B71" s="56" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C71" s="60">
-        <v>1</v>
-      </c>
-      <c r="D71" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="E71" s="36">
-        <v>147</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="G71" s="23" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="62" customHeight="1">
-      <c r="A72" s="54"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="29">
-        <v>275</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="62" customHeight="1">
-      <c r="A73" s="54"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="29">
-        <v>348</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="62" customHeight="1">
-      <c r="A74" s="54"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="29">
-        <v>191</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="62" customHeight="1">
-      <c r="A75" s="54"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="59">
-        <v>2</v>
-      </c>
-      <c r="D75" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="E75" s="29">
+      <c r="F149" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="G149" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="F75" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="G75" s="25" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="62" customHeight="1">
-      <c r="A76" s="54"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="29">
-        <v>419</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="62" customHeight="1">
-      <c r="A77" s="54"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="29">
-        <v>357</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="G77" s="25" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="62" customHeight="1">
-      <c r="A78" s="54"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="29">
-        <v>19</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="62" customHeight="1">
-      <c r="A79" s="54"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="59">
-        <v>3</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="E79" s="29">
-        <v>96</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="62" customHeight="1">
-      <c r="A80" s="54"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="29">
-        <v>5</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="62" customHeight="1">
-      <c r="A81" s="54"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="29">
-        <v>268</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="62" customHeight="1" thickBot="1">
-      <c r="A82" s="54"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="29">
-        <v>398</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A83" s="53" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B83" s="56" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C83" s="60">
-        <v>1</v>
-      </c>
-      <c r="D83" s="53" t="s">
-        <v>577</v>
-      </c>
-      <c r="E83" s="36">
-        <v>102</v>
-      </c>
-      <c r="F83" s="35" t="s">
-        <v>581</v>
-      </c>
-      <c r="G83" s="23" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="62" customHeight="1">
-      <c r="A84" s="54"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="29">
-        <v>150</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="62" customHeight="1">
-      <c r="A85" s="54"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="29">
-        <v>117</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="G85" s="25" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="62" customHeight="1">
-      <c r="A86" s="54"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="59">
-        <v>2</v>
-      </c>
-      <c r="D86" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="E86" s="29">
-        <v>274</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="G86" s="25" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="62" customHeight="1">
-      <c r="A87" s="54"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="29">
-        <v>133</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="G87" s="25" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="62" customHeight="1">
-      <c r="A88" s="54"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="29">
-        <v>242</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="G88" s="25" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="62" customHeight="1">
-      <c r="A89" s="54"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="59">
-        <v>3</v>
-      </c>
-      <c r="D89" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="E89" s="29">
-        <v>297</v>
-      </c>
-      <c r="F89" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="G89" s="25" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="62" customHeight="1">
-      <c r="A90" s="54"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="29">
-        <v>304</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A91" s="55"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="37">
-        <v>316</v>
-      </c>
-      <c r="F91" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="G91" s="27" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A92" s="53" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B92" s="56" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C92" s="60">
-        <v>1</v>
-      </c>
-      <c r="D92" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E92" s="36">
-        <v>447</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="62" customHeight="1">
-      <c r="A93" s="54"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="29">
-        <v>314</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>558</v>
-      </c>
-      <c r="G93" s="25" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="62" customHeight="1">
-      <c r="A94" s="54"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="59">
-        <v>2</v>
-      </c>
-      <c r="D94" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="E94" s="29">
-        <v>289</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="62" customHeight="1">
-      <c r="A95" s="54"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="29">
-        <v>124</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>554</v>
-      </c>
-      <c r="G95" s="25" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="62" customHeight="1">
-      <c r="A96" s="54"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="29">
-        <v>290</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="G96" s="25" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="62" customHeight="1">
-      <c r="A97" s="54"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="59">
-        <v>3</v>
-      </c>
-      <c r="D97" s="54" t="s">
-        <v>546</v>
-      </c>
-      <c r="E97" s="29">
-        <v>73</v>
-      </c>
-      <c r="F97" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="G97" s="25" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="62" customHeight="1">
-      <c r="A98" s="54"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="29">
-        <v>293</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A99" s="55"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="37">
-        <v>449</v>
-      </c>
-      <c r="F99" s="27" t="s">
-        <v>545</v>
-      </c>
-      <c r="G99" s="27" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A100" s="53" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B100" s="56" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C100" s="60">
-        <v>1</v>
-      </c>
-      <c r="D100" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="E100" s="36">
-        <v>307</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="G100" s="23" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="62" customHeight="1">
-      <c r="A101" s="54"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="29">
-        <v>182</v>
-      </c>
-      <c r="F101" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="G101" s="25" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="62" customHeight="1">
-      <c r="A102" s="54"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="29">
-        <v>414</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="G102" s="25" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="62" customHeight="1">
-      <c r="A103" s="54"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="29">
-        <v>445</v>
-      </c>
-      <c r="F103" s="25" t="s">
-        <v>910</v>
-      </c>
-      <c r="G103" s="25" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="62" customHeight="1">
-      <c r="A104" s="54"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="59">
-        <v>2</v>
-      </c>
-      <c r="D104" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="E104" s="29">
-        <v>333</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="G104" s="25" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="62" customHeight="1">
-      <c r="A105" s="54"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="29">
-        <v>340</v>
-      </c>
-      <c r="F105" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="G105" s="25" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="62" customHeight="1">
-      <c r="A106" s="54"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="29">
-        <v>111</v>
-      </c>
-      <c r="F106" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="G106" s="25" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="62" customHeight="1">
-      <c r="A107" s="54"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="59">
-        <v>3</v>
-      </c>
-      <c r="D107" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E107" s="29">
-        <v>100</v>
-      </c>
-      <c r="F107" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="G107" s="25" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="62" customHeight="1">
-      <c r="A108" s="54"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="29">
-        <v>347</v>
-      </c>
-      <c r="F108" s="33" t="s">
-        <v>524</v>
-      </c>
-      <c r="G108" s="25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A109" s="55"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="61"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="37">
-        <v>487</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="G109" s="27" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A110" s="53" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B110" s="56" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C110" s="60">
-        <v>1</v>
-      </c>
-      <c r="D110" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="E110" s="36">
-        <v>244</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="62" customHeight="1">
-      <c r="A111" s="54"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="29">
-        <v>97</v>
-      </c>
-      <c r="F111" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="G111" s="25" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="62" customHeight="1">
-      <c r="A112" s="54"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="59"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="29">
-        <v>152</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="62" customHeight="1">
-      <c r="A113" s="54"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="29">
-        <v>317</v>
-      </c>
-      <c r="F113" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="G113" s="25" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="62" customHeight="1">
-      <c r="A114" s="54"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="59">
-        <v>2</v>
-      </c>
-      <c r="D114" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="E114" s="29">
-        <v>250</v>
-      </c>
-      <c r="F114" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="G114" s="25" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="62" customHeight="1">
-      <c r="A115" s="54"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="59"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="29">
-        <v>301</v>
-      </c>
-      <c r="F115" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="G115" s="25" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="62" customHeight="1">
-      <c r="A116" s="54"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="59"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="29">
-        <v>334</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>948</v>
-      </c>
-      <c r="G116" s="25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="62" customHeight="1">
-      <c r="A117" s="54"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="59">
-        <v>3</v>
-      </c>
-      <c r="D117" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="E117" s="29">
-        <v>255</v>
-      </c>
-      <c r="F117" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="G117" s="25" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="62" customHeight="1">
-      <c r="A118" s="54"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="59"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="29">
-        <v>61</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="G118" s="25" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A119" s="55"/>
-      <c r="B119" s="58"/>
-      <c r="C119" s="61"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="37">
-        <v>132</v>
-      </c>
-      <c r="F119" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="G119" s="27" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A120" s="53" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B120" s="56" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C120" s="60">
-        <v>1</v>
-      </c>
-      <c r="D120" s="53" t="s">
-        <v>493</v>
-      </c>
-      <c r="E120" s="36">
-        <v>198</v>
-      </c>
-      <c r="F120" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="G120" s="23" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="62" customHeight="1">
-      <c r="A121" s="54"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="59"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="29">
-        <v>405</v>
-      </c>
-      <c r="F121" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="G121" s="25" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="62" customHeight="1">
-      <c r="A122" s="54"/>
-      <c r="B122" s="57"/>
-      <c r="C122" s="59"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="29">
-        <v>483</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="G122" s="25" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="62" customHeight="1">
-      <c r="A123" s="54"/>
-      <c r="B123" s="57"/>
-      <c r="C123" s="59">
-        <v>2</v>
-      </c>
-      <c r="D123" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="E123" s="29">
-        <v>71</v>
-      </c>
-      <c r="F123" s="52" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G123" s="25" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="62" customHeight="1">
-      <c r="A124" s="54"/>
-      <c r="B124" s="57"/>
-      <c r="C124" s="59"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="29">
-        <v>151</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>980</v>
-      </c>
-      <c r="G124" s="25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="62" customHeight="1">
-      <c r="A125" s="54"/>
-      <c r="B125" s="57"/>
-      <c r="C125" s="59">
-        <v>3</v>
-      </c>
-      <c r="D125" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="E125" s="29">
-        <v>66</v>
-      </c>
-      <c r="F125" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="G125" s="25" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="62" customHeight="1">
-      <c r="A126" s="54"/>
-      <c r="B126" s="57"/>
-      <c r="C126" s="59"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="29">
-        <v>493</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="G126" s="25" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A127" s="55"/>
-      <c r="B127" s="58"/>
-      <c r="C127" s="61"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="37">
-        <v>256</v>
-      </c>
-      <c r="F127" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="G127" s="27" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="62" customHeight="1">
-      <c r="A128" s="53" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B128" s="57" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C128" s="60">
-        <v>1</v>
-      </c>
-      <c r="D128" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E128" s="29">
-        <v>374</v>
-      </c>
-      <c r="F128" s="25" t="s">
-        <v>1096</v>
-      </c>
-      <c r="G128" s="25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="62" customHeight="1">
-      <c r="A129" s="54"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="59"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="29">
-        <v>195</v>
-      </c>
-      <c r="F129" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="G129" s="25" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="62" customHeight="1">
-      <c r="A130" s="54"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="59">
-        <v>2</v>
-      </c>
-      <c r="D130" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="E130" s="29">
-        <v>365</v>
-      </c>
-      <c r="F130" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="G130" s="25" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="62" customHeight="1">
-      <c r="A131" s="54"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="29">
-        <v>270</v>
-      </c>
-      <c r="F131" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="G131" s="25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="62" customHeight="1">
-      <c r="A132" s="54"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="59"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="29">
-        <v>471</v>
-      </c>
-      <c r="F132" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="62" customHeight="1">
-      <c r="A133" s="54"/>
-      <c r="B133" s="57"/>
-      <c r="C133" s="59">
-        <v>3</v>
-      </c>
-      <c r="D133" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="E133" s="29">
-        <v>443</v>
-      </c>
-      <c r="F133" s="33" t="s">
-        <v>469</v>
-      </c>
-      <c r="G133" s="25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="62" customHeight="1">
-      <c r="A134" s="54"/>
-      <c r="B134" s="57"/>
-      <c r="C134" s="59"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="29">
-        <v>76</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="G134" s="25" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A135" s="55"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="61"/>
-      <c r="D135" s="55"/>
-      <c r="E135" s="37">
-        <v>207</v>
-      </c>
-      <c r="F135" s="34" t="s">
-        <v>465</v>
-      </c>
-      <c r="G135" s="27" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A136" s="53" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B136" s="56" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C136" s="60">
-        <v>1</v>
-      </c>
-      <c r="D136" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="E136" s="36">
-        <v>170</v>
-      </c>
-      <c r="F136" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="G136" s="23" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="62" customHeight="1">
-      <c r="A137" s="54"/>
-      <c r="B137" s="57"/>
-      <c r="C137" s="59"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="29">
-        <v>406</v>
-      </c>
-      <c r="F137" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="G137" s="25" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="62" customHeight="1">
-      <c r="A138" s="54"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="59"/>
-      <c r="D138" s="54"/>
-      <c r="E138" s="29">
-        <v>279</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="G138" s="25" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="62" customHeight="1">
-      <c r="A139" s="54"/>
-      <c r="B139" s="57"/>
-      <c r="C139" s="59">
-        <v>2</v>
-      </c>
-      <c r="D139" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="E139" s="29">
-        <v>202</v>
-      </c>
-      <c r="F139" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="G139" s="25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="62" customHeight="1">
-      <c r="A140" s="54"/>
-      <c r="B140" s="57"/>
-      <c r="C140" s="59"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="29">
-        <v>69</v>
-      </c>
-      <c r="F140" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="G140" s="25" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="62" customHeight="1">
-      <c r="A141" s="54"/>
-      <c r="B141" s="57"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="54"/>
-      <c r="E141" s="29">
-        <v>378</v>
-      </c>
-      <c r="F141" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="G141" s="25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="62" customHeight="1">
-      <c r="A142" s="54"/>
-      <c r="B142" s="57"/>
-      <c r="C142" s="59">
-        <v>3</v>
-      </c>
-      <c r="D142" s="54" t="s">
-        <v>447</v>
-      </c>
-      <c r="E142" s="29">
-        <v>153</v>
-      </c>
-      <c r="F142" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="G142" s="25" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="62" customHeight="1">
-      <c r="A143" s="54"/>
-      <c r="B143" s="57"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="54"/>
-      <c r="E143" s="29">
-        <v>167</v>
-      </c>
-      <c r="F143" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="G143" s="25" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A144" s="55"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="61"/>
-      <c r="D144" s="55"/>
-      <c r="E144" s="37">
-        <v>326</v>
-      </c>
-      <c r="F144" s="34" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G144" s="27" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A145" s="53" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B145" s="56" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C145" s="60">
-        <v>1</v>
-      </c>
-      <c r="D145" s="53" t="s">
-        <v>441</v>
-      </c>
-      <c r="E145" s="36">
-        <v>470</v>
-      </c>
-      <c r="F145" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="G145" s="23" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="62" customHeight="1">
-      <c r="A146" s="54"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="59"/>
-      <c r="D146" s="54"/>
-      <c r="E146" s="29">
-        <v>203</v>
-      </c>
-      <c r="F146" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="G146" s="25" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="62" customHeight="1">
-      <c r="A147" s="54"/>
-      <c r="B147" s="57"/>
-      <c r="C147" s="59">
-        <v>2</v>
-      </c>
-      <c r="D147" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="E147" s="29">
-        <v>123</v>
-      </c>
-      <c r="F147" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="G147" s="25" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="62" customHeight="1">
-      <c r="A148" s="54"/>
-      <c r="B148" s="57"/>
-      <c r="C148" s="59"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="29">
-        <v>53</v>
-      </c>
-      <c r="F148" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="G148" s="25" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="62" customHeight="1">
-      <c r="A149" s="54"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="59"/>
-      <c r="D149" s="54"/>
-      <c r="E149" s="29">
-        <v>320</v>
-      </c>
-      <c r="F149" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="G149" s="25" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="150" spans="1:7" ht="62" customHeight="1">
-      <c r="A150" s="54"/>
-      <c r="B150" s="57"/>
-      <c r="C150" s="59">
-        <v>3</v>
-      </c>
-      <c r="D150" s="54" t="s">
-        <v>284</v>
-      </c>
+      <c r="A150" s="56"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="56"/>
       <c r="E150" s="29">
-        <v>397</v>
-      </c>
-      <c r="F150" s="33" t="s">
-        <v>432</v>
+        <v>85</v>
+      </c>
+      <c r="F150" s="20" t="s">
+        <v>1048</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="62" customHeight="1">
-      <c r="A151" s="54"/>
-      <c r="B151" s="57"/>
-      <c r="C151" s="59"/>
-      <c r="D151" s="54"/>
-      <c r="E151" s="29">
-        <v>85</v>
-      </c>
-      <c r="F151" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G151" s="25" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A152" s="55"/>
-      <c r="B152" s="58"/>
-      <c r="C152" s="61"/>
-      <c r="D152" s="55"/>
-      <c r="E152" s="37">
+    <row r="151" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A151" s="57"/>
+      <c r="B151" s="61"/>
+      <c r="C151" s="55"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="37">
         <v>121</v>
       </c>
-      <c r="F152" s="27" t="s">
+      <c r="F151" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="G152" s="27" t="s">
+      <c r="G151" s="27" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="27">
-      <c r="A155" s="28"/>
-      <c r="B155" s="41"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="25"/>
+    <row r="154" spans="1:7" ht="27">
+      <c r="A154" s="28"/>
+      <c r="B154" s="41"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="A119:A126"/>
+    <mergeCell ref="B119:B126"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="A144:A151"/>
+    <mergeCell ref="A127:A134"/>
+    <mergeCell ref="A135:A143"/>
+    <mergeCell ref="B135:B143"/>
+    <mergeCell ref="B144:B151"/>
+    <mergeCell ref="B127:B134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B99:B108"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="B58:B69"/>
+    <mergeCell ref="B70:B81"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A58:A69"/>
+    <mergeCell ref="A70:A81"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="A91:A98"/>
     <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="B30:B40"/>
+    <mergeCell ref="B49:B57"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A30"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B110:B119"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="B59:B70"/>
-    <mergeCell ref="B71:B82"/>
-    <mergeCell ref="A100:A109"/>
-    <mergeCell ref="A110:A119"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A59:A70"/>
-    <mergeCell ref="A71:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="B120:B127"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="A145:A152"/>
-    <mergeCell ref="A128:A135"/>
-    <mergeCell ref="A136:A144"/>
-    <mergeCell ref="B136:B144"/>
-    <mergeCell ref="B145:B152"/>
-    <mergeCell ref="B128:B135"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D62:D65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
@@ -6874,20 +6856,20 @@
   <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="15" manualBreakCount="15">
     <brk id="10" max="6" man="1"/>
-    <brk id="18" max="6" man="1"/>
-    <brk id="30" max="6" man="1"/>
-    <brk id="41" max="6" man="1"/>
-    <brk id="49" max="6" man="1"/>
-    <brk id="58" max="6" man="1"/>
-    <brk id="70" max="6" man="1"/>
-    <brk id="82" max="6" man="1"/>
-    <brk id="91" max="6" man="1"/>
-    <brk id="99" max="6" man="1"/>
-    <brk id="109" max="6" man="1"/>
-    <brk id="119" max="6" man="1"/>
-    <brk id="127" max="6" man="1"/>
-    <brk id="135" max="6" man="1"/>
-    <brk id="144" max="6" man="1"/>
+    <brk id="17" max="6" man="1"/>
+    <brk id="29" max="6" man="1"/>
+    <brk id="40" max="6" man="1"/>
+    <brk id="48" max="6" man="1"/>
+    <brk id="57" max="6" man="1"/>
+    <brk id="69" max="6" man="1"/>
+    <brk id="81" max="6" man="1"/>
+    <brk id="90" max="6" man="1"/>
+    <brk id="98" max="6" man="1"/>
+    <brk id="108" max="6" man="1"/>
+    <brk id="118" max="6" man="1"/>
+    <brk id="126" max="6" man="1"/>
+    <brk id="134" max="6" man="1"/>
+    <brk id="143" max="6" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/content/program/TRISTAN2025_final_program.xlsx
+++ b/content/program/TRISTAN2025_final_program.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/public/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033B62F1-5D73-8247-B4A5-6B6E4F39FF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D39E734-FC99-DE47-A130-60B310562E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{6B18BE26-13C5-0449-A7C1-25BFDB85670B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7479" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7479" uniqueCount="1146">
   <si>
     <t>Humanitarian Logistics</t>
   </si>
@@ -3450,13 +3450,1197 @@
   </si>
   <si>
     <t>Monday, June 23rd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Humanitarian Logistics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Riki Kawase</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Shared and Autonomous Vehicles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Abdel Lisser</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Travel Behavior Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Makoto Okumura</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Integrated Freight and Passenger Transport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Chair: Maximilian Schiffer</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Mechanism Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Mike Hewitt</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Discrete Choice Model 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Chair: Yu Gu</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Consolidation-Based Freight Services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Teodor Gabriel Crainic</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Reinforcement Learning based VRP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Joseph Chow</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Network Design 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Zhou Xu</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Timetabling 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Konstantinos G. Zografos</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Stochastic Programming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Kenetsu Uchida</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Graph Neural Network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Tingting Zhao</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Last-Mile Delivery 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Emanuele Manni</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Column Generation 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Vikrant Vaze</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Urban Planning and Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Jean-François Cordeau</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Drone and Air Mobility Control 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Guglielmo Lulli</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Vehicle Routing Problem 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Song Gao</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Survey and Sensing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Makoto Chikaraishi</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Timetabling 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Jiateng Yin</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Robust Optimization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Koki Satsukawa</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Integrating Fixed-Route and On-Demand Transit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Vikrant Vaze</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Logistics optimization 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Toru Seo</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Game Theory 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Negin Alisoltani</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>On-Demand Mobility 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Francesco Viti</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Traffic and Transit Assignment 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Judith Y. T. Wang</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Distributed Control and Decentralized Allocation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Mohsen Ramezani</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sustainable Transport Planning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Chair: Junji Urata</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Last-Mile Delivery 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Chair: Takamasa Iryo</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Two-Sided Markets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Yuki Oyama</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Data-Driven Analysis 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Haoning Xi</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Dynamic Fleet Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Tai-Yu Ma</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Reinforcement Learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Prateek Bansal</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Equity-Based Transportation Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Daisuke Fukuda</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Timetabling 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Roberto Maria Rosati</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Vehicle Routing Problem 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Bilge Atasoy</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Disaster Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Valentina Morandi</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Logistics Optimization 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Ricardo Giesen</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Vehicle Routing Problem 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Pirmin Fontaine</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Discrete Choice Model 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Giancarlos Parady</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Resilience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Hajime Watanabe</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Column Generation 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Negin Alisoltani</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>OD Estimation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Chao Zhang</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Drone and Air Mobility Control 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Yun Hui Lin</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Network Design 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Ryuichi Tani</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Data-Driven Analysis 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Takao Dantsuji</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Traffic and Transit Assignment 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Hiroe Ando</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Game Theory 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Kenan Zhang</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>On-Demand Mobility 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Chair: Yusuke Hara</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3581,6 +4765,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3667,7 +4865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3799,22 +4997,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3826,8 +5015,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4168,8 +5378,8 @@
   </sheetPr>
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A140" zoomScale="65" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="31"/>
@@ -4208,17 +5418,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="53" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="56" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="60">
         <v>1</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>0</v>
+      <c r="D2" s="53" t="s">
+        <v>1098</v>
       </c>
       <c r="E2" s="36">
         <v>20</v>
@@ -4231,10 +5441,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="62" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="29">
         <v>55</v>
       </c>
@@ -4246,10 +5456,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="62" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="29">
         <v>412</v>
       </c>
@@ -4261,13 +5471,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="62" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="53">
+      <c r="A5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="59">
         <v>2</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>6</v>
+      <c r="D5" s="54" t="s">
+        <v>1099</v>
       </c>
       <c r="E5" s="29">
         <v>162</v>
@@ -4280,10 +5490,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="62" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="56"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="29">
         <v>253</v>
       </c>
@@ -4295,10 +5505,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="62" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="56"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="29">
         <v>72</v>
       </c>
@@ -4310,13 +5520,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="62" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="53">
+      <c r="A8" s="54"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="59">
         <v>3</v>
       </c>
-      <c r="D8" s="56" t="s">
-        <v>8</v>
+      <c r="D8" s="54" t="s">
+        <v>1100</v>
       </c>
       <c r="E8" s="29">
         <v>231</v>
@@ -4329,10 +5539,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="62" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="56"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="29">
         <v>37</v>
       </c>
@@ -4344,10 +5554,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="37">
         <v>452</v>
       </c>
@@ -4359,17 +5569,17 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="62" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="54" t="s">
         <v>1097</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="57" t="s">
         <v>1065</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="59">
         <v>1</v>
       </c>
-      <c r="D11" s="58" t="s">
-        <v>190</v>
+      <c r="D11" s="53" t="s">
+        <v>1101</v>
       </c>
       <c r="E11" s="29">
         <v>441</v>
@@ -4382,10 +5592,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="62" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="56"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="29">
         <v>212</v>
       </c>
@@ -4397,13 +5607,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="62" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="53">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="59">
         <v>2</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>198</v>
+      <c r="D13" s="54" t="s">
+        <v>1102</v>
       </c>
       <c r="E13" s="29">
         <v>12</v>
@@ -4416,10 +5626,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="62" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="56"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="29">
         <v>457</v>
       </c>
@@ -4431,13 +5641,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="62" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="53">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="59">
         <v>3</v>
       </c>
-      <c r="D15" s="56" t="s">
-        <v>264</v>
+      <c r="D15" s="54" t="s">
+        <v>1103</v>
       </c>
       <c r="E15" s="29">
         <v>27</v>
@@ -4450,10 +5660,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="62" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="56"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="29">
         <v>211</v>
       </c>
@@ -4465,10 +5675,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="57"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="37">
         <v>199</v>
       </c>
@@ -4480,17 +5690,17 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="53" t="s">
         <v>1059</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="56" t="s">
         <v>1066</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="60">
         <v>1</v>
       </c>
-      <c r="D18" s="58" t="s">
-        <v>154</v>
+      <c r="D18" s="53" t="s">
+        <v>1104</v>
       </c>
       <c r="E18" s="36">
         <v>156</v>
@@ -4503,10 +5713,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="62" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="56"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="29">
         <v>13</v>
       </c>
@@ -4518,10 +5728,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="62" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="56"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="29">
         <v>17</v>
       </c>
@@ -4533,10 +5743,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="62" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="56"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="29">
         <v>148</v>
       </c>
@@ -4548,13 +5758,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="62" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="53">
+      <c r="A22" s="54"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="59">
         <v>2</v>
       </c>
-      <c r="D22" s="56" t="s">
-        <v>218</v>
+      <c r="D22" s="54" t="s">
+        <v>1105</v>
       </c>
       <c r="E22" s="29">
         <v>38</v>
@@ -4567,10 +5777,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="62" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="56"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="29">
         <v>247</v>
       </c>
@@ -4582,10 +5792,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="62" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="29">
         <v>254</v>
       </c>
@@ -4597,10 +5807,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="62" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="56"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="29">
         <v>143</v>
       </c>
@@ -4612,13 +5822,13 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="62" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="53">
+      <c r="A26" s="54"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="59">
         <v>3</v>
       </c>
-      <c r="D26" s="56" t="s">
-        <v>265</v>
+      <c r="D26" s="54" t="s">
+        <v>1106</v>
       </c>
       <c r="E26" s="29">
         <v>388</v>
@@ -4631,10 +5841,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="62" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="56"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="29">
         <v>29</v>
       </c>
@@ -4646,10 +5856,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="62" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="56"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="29">
         <v>404</v>
       </c>
@@ -4661,10 +5871,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="57"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="37">
         <v>15</v>
       </c>
@@ -4676,17 +5886,17 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="53" t="s">
         <v>1059</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="56" t="s">
         <v>1067</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="60">
         <v>1</v>
       </c>
-      <c r="D30" s="58" t="s">
-        <v>266</v>
+      <c r="D30" s="53" t="s">
+        <v>1107</v>
       </c>
       <c r="E30" s="36">
         <v>337</v>
@@ -4699,10 +5909,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="62" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="56"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="29">
         <v>484</v>
       </c>
@@ -4714,10 +5924,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="62" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="56"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="29">
         <v>110</v>
       </c>
@@ -4729,10 +5939,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="62" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="56"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="29">
         <v>144</v>
       </c>
@@ -4744,13 +5954,13 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="62" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="53">
+      <c r="A34" s="54"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="59">
         <v>2</v>
       </c>
-      <c r="D34" s="56" t="s">
-        <v>232</v>
+      <c r="D34" s="54" t="s">
+        <v>1108</v>
       </c>
       <c r="E34" s="29">
         <v>382</v>
@@ -4763,10 +5973,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="62" customHeight="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="56"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="29">
         <v>385</v>
       </c>
@@ -4778,10 +5988,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="62" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="56"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="29">
         <v>160</v>
       </c>
@@ -4793,10 +6003,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="62" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="56"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="29">
         <v>292</v>
       </c>
@@ -4808,13 +6018,13 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="62" customHeight="1">
-      <c r="A38" s="56"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="53">
+      <c r="A38" s="54"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="59">
         <v>3</v>
       </c>
-      <c r="D38" s="56" t="s">
-        <v>185</v>
+      <c r="D38" s="54" t="s">
+        <v>1109</v>
       </c>
       <c r="E38" s="29">
         <v>278</v>
@@ -4827,10 +6037,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="62" customHeight="1">
-      <c r="A39" s="56"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="56"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="29">
         <v>181</v>
       </c>
@@ -4842,10 +6052,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="57"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="37">
         <v>464</v>
       </c>
@@ -4857,17 +6067,17 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="53" t="s">
         <v>1060</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="56" t="s">
         <v>1064</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="60">
         <v>1</v>
       </c>
-      <c r="D41" s="58" t="s">
-        <v>267</v>
+      <c r="D41" s="53" t="s">
+        <v>1110</v>
       </c>
       <c r="E41" s="36">
         <v>23</v>
@@ -4880,10 +6090,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="62" customHeight="1">
-      <c r="A42" s="56"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="56"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="54"/>
       <c r="E42" s="29">
         <v>204</v>
       </c>
@@ -4895,10 +6105,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="62" customHeight="1">
-      <c r="A43" s="56"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="56"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="29">
         <v>206</v>
       </c>
@@ -4910,13 +6120,13 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="62" customHeight="1">
-      <c r="A44" s="56"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="53">
+      <c r="A44" s="54"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="59">
         <v>2</v>
       </c>
-      <c r="D44" s="56" t="s">
-        <v>268</v>
+      <c r="D44" s="54" t="s">
+        <v>1111</v>
       </c>
       <c r="E44" s="29">
         <v>101</v>
@@ -4929,10 +6139,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="62" customHeight="1">
-      <c r="A45" s="56"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="56"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="29">
         <v>213</v>
       </c>
@@ -4944,10 +6154,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="62" customHeight="1">
-      <c r="A46" s="56"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="56"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="29">
         <v>141</v>
       </c>
@@ -4959,13 +6169,13 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="62" customHeight="1">
-      <c r="A47" s="56"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="53">
+      <c r="A47" s="54"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="59">
         <v>3</v>
       </c>
-      <c r="D47" s="56" t="s">
-        <v>260</v>
+      <c r="D47" s="54" t="s">
+        <v>1112</v>
       </c>
       <c r="E47" s="29">
         <v>456</v>
@@ -4978,10 +6188,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="62" customHeight="1" thickBot="1">
-      <c r="A48" s="57"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="57"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="29">
         <v>65</v>
       </c>
@@ -4993,17 +6203,17 @@
       </c>
     </row>
     <row r="49" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="53" t="s">
         <v>1060</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="56" t="s">
         <v>1065</v>
       </c>
-      <c r="C49" s="54">
+      <c r="C49" s="60">
         <v>1</v>
       </c>
-      <c r="D49" s="58" t="s">
-        <v>269</v>
+      <c r="D49" s="53" t="s">
+        <v>1113</v>
       </c>
       <c r="E49" s="36">
         <v>407</v>
@@ -5016,10 +6226,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="62" customHeight="1">
-      <c r="A50" s="56"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="56"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="54"/>
       <c r="E50" s="29">
         <v>433</v>
       </c>
@@ -5031,10 +6241,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="62" customHeight="1">
-      <c r="A51" s="56"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="56"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="29">
         <v>163</v>
       </c>
@@ -5046,13 +6256,13 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="62" customHeight="1">
-      <c r="A52" s="56"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="53">
+      <c r="A52" s="54"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="59">
         <v>2</v>
       </c>
-      <c r="D52" s="56" t="s">
-        <v>270</v>
+      <c r="D52" s="54" t="s">
+        <v>1114</v>
       </c>
       <c r="E52" s="29">
         <v>491</v>
@@ -5065,10 +6275,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="62" customHeight="1">
-      <c r="A53" s="56"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="56"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="54"/>
       <c r="E53" s="29">
         <v>257</v>
       </c>
@@ -5080,10 +6290,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="62" customHeight="1">
-      <c r="A54" s="56"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="56"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="54"/>
       <c r="E54" s="29">
         <v>344</v>
       </c>
@@ -5095,13 +6305,13 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="62" customHeight="1">
-      <c r="A55" s="56"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="53">
+      <c r="A55" s="54"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="59">
         <v>3</v>
       </c>
-      <c r="D55" s="56" t="s">
-        <v>237</v>
+      <c r="D55" s="54" t="s">
+        <v>1115</v>
       </c>
       <c r="E55" s="29">
         <v>420</v>
@@ -5114,10 +6324,10 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="62" customHeight="1">
-      <c r="A56" s="56"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="56"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="29">
         <v>276</v>
       </c>
@@ -5129,10 +6339,10 @@
       </c>
     </row>
     <row r="57" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A57" s="57"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="57"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="37">
         <v>366</v>
       </c>
@@ -5144,17 +6354,17 @@
       </c>
     </row>
     <row r="58" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="53" t="s">
         <v>1060</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="56" t="s">
         <v>1066</v>
       </c>
-      <c r="C58" s="54">
+      <c r="C58" s="60">
         <v>1</v>
       </c>
-      <c r="D58" s="58" t="s">
-        <v>271</v>
+      <c r="D58" s="53" t="s">
+        <v>1116</v>
       </c>
       <c r="E58" s="36">
         <v>245</v>
@@ -5167,10 +6377,10 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="62" customHeight="1">
-      <c r="A59" s="56"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="56"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="54"/>
       <c r="E59" s="29">
         <v>351</v>
       </c>
@@ -5182,10 +6392,10 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="62" customHeight="1">
-      <c r="A60" s="56"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="56"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="54"/>
       <c r="E60" s="29">
         <v>489</v>
       </c>
@@ -5197,10 +6407,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="62" customHeight="1">
-      <c r="A61" s="56"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="56"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="29">
         <v>16</v>
       </c>
@@ -5212,13 +6422,13 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="62" customHeight="1">
-      <c r="A62" s="56"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="53">
+      <c r="A62" s="54"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="59">
         <v>2</v>
       </c>
-      <c r="D62" s="56" t="s">
-        <v>227</v>
+      <c r="D62" s="54" t="s">
+        <v>1117</v>
       </c>
       <c r="E62" s="29">
         <v>410</v>
@@ -5231,10 +6441,10 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="62" customHeight="1">
-      <c r="A63" s="56"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="56"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="54"/>
       <c r="E63" s="29">
         <v>58</v>
       </c>
@@ -5246,10 +6456,10 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="62" customHeight="1">
-      <c r="A64" s="56"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="56"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="54"/>
       <c r="E64" s="29">
         <v>115</v>
       </c>
@@ -5261,10 +6471,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="62" customHeight="1">
-      <c r="A65" s="56"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="56"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="54"/>
       <c r="E65" s="29">
         <v>130</v>
       </c>
@@ -5276,13 +6486,13 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="62" customHeight="1">
-      <c r="A66" s="56"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="53">
+      <c r="A66" s="54"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="59">
         <v>3</v>
       </c>
-      <c r="D66" s="56" t="s">
-        <v>43</v>
+      <c r="D66" s="54" t="s">
+        <v>1118</v>
       </c>
       <c r="E66" s="29">
         <v>154</v>
@@ -5295,10 +6505,10 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="62" customHeight="1">
-      <c r="A67" s="56"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="56"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="54"/>
       <c r="E67" s="29">
         <v>329</v>
       </c>
@@ -5310,10 +6520,10 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="62" customHeight="1">
-      <c r="A68" s="56"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="56"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="54"/>
       <c r="E68" s="29">
         <v>474</v>
       </c>
@@ -5325,10 +6535,10 @@
       </c>
     </row>
     <row r="69" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A69" s="57"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="57"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="37">
         <v>283</v>
       </c>
@@ -5340,17 +6550,17 @@
       </c>
     </row>
     <row r="70" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A70" s="58" t="s">
+      <c r="A70" s="53" t="s">
         <v>1060</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="56" t="s">
         <v>1067</v>
       </c>
-      <c r="C70" s="54">
+      <c r="C70" s="60">
         <v>1</v>
       </c>
-      <c r="D70" s="58" t="s">
-        <v>272</v>
+      <c r="D70" s="53" t="s">
+        <v>1119</v>
       </c>
       <c r="E70" s="36">
         <v>147</v>
@@ -5363,10 +6573,10 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="62" customHeight="1">
-      <c r="A71" s="56"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="56"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="29">
         <v>275</v>
       </c>
@@ -5378,10 +6588,10 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="62" customHeight="1">
-      <c r="A72" s="56"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="56"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="54"/>
       <c r="E72" s="29">
         <v>348</v>
       </c>
@@ -5393,10 +6603,10 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="62" customHeight="1">
-      <c r="A73" s="56"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="56"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="54"/>
       <c r="E73" s="29">
         <v>191</v>
       </c>
@@ -5408,13 +6618,13 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="62" customHeight="1">
-      <c r="A74" s="56"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="53">
+      <c r="A74" s="54"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="59">
         <v>2</v>
       </c>
-      <c r="D74" s="56" t="s">
-        <v>273</v>
+      <c r="D74" s="54" t="s">
+        <v>1120</v>
       </c>
       <c r="E74" s="29">
         <v>431</v>
@@ -5427,10 +6637,10 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="62" customHeight="1">
-      <c r="A75" s="56"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="56"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="54"/>
       <c r="E75" s="29">
         <v>419</v>
       </c>
@@ -5442,10 +6652,10 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="62" customHeight="1">
-      <c r="A76" s="56"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="56"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="54"/>
       <c r="E76" s="29">
         <v>357</v>
       </c>
@@ -5457,10 +6667,10 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="62" customHeight="1">
-      <c r="A77" s="56"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="56"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="54"/>
       <c r="E77" s="29">
         <v>19</v>
       </c>
@@ -5472,13 +6682,13 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="62" customHeight="1">
-      <c r="A78" s="56"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="53">
+      <c r="A78" s="54"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="59">
         <v>3</v>
       </c>
-      <c r="D78" s="56" t="s">
-        <v>274</v>
+      <c r="D78" s="54" t="s">
+        <v>1121</v>
       </c>
       <c r="E78" s="29">
         <v>96</v>
@@ -5491,10 +6701,10 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="62" customHeight="1">
-      <c r="A79" s="56"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="56"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="54"/>
       <c r="E79" s="29">
         <v>5</v>
       </c>
@@ -5506,10 +6716,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="62" customHeight="1">
-      <c r="A80" s="56"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="56"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="54"/>
       <c r="E80" s="29">
         <v>268</v>
       </c>
@@ -5521,10 +6731,10 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="62" customHeight="1" thickBot="1">
-      <c r="A81" s="56"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="57"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="55"/>
       <c r="E81" s="29">
         <v>398</v>
       </c>
@@ -5536,17 +6746,17 @@
       </c>
     </row>
     <row r="82" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A82" s="58" t="s">
+      <c r="A82" s="53" t="s">
         <v>1061</v>
       </c>
-      <c r="B82" s="59" t="s">
+      <c r="B82" s="56" t="s">
         <v>1064</v>
       </c>
-      <c r="C82" s="54">
+      <c r="C82" s="60">
         <v>1</v>
       </c>
-      <c r="D82" s="58" t="s">
-        <v>577</v>
+      <c r="D82" s="53" t="s">
+        <v>1122</v>
       </c>
       <c r="E82" s="36">
         <v>102</v>
@@ -5559,10 +6769,10 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="62" customHeight="1">
-      <c r="A83" s="56"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="56"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="54"/>
       <c r="E83" s="29">
         <v>150</v>
       </c>
@@ -5574,10 +6784,10 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="62" customHeight="1">
-      <c r="A84" s="56"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="56"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="54"/>
       <c r="E84" s="29">
         <v>117</v>
       </c>
@@ -5589,13 +6799,13 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="62" customHeight="1">
-      <c r="A85" s="56"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="53">
+      <c r="A85" s="54"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="59">
         <v>2</v>
       </c>
-      <c r="D85" s="56" t="s">
-        <v>51</v>
+      <c r="D85" s="54" t="s">
+        <v>1123</v>
       </c>
       <c r="E85" s="29">
         <v>274</v>
@@ -5608,10 +6818,10 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="62" customHeight="1">
-      <c r="A86" s="56"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="56"/>
+      <c r="A86" s="54"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="54"/>
       <c r="E86" s="29">
         <v>133</v>
       </c>
@@ -5623,10 +6833,10 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="62" customHeight="1">
-      <c r="A87" s="56"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="56"/>
+      <c r="A87" s="54"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="54"/>
       <c r="E87" s="29">
         <v>242</v>
       </c>
@@ -5638,13 +6848,13 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="62" customHeight="1">
-      <c r="A88" s="56"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="53">
+      <c r="A88" s="54"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="59">
         <v>3</v>
       </c>
-      <c r="D88" s="56" t="s">
-        <v>241</v>
+      <c r="D88" s="63" t="s">
+        <v>1124</v>
       </c>
       <c r="E88" s="29">
         <v>297</v>
@@ -5657,10 +6867,10 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="62" customHeight="1">
-      <c r="A89" s="56"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="56"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="63"/>
       <c r="E89" s="29">
         <v>304</v>
       </c>
@@ -5672,10 +6882,10 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A90" s="57"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="57"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="64"/>
       <c r="E90" s="37">
         <v>316</v>
       </c>
@@ -5687,17 +6897,17 @@
       </c>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A91" s="58" t="s">
+      <c r="A91" s="53" t="s">
         <v>1061</v>
       </c>
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="56" t="s">
         <v>1065</v>
       </c>
-      <c r="C91" s="54">
+      <c r="C91" s="60">
         <v>1</v>
       </c>
-      <c r="D91" s="58" t="s">
-        <v>278</v>
+      <c r="D91" s="65" t="s">
+        <v>1125</v>
       </c>
       <c r="E91" s="36">
         <v>447</v>
@@ -5710,10 +6920,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="62" customHeight="1">
-      <c r="A92" s="56"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="56"/>
+      <c r="A92" s="54"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="66"/>
       <c r="E92" s="29">
         <v>314</v>
       </c>
@@ -5725,13 +6935,13 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="62" customHeight="1">
-      <c r="A93" s="56"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="53">
+      <c r="A93" s="54"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="59">
         <v>2</v>
       </c>
-      <c r="D93" s="56" t="s">
-        <v>256</v>
+      <c r="D93" s="54" t="s">
+        <v>1126</v>
       </c>
       <c r="E93" s="29">
         <v>289</v>
@@ -5744,10 +6954,10 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="62" customHeight="1">
-      <c r="A94" s="56"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="56"/>
+      <c r="A94" s="54"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="54"/>
       <c r="E94" s="29">
         <v>124</v>
       </c>
@@ -5759,10 +6969,10 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="62" customHeight="1">
-      <c r="A95" s="56"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="56"/>
+      <c r="A95" s="54"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="54"/>
       <c r="E95" s="29">
         <v>290</v>
       </c>
@@ -5774,13 +6984,13 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="62" customHeight="1">
-      <c r="A96" s="56"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="53">
+      <c r="A96" s="54"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="59">
         <v>3</v>
       </c>
-      <c r="D96" s="56" t="s">
-        <v>546</v>
+      <c r="D96" s="54" t="s">
+        <v>1127</v>
       </c>
       <c r="E96" s="29">
         <v>73</v>
@@ -5793,10 +7003,10 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="62" customHeight="1">
-      <c r="A97" s="56"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="56"/>
+      <c r="A97" s="54"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="54"/>
       <c r="E97" s="29">
         <v>293</v>
       </c>
@@ -5808,10 +7018,10 @@
       </c>
     </row>
     <row r="98" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A98" s="57"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="57"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="55"/>
       <c r="E98" s="37">
         <v>449</v>
       </c>
@@ -5823,17 +7033,17 @@
       </c>
     </row>
     <row r="99" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A99" s="58" t="s">
+      <c r="A99" s="53" t="s">
         <v>1061</v>
       </c>
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="56" t="s">
         <v>1066</v>
       </c>
-      <c r="C99" s="54">
+      <c r="C99" s="60">
         <v>1</v>
       </c>
-      <c r="D99" s="58" t="s">
-        <v>180</v>
+      <c r="D99" s="53" t="s">
+        <v>1128</v>
       </c>
       <c r="E99" s="36">
         <v>307</v>
@@ -5846,10 +7056,10 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="62" customHeight="1">
-      <c r="A100" s="56"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="56"/>
+      <c r="A100" s="54"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="29">
         <v>182</v>
       </c>
@@ -5861,10 +7071,10 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="62" customHeight="1">
-      <c r="A101" s="56"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="56"/>
+      <c r="A101" s="54"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="54"/>
       <c r="E101" s="29">
         <v>414</v>
       </c>
@@ -5876,10 +7086,10 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="62" customHeight="1">
-      <c r="A102" s="56"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="56"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="54"/>
       <c r="E102" s="29">
         <v>445</v>
       </c>
@@ -5891,13 +7101,13 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="62" customHeight="1">
-      <c r="A103" s="56"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="53">
+      <c r="A103" s="54"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="59">
         <v>2</v>
       </c>
-      <c r="D103" s="56" t="s">
-        <v>213</v>
+      <c r="D103" s="54" t="s">
+        <v>1129</v>
       </c>
       <c r="E103" s="29">
         <v>333</v>
@@ -5910,10 +7120,10 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="62" customHeight="1">
-      <c r="A104" s="56"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="56"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="54"/>
       <c r="E104" s="29">
         <v>340</v>
       </c>
@@ -5925,10 +7135,10 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="62" customHeight="1">
-      <c r="A105" s="56"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="56"/>
+      <c r="A105" s="54"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="54"/>
       <c r="E105" s="29">
         <v>111</v>
       </c>
@@ -5940,13 +7150,13 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="62" customHeight="1">
-      <c r="A106" s="56"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="53">
+      <c r="A106" s="54"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="59">
         <v>3</v>
       </c>
-      <c r="D106" s="56" t="s">
-        <v>175</v>
+      <c r="D106" s="54" t="s">
+        <v>1130</v>
       </c>
       <c r="E106" s="29">
         <v>100</v>
@@ -5959,10 +7169,10 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="62" customHeight="1">
-      <c r="A107" s="56"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="56"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="54"/>
       <c r="E107" s="29">
         <v>347</v>
       </c>
@@ -5974,10 +7184,10 @@
       </c>
     </row>
     <row r="108" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A108" s="57"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="57"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="55"/>
       <c r="E108" s="37">
         <v>487</v>
       </c>
@@ -5989,17 +7199,17 @@
       </c>
     </row>
     <row r="109" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A109" s="58" t="s">
+      <c r="A109" s="53" t="s">
         <v>1061</v>
       </c>
-      <c r="B109" s="59" t="s">
+      <c r="B109" s="56" t="s">
         <v>1067</v>
       </c>
-      <c r="C109" s="54">
+      <c r="C109" s="60">
         <v>1</v>
       </c>
-      <c r="D109" s="58" t="s">
-        <v>277</v>
+      <c r="D109" s="53" t="s">
+        <v>1131</v>
       </c>
       <c r="E109" s="36">
         <v>244</v>
@@ -6012,10 +7222,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="62" customHeight="1">
-      <c r="A110" s="56"/>
-      <c r="B110" s="60"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="56"/>
+      <c r="A110" s="54"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="54"/>
       <c r="E110" s="29">
         <v>97</v>
       </c>
@@ -6027,10 +7237,10 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="62" customHeight="1">
-      <c r="A111" s="56"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="56"/>
+      <c r="A111" s="54"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="54"/>
       <c r="E111" s="29">
         <v>152</v>
       </c>
@@ -6042,10 +7252,10 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="62" customHeight="1">
-      <c r="A112" s="56"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="56"/>
+      <c r="A112" s="54"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="54"/>
       <c r="E112" s="29">
         <v>317</v>
       </c>
@@ -6057,13 +7267,13 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="62" customHeight="1">
-      <c r="A113" s="56"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="53">
+      <c r="A113" s="54"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="59">
         <v>2</v>
       </c>
-      <c r="D113" s="56" t="s">
-        <v>281</v>
+      <c r="D113" s="54" t="s">
+        <v>1132</v>
       </c>
       <c r="E113" s="29">
         <v>250</v>
@@ -6076,10 +7286,10 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="62" customHeight="1">
-      <c r="A114" s="56"/>
-      <c r="B114" s="60"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="56"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="54"/>
       <c r="E114" s="29">
         <v>301</v>
       </c>
@@ -6091,10 +7301,10 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="62" customHeight="1">
-      <c r="A115" s="56"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="56"/>
+      <c r="A115" s="54"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="54"/>
       <c r="E115" s="29">
         <v>334</v>
       </c>
@@ -6106,13 +7316,13 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="62" customHeight="1">
-      <c r="A116" s="56"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="53">
+      <c r="A116" s="54"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="59">
         <v>3</v>
       </c>
-      <c r="D116" s="56" t="s">
-        <v>149</v>
+      <c r="D116" s="54" t="s">
+        <v>1133</v>
       </c>
       <c r="E116" s="29">
         <v>255</v>
@@ -6125,10 +7335,10 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="62" customHeight="1">
-      <c r="A117" s="56"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="56"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="54"/>
       <c r="E117" s="29">
         <v>61</v>
       </c>
@@ -6140,10 +7350,10 @@
       </c>
     </row>
     <row r="118" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A118" s="57"/>
-      <c r="B118" s="61"/>
-      <c r="C118" s="55"/>
-      <c r="D118" s="57"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="61"/>
+      <c r="D118" s="55"/>
       <c r="E118" s="37">
         <v>132</v>
       </c>
@@ -6155,17 +7365,17 @@
       </c>
     </row>
     <row r="119" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A119" s="58" t="s">
+      <c r="A119" s="53" t="s">
         <v>1062</v>
       </c>
-      <c r="B119" s="59" t="s">
+      <c r="B119" s="56" t="s">
         <v>1064</v>
       </c>
-      <c r="C119" s="54">
+      <c r="C119" s="60">
         <v>1</v>
       </c>
-      <c r="D119" s="58" t="s">
-        <v>493</v>
+      <c r="D119" s="53" t="s">
+        <v>1134</v>
       </c>
       <c r="E119" s="36">
         <v>198</v>
@@ -6178,10 +7388,10 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="62" customHeight="1">
-      <c r="A120" s="56"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="56"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="54"/>
       <c r="E120" s="29">
         <v>405</v>
       </c>
@@ -6193,10 +7403,10 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="62" customHeight="1">
-      <c r="A121" s="56"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="56"/>
+      <c r="A121" s="54"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="54"/>
       <c r="E121" s="29">
         <v>483</v>
       </c>
@@ -6208,13 +7418,13 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="62" customHeight="1">
-      <c r="A122" s="56"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="53">
+      <c r="A122" s="54"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="59">
         <v>2</v>
       </c>
-      <c r="D122" s="56" t="s">
-        <v>282</v>
+      <c r="D122" s="54" t="s">
+        <v>1135</v>
       </c>
       <c r="E122" s="29">
         <v>71</v>
@@ -6227,10 +7437,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="62" customHeight="1">
-      <c r="A123" s="56"/>
-      <c r="B123" s="60"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="56"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="54"/>
       <c r="E123" s="29">
         <v>151</v>
       </c>
@@ -6242,13 +7452,13 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="62" customHeight="1">
-      <c r="A124" s="56"/>
-      <c r="B124" s="60"/>
-      <c r="C124" s="53">
+      <c r="A124" s="54"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="59">
         <v>3</v>
       </c>
-      <c r="D124" s="56" t="s">
-        <v>275</v>
+      <c r="D124" s="54" t="s">
+        <v>1136</v>
       </c>
       <c r="E124" s="29">
         <v>66</v>
@@ -6261,10 +7471,10 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="62" customHeight="1">
-      <c r="A125" s="56"/>
-      <c r="B125" s="60"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="56"/>
+      <c r="A125" s="54"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="54"/>
       <c r="E125" s="29">
         <v>493</v>
       </c>
@@ -6276,10 +7486,10 @@
       </c>
     </row>
     <row r="126" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A126" s="57"/>
-      <c r="B126" s="61"/>
-      <c r="C126" s="55"/>
-      <c r="D126" s="57"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="55"/>
       <c r="E126" s="37">
         <v>256</v>
       </c>
@@ -6291,17 +7501,17 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="62" customHeight="1">
-      <c r="A127" s="58" t="s">
+      <c r="A127" s="53" t="s">
         <v>1062</v>
       </c>
-      <c r="B127" s="60" t="s">
+      <c r="B127" s="57" t="s">
         <v>1065</v>
       </c>
-      <c r="C127" s="54">
+      <c r="C127" s="60">
         <v>1</v>
       </c>
-      <c r="D127" s="56" t="s">
-        <v>71</v>
+      <c r="D127" s="54" t="s">
+        <v>1137</v>
       </c>
       <c r="E127" s="29">
         <v>374</v>
@@ -6314,10 +7524,10 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="62" customHeight="1">
-      <c r="A128" s="56"/>
-      <c r="B128" s="60"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="56"/>
+      <c r="A128" s="54"/>
+      <c r="B128" s="57"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="54"/>
       <c r="E128" s="29">
         <v>195</v>
       </c>
@@ -6329,13 +7539,13 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="62" customHeight="1">
-      <c r="A129" s="56"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="53">
+      <c r="A129" s="54"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="59">
         <v>2</v>
       </c>
-      <c r="D129" s="56" t="s">
-        <v>279</v>
+      <c r="D129" s="54" t="s">
+        <v>1138</v>
       </c>
       <c r="E129" s="29">
         <v>365</v>
@@ -6348,10 +7558,10 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="62" customHeight="1">
-      <c r="A130" s="56"/>
-      <c r="B130" s="60"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="56"/>
+      <c r="A130" s="54"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="59"/>
+      <c r="D130" s="54"/>
       <c r="E130" s="29">
         <v>270</v>
       </c>
@@ -6363,10 +7573,10 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="62" customHeight="1">
-      <c r="A131" s="56"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="56"/>
+      <c r="A131" s="54"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="54"/>
       <c r="E131" s="29">
         <v>471</v>
       </c>
@@ -6378,13 +7588,13 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="62" customHeight="1">
-      <c r="A132" s="56"/>
-      <c r="B132" s="60"/>
-      <c r="C132" s="53">
+      <c r="A132" s="54"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="59">
         <v>3</v>
       </c>
-      <c r="D132" s="56" t="s">
-        <v>202</v>
+      <c r="D132" s="54" t="s">
+        <v>1139</v>
       </c>
       <c r="E132" s="29">
         <v>443</v>
@@ -6397,10 +7607,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="62" customHeight="1">
-      <c r="A133" s="56"/>
-      <c r="B133" s="60"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="56"/>
+      <c r="A133" s="54"/>
+      <c r="B133" s="57"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="54"/>
       <c r="E133" s="29">
         <v>76</v>
       </c>
@@ -6412,10 +7622,10 @@
       </c>
     </row>
     <row r="134" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A134" s="57"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="55"/>
-      <c r="D134" s="57"/>
+      <c r="A134" s="55"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="61"/>
+      <c r="D134" s="55"/>
       <c r="E134" s="37">
         <v>207</v>
       </c>
@@ -6427,17 +7637,17 @@
       </c>
     </row>
     <row r="135" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A135" s="58" t="s">
+      <c r="A135" s="53" t="s">
         <v>1062</v>
       </c>
-      <c r="B135" s="59" t="s">
+      <c r="B135" s="56" t="s">
         <v>1068</v>
       </c>
-      <c r="C135" s="54">
+      <c r="C135" s="60">
         <v>1</v>
       </c>
-      <c r="D135" s="58" t="s">
-        <v>280</v>
+      <c r="D135" s="53" t="s">
+        <v>1140</v>
       </c>
       <c r="E135" s="36">
         <v>170</v>
@@ -6450,10 +7660,10 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="62" customHeight="1">
-      <c r="A136" s="56"/>
-      <c r="B136" s="60"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="56"/>
+      <c r="A136" s="54"/>
+      <c r="B136" s="57"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="54"/>
       <c r="E136" s="29">
         <v>406</v>
       </c>
@@ -6465,10 +7675,10 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="62" customHeight="1">
-      <c r="A137" s="56"/>
-      <c r="B137" s="60"/>
-      <c r="C137" s="53"/>
-      <c r="D137" s="56"/>
+      <c r="A137" s="54"/>
+      <c r="B137" s="57"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="54"/>
       <c r="E137" s="29">
         <v>279</v>
       </c>
@@ -6480,13 +7690,13 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="62" customHeight="1">
-      <c r="A138" s="56"/>
-      <c r="B138" s="60"/>
-      <c r="C138" s="53">
+      <c r="A138" s="54"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="59">
         <v>2</v>
       </c>
-      <c r="D138" s="56" t="s">
-        <v>276</v>
+      <c r="D138" s="54" t="s">
+        <v>1141</v>
       </c>
       <c r="E138" s="29">
         <v>202</v>
@@ -6499,10 +7709,10 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="62" customHeight="1">
-      <c r="A139" s="56"/>
-      <c r="B139" s="60"/>
-      <c r="C139" s="53"/>
-      <c r="D139" s="56"/>
+      <c r="A139" s="54"/>
+      <c r="B139" s="57"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="54"/>
       <c r="E139" s="29">
         <v>69</v>
       </c>
@@ -6514,10 +7724,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="62" customHeight="1">
-      <c r="A140" s="56"/>
-      <c r="B140" s="60"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="56"/>
+      <c r="A140" s="54"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="54"/>
       <c r="E140" s="29">
         <v>378</v>
       </c>
@@ -6529,13 +7739,13 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="62" customHeight="1">
-      <c r="A141" s="56"/>
-      <c r="B141" s="60"/>
-      <c r="C141" s="53">
+      <c r="A141" s="54"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="59">
         <v>3</v>
       </c>
-      <c r="D141" s="56" t="s">
-        <v>447</v>
+      <c r="D141" s="54" t="s">
+        <v>1142</v>
       </c>
       <c r="E141" s="29">
         <v>153</v>
@@ -6548,10 +7758,10 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="62" customHeight="1">
-      <c r="A142" s="56"/>
-      <c r="B142" s="60"/>
-      <c r="C142" s="53"/>
-      <c r="D142" s="56"/>
+      <c r="A142" s="54"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="59"/>
+      <c r="D142" s="54"/>
       <c r="E142" s="29">
         <v>167</v>
       </c>
@@ -6563,10 +7773,10 @@
       </c>
     </row>
     <row r="143" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A143" s="57"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="55"/>
-      <c r="D143" s="57"/>
+      <c r="A143" s="55"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="55"/>
       <c r="E143" s="37">
         <v>326</v>
       </c>
@@ -6578,17 +7788,17 @@
       </c>
     </row>
     <row r="144" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A144" s="58" t="s">
+      <c r="A144" s="53" t="s">
         <v>1062</v>
       </c>
-      <c r="B144" s="59" t="s">
+      <c r="B144" s="56" t="s">
         <v>1069</v>
       </c>
-      <c r="C144" s="54">
+      <c r="C144" s="60">
         <v>1</v>
       </c>
-      <c r="D144" s="58" t="s">
-        <v>441</v>
+      <c r="D144" s="53" t="s">
+        <v>1143</v>
       </c>
       <c r="E144" s="36">
         <v>470</v>
@@ -6601,10 +7811,10 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="62" customHeight="1">
-      <c r="A145" s="56"/>
-      <c r="B145" s="60"/>
-      <c r="C145" s="53"/>
-      <c r="D145" s="56"/>
+      <c r="A145" s="54"/>
+      <c r="B145" s="57"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="54"/>
       <c r="E145" s="29">
         <v>203</v>
       </c>
@@ -6616,13 +7826,13 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="62" customHeight="1">
-      <c r="A146" s="56"/>
-      <c r="B146" s="60"/>
-      <c r="C146" s="53">
+      <c r="A146" s="54"/>
+      <c r="B146" s="57"/>
+      <c r="C146" s="59">
         <v>2</v>
       </c>
-      <c r="D146" s="56" t="s">
-        <v>283</v>
+      <c r="D146" s="54" t="s">
+        <v>1144</v>
       </c>
       <c r="E146" s="29">
         <v>123</v>
@@ -6635,10 +7845,10 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="62" customHeight="1">
-      <c r="A147" s="56"/>
-      <c r="B147" s="60"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="56"/>
+      <c r="A147" s="54"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="54"/>
       <c r="E147" s="29">
         <v>53</v>
       </c>
@@ -6650,10 +7860,10 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="62" customHeight="1">
-      <c r="A148" s="56"/>
-      <c r="B148" s="60"/>
-      <c r="C148" s="53"/>
-      <c r="D148" s="56"/>
+      <c r="A148" s="54"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="54"/>
       <c r="E148" s="29">
         <v>320</v>
       </c>
@@ -6665,13 +7875,13 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="62" customHeight="1">
-      <c r="A149" s="56"/>
-      <c r="B149" s="60"/>
-      <c r="C149" s="53">
+      <c r="A149" s="54"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="59">
         <v>3</v>
       </c>
-      <c r="D149" s="56" t="s">
-        <v>284</v>
+      <c r="D149" s="54" t="s">
+        <v>1145</v>
       </c>
       <c r="E149" s="29">
         <v>397</v>
@@ -6684,10 +7894,10 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="62" customHeight="1">
-      <c r="A150" s="56"/>
-      <c r="B150" s="60"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="56"/>
+      <c r="A150" s="54"/>
+      <c r="B150" s="57"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="54"/>
       <c r="E150" s="29">
         <v>85</v>
       </c>
@@ -6699,10 +7909,10 @@
       </c>
     </row>
     <row r="151" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A151" s="57"/>
-      <c r="B151" s="61"/>
-      <c r="C151" s="55"/>
-      <c r="D151" s="57"/>
+      <c r="A151" s="55"/>
+      <c r="B151" s="58"/>
+      <c r="C151" s="61"/>
+      <c r="D151" s="55"/>
       <c r="E151" s="37">
         <v>121</v>
       </c>
@@ -6721,6 +7931,110 @@
     </row>
   </sheetData>
   <mergeCells count="128">
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B99:B108"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="B58:B69"/>
+    <mergeCell ref="B70:B81"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A58:A69"/>
+    <mergeCell ref="A70:A81"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="B30:B40"/>
+    <mergeCell ref="B49:B57"/>
     <mergeCell ref="A119:A126"/>
     <mergeCell ref="B119:B126"/>
     <mergeCell ref="C122:C123"/>
@@ -6745,110 +8059,6 @@
     <mergeCell ref="D132:D134"/>
     <mergeCell ref="D138:D140"/>
     <mergeCell ref="D141:D143"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="B99:B108"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="B82:B90"/>
-    <mergeCell ref="B58:B69"/>
-    <mergeCell ref="B70:B81"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="A49:A57"/>
-    <mergeCell ref="A58:A69"/>
-    <mergeCell ref="A70:A81"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="B30:B40"/>
-    <mergeCell ref="B49:B57"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D146:D148"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D62:D65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>

--- a/content/program/TRISTAN2025_final_program.xlsx
+++ b/content/program/TRISTAN2025_final_program.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/public/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D39E734-FC99-DE47-A130-60B310562E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB6D1F6-32B8-2B42-AFD2-F57BBC051CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{6B18BE26-13C5-0449-A7C1-25BFDB85670B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6B18BE26-13C5-0449-A7C1-25BFDB85670B}"/>
   </bookViews>
   <sheets>
     <sheet name="Program list (2)" sheetId="4" r:id="rId1"/>
@@ -4865,7 +4865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4997,13 +4997,34 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5015,29 +5036,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5378,8 +5399,8 @@
   </sheetPr>
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A140" zoomScale="65" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A141" zoomScale="65" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="31"/>
@@ -5418,16 +5439,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="63" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="58">
         <v>1</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="57" t="s">
         <v>1098</v>
       </c>
       <c r="E2" s="36">
@@ -5441,10 +5462,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="62" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="54"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="29">
         <v>55</v>
       </c>
@@ -5456,10 +5477,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="62" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="54"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="29">
         <v>412</v>
       </c>
@@ -5471,12 +5492,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="62" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="59">
+      <c r="A5" s="53"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="55">
         <v>2</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>1099</v>
       </c>
       <c r="E5" s="29">
@@ -5490,10 +5511,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="62" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="54"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="29">
         <v>253</v>
       </c>
@@ -5505,10 +5526,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="62" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="29">
         <v>72</v>
       </c>
@@ -5520,12 +5541,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="62" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="59">
+      <c r="A8" s="53"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="55">
         <v>3</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>1100</v>
       </c>
       <c r="E8" s="29">
@@ -5539,10 +5560,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="62" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="54"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="29">
         <v>37</v>
       </c>
@@ -5554,10 +5575,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="55"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="37">
         <v>452</v>
       </c>
@@ -5569,16 +5590,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="62" customHeight="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>1097</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="64" t="s">
         <v>1065</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="55">
         <v>1</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="57" t="s">
         <v>1101</v>
       </c>
       <c r="E11" s="29">
@@ -5592,10 +5613,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="62" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="54"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="29">
         <v>212</v>
       </c>
@@ -5607,12 +5628,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="62" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="59">
+      <c r="A13" s="53"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="55">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>1102</v>
       </c>
       <c r="E13" s="29">
@@ -5626,10 +5647,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="62" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="54"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="29">
         <v>457</v>
       </c>
@@ -5641,12 +5662,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="62" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="59">
+      <c r="A15" s="53"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="55">
         <v>3</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>1103</v>
       </c>
       <c r="E15" s="29">
@@ -5660,10 +5681,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="62" customHeight="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="54"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="29">
         <v>211</v>
       </c>
@@ -5675,10 +5696,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="55"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="37">
         <v>199</v>
       </c>
@@ -5690,16 +5711,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="57" t="s">
         <v>1059</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="63" t="s">
         <v>1066</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="58">
         <v>1</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="57" t="s">
         <v>1104</v>
       </c>
       <c r="E18" s="36">
@@ -5713,10 +5734,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="62" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="54"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="29">
         <v>13</v>
       </c>
@@ -5728,10 +5749,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="62" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="54"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="29">
         <v>17</v>
       </c>
@@ -5743,10 +5764,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="62" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="54"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="29">
         <v>148</v>
       </c>
@@ -5758,12 +5779,12 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="62" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="59">
+      <c r="A22" s="53"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="55">
         <v>2</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="53" t="s">
         <v>1105</v>
       </c>
       <c r="E22" s="29">
@@ -5777,10 +5798,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="62" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="54"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="29">
         <v>247</v>
       </c>
@@ -5792,10 +5813,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="62" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="54"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="29">
         <v>254</v>
       </c>
@@ -5807,10 +5828,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="62" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="29">
         <v>143</v>
       </c>
@@ -5822,12 +5843,12 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="62" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="59">
+      <c r="A26" s="53"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="55">
         <v>3</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="53" t="s">
         <v>1106</v>
       </c>
       <c r="E26" s="29">
@@ -5841,10 +5862,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="62" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="29">
         <v>29</v>
       </c>
@@ -5856,10 +5877,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="62" customHeight="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="54"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="29">
         <v>404</v>
       </c>
@@ -5871,10 +5892,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="55"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="37">
         <v>15</v>
       </c>
@@ -5886,16 +5907,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="57" t="s">
         <v>1059</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="63" t="s">
         <v>1067</v>
       </c>
-      <c r="C30" s="60">
+      <c r="C30" s="58">
         <v>1</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="57" t="s">
         <v>1107</v>
       </c>
       <c r="E30" s="36">
@@ -5909,10 +5930,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="62" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="54"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="29">
         <v>484</v>
       </c>
@@ -5924,10 +5945,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="62" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="54"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="29">
         <v>110</v>
       </c>
@@ -5939,10 +5960,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="62" customHeight="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="54"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="29">
         <v>144</v>
       </c>
@@ -5954,12 +5975,12 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="62" customHeight="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="59">
+      <c r="A34" s="53"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="55">
         <v>2</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="53" t="s">
         <v>1108</v>
       </c>
       <c r="E34" s="29">
@@ -5973,10 +5994,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="62" customHeight="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="54"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="29">
         <v>385</v>
       </c>
@@ -5988,10 +6009,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="62" customHeight="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="54"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="29">
         <v>160</v>
       </c>
@@ -6003,10 +6024,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="62" customHeight="1">
-      <c r="A37" s="54"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="54"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="29">
         <v>292</v>
       </c>
@@ -6018,12 +6039,12 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="62" customHeight="1">
-      <c r="A38" s="54"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="59">
+      <c r="A38" s="53"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="55">
         <v>3</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="53" t="s">
         <v>1109</v>
       </c>
       <c r="E38" s="29">
@@ -6037,10 +6058,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="62" customHeight="1">
-      <c r="A39" s="54"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="54"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="29">
         <v>181</v>
       </c>
@@ -6052,10 +6073,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A40" s="55"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="55"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="37">
         <v>464</v>
       </c>
@@ -6067,16 +6088,16 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="57" t="s">
         <v>1060</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="63" t="s">
         <v>1064</v>
       </c>
-      <c r="C41" s="60">
+      <c r="C41" s="58">
         <v>1</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="57" t="s">
         <v>1110</v>
       </c>
       <c r="E41" s="36">
@@ -6090,10 +6111,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="62" customHeight="1">
-      <c r="A42" s="54"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="54"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="29">
         <v>204</v>
       </c>
@@ -6105,10 +6126,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="62" customHeight="1">
-      <c r="A43" s="54"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="54"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="29">
         <v>206</v>
       </c>
@@ -6120,12 +6141,12 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="62" customHeight="1">
-      <c r="A44" s="54"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="59">
+      <c r="A44" s="53"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="55">
         <v>2</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="53" t="s">
         <v>1111</v>
       </c>
       <c r="E44" s="29">
@@ -6139,10 +6160,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="62" customHeight="1">
-      <c r="A45" s="54"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="54"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="29">
         <v>213</v>
       </c>
@@ -6154,10 +6175,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="62" customHeight="1">
-      <c r="A46" s="54"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="54"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="29">
         <v>141</v>
       </c>
@@ -6169,12 +6190,12 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="62" customHeight="1">
-      <c r="A47" s="54"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="59">
+      <c r="A47" s="53"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="55">
         <v>3</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="53" t="s">
         <v>1112</v>
       </c>
       <c r="E47" s="29">
@@ -6188,10 +6209,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="62" customHeight="1" thickBot="1">
-      <c r="A48" s="55"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="55"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="54"/>
       <c r="E48" s="29">
         <v>65</v>
       </c>
@@ -6203,16 +6224,16 @@
       </c>
     </row>
     <row r="49" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="57" t="s">
         <v>1060</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="63" t="s">
         <v>1065</v>
       </c>
-      <c r="C49" s="60">
+      <c r="C49" s="58">
         <v>1</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="57" t="s">
         <v>1113</v>
       </c>
       <c r="E49" s="36">
@@ -6226,10 +6247,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="62" customHeight="1">
-      <c r="A50" s="54"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="54"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="29">
         <v>433</v>
       </c>
@@ -6241,10 +6262,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="62" customHeight="1">
-      <c r="A51" s="54"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="54"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="29">
         <v>163</v>
       </c>
@@ -6256,12 +6277,12 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="62" customHeight="1">
-      <c r="A52" s="54"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="59">
+      <c r="A52" s="53"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="55">
         <v>2</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D52" s="53" t="s">
         <v>1114</v>
       </c>
       <c r="E52" s="29">
@@ -6275,10 +6296,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="62" customHeight="1">
-      <c r="A53" s="54"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="54"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="29">
         <v>257</v>
       </c>
@@ -6290,10 +6311,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="62" customHeight="1">
-      <c r="A54" s="54"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="54"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="29">
         <v>344</v>
       </c>
@@ -6305,12 +6326,12 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="62" customHeight="1">
-      <c r="A55" s="54"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="59">
+      <c r="A55" s="53"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="55">
         <v>3</v>
       </c>
-      <c r="D55" s="54" t="s">
+      <c r="D55" s="53" t="s">
         <v>1115</v>
       </c>
       <c r="E55" s="29">
@@ -6324,10 +6345,10 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="62" customHeight="1">
-      <c r="A56" s="54"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="54"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="29">
         <v>276</v>
       </c>
@@ -6339,10 +6360,10 @@
       </c>
     </row>
     <row r="57" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A57" s="55"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="55"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="37">
         <v>366</v>
       </c>
@@ -6354,16 +6375,16 @@
       </c>
     </row>
     <row r="58" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="57" t="s">
         <v>1060</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="63" t="s">
         <v>1066</v>
       </c>
-      <c r="C58" s="60">
+      <c r="C58" s="58">
         <v>1</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="57" t="s">
         <v>1116</v>
       </c>
       <c r="E58" s="36">
@@ -6377,10 +6398,10 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="62" customHeight="1">
-      <c r="A59" s="54"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="54"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="29">
         <v>351</v>
       </c>
@@ -6392,10 +6413,10 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="62" customHeight="1">
-      <c r="A60" s="54"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="54"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="29">
         <v>489</v>
       </c>
@@ -6407,10 +6428,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="62" customHeight="1">
-      <c r="A61" s="54"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="54"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="29">
         <v>16</v>
       </c>
@@ -6422,12 +6443,12 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="62" customHeight="1">
-      <c r="A62" s="54"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="59">
+      <c r="A62" s="53"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="55">
         <v>2</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" s="53" t="s">
         <v>1117</v>
       </c>
       <c r="E62" s="29">
@@ -6441,10 +6462,10 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="62" customHeight="1">
-      <c r="A63" s="54"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="54"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="29">
         <v>58</v>
       </c>
@@ -6456,10 +6477,10 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="62" customHeight="1">
-      <c r="A64" s="54"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="54"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="29">
         <v>115</v>
       </c>
@@ -6471,10 +6492,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="62" customHeight="1">
-      <c r="A65" s="54"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="54"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="29">
         <v>130</v>
       </c>
@@ -6486,12 +6507,12 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="62" customHeight="1">
-      <c r="A66" s="54"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="59">
+      <c r="A66" s="53"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="55">
         <v>3</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="D66" s="53" t="s">
         <v>1118</v>
       </c>
       <c r="E66" s="29">
@@ -6505,10 +6526,10 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="62" customHeight="1">
-      <c r="A67" s="54"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="54"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="29">
         <v>329</v>
       </c>
@@ -6520,10 +6541,10 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="62" customHeight="1">
-      <c r="A68" s="54"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="54"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="29">
         <v>474</v>
       </c>
@@ -6535,10 +6556,10 @@
       </c>
     </row>
     <row r="69" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A69" s="55"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="55"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="54"/>
       <c r="E69" s="37">
         <v>283</v>
       </c>
@@ -6550,16 +6571,16 @@
       </c>
     </row>
     <row r="70" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="57" t="s">
         <v>1060</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="63" t="s">
         <v>1067</v>
       </c>
-      <c r="C70" s="60">
+      <c r="C70" s="58">
         <v>1</v>
       </c>
-      <c r="D70" s="53" t="s">
+      <c r="D70" s="57" t="s">
         <v>1119</v>
       </c>
       <c r="E70" s="36">
@@ -6573,10 +6594,10 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="62" customHeight="1">
-      <c r="A71" s="54"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="54"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="53"/>
       <c r="E71" s="29">
         <v>275</v>
       </c>
@@ -6588,10 +6609,10 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="62" customHeight="1">
-      <c r="A72" s="54"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="54"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="53"/>
       <c r="E72" s="29">
         <v>348</v>
       </c>
@@ -6603,10 +6624,10 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="62" customHeight="1">
-      <c r="A73" s="54"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="54"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="53"/>
       <c r="E73" s="29">
         <v>191</v>
       </c>
@@ -6618,12 +6639,12 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="62" customHeight="1">
-      <c r="A74" s="54"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="59">
+      <c r="A74" s="53"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="55">
         <v>2</v>
       </c>
-      <c r="D74" s="54" t="s">
+      <c r="D74" s="53" t="s">
         <v>1120</v>
       </c>
       <c r="E74" s="29">
@@ -6637,10 +6658,10 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="62" customHeight="1">
-      <c r="A75" s="54"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="54"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="53"/>
       <c r="E75" s="29">
         <v>419</v>
       </c>
@@ -6652,10 +6673,10 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="62" customHeight="1">
-      <c r="A76" s="54"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="54"/>
+      <c r="A76" s="53"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="53"/>
       <c r="E76" s="29">
         <v>357</v>
       </c>
@@ -6667,10 +6688,10 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="62" customHeight="1">
-      <c r="A77" s="54"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="54"/>
+      <c r="A77" s="53"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="53"/>
       <c r="E77" s="29">
         <v>19</v>
       </c>
@@ -6682,12 +6703,12 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="62" customHeight="1">
-      <c r="A78" s="54"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="59">
+      <c r="A78" s="53"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="55">
         <v>3</v>
       </c>
-      <c r="D78" s="54" t="s">
+      <c r="D78" s="53" t="s">
         <v>1121</v>
       </c>
       <c r="E78" s="29">
@@ -6701,10 +6722,10 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="62" customHeight="1">
-      <c r="A79" s="54"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="54"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="53"/>
       <c r="E79" s="29">
         <v>5</v>
       </c>
@@ -6716,10 +6737,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="62" customHeight="1">
-      <c r="A80" s="54"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="54"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="53"/>
       <c r="E80" s="29">
         <v>268</v>
       </c>
@@ -6731,10 +6752,10 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="62" customHeight="1" thickBot="1">
-      <c r="A81" s="54"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="55"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="54"/>
       <c r="E81" s="29">
         <v>398</v>
       </c>
@@ -6746,16 +6767,16 @@
       </c>
     </row>
     <row r="82" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="57" t="s">
         <v>1061</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="63" t="s">
         <v>1064</v>
       </c>
-      <c r="C82" s="60">
+      <c r="C82" s="58">
         <v>1</v>
       </c>
-      <c r="D82" s="53" t="s">
+      <c r="D82" s="57" t="s">
         <v>1122</v>
       </c>
       <c r="E82" s="36">
@@ -6769,10 +6790,10 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="62" customHeight="1">
-      <c r="A83" s="54"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="54"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="53"/>
       <c r="E83" s="29">
         <v>150</v>
       </c>
@@ -6784,10 +6805,10 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="62" customHeight="1">
-      <c r="A84" s="54"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="54"/>
+      <c r="A84" s="53"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="53"/>
       <c r="E84" s="29">
         <v>117</v>
       </c>
@@ -6799,12 +6820,12 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="62" customHeight="1">
-      <c r="A85" s="54"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="59">
+      <c r="A85" s="53"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="55">
         <v>2</v>
       </c>
-      <c r="D85" s="54" t="s">
+      <c r="D85" s="53" t="s">
         <v>1123</v>
       </c>
       <c r="E85" s="29">
@@ -6818,10 +6839,10 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="62" customHeight="1">
-      <c r="A86" s="54"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="54"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="53"/>
       <c r="E86" s="29">
         <v>133</v>
       </c>
@@ -6833,10 +6854,10 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="62" customHeight="1">
-      <c r="A87" s="54"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="54"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="53"/>
       <c r="E87" s="29">
         <v>242</v>
       </c>
@@ -6848,12 +6869,12 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="62" customHeight="1">
-      <c r="A88" s="54"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="59">
+      <c r="A88" s="53"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="55">
         <v>3</v>
       </c>
-      <c r="D88" s="63" t="s">
+      <c r="D88" s="61" t="s">
         <v>1124</v>
       </c>
       <c r="E88" s="29">
@@ -6867,10 +6888,10 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="62" customHeight="1">
-      <c r="A89" s="54"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="63"/>
+      <c r="A89" s="53"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="61"/>
       <c r="E89" s="29">
         <v>304</v>
       </c>
@@ -6882,10 +6903,10 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A90" s="55"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="64"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="62"/>
       <c r="E90" s="37">
         <v>316</v>
       </c>
@@ -6897,16 +6918,16 @@
       </c>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="57" t="s">
         <v>1061</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="63" t="s">
         <v>1065</v>
       </c>
-      <c r="C91" s="60">
+      <c r="C91" s="58">
         <v>1</v>
       </c>
-      <c r="D91" s="65" t="s">
+      <c r="D91" s="59" t="s">
         <v>1125</v>
       </c>
       <c r="E91" s="36">
@@ -6920,10 +6941,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="62" customHeight="1">
-      <c r="A92" s="54"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="66"/>
+      <c r="A92" s="53"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="60"/>
       <c r="E92" s="29">
         <v>314</v>
       </c>
@@ -6935,12 +6956,12 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="62" customHeight="1">
-      <c r="A93" s="54"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="59">
+      <c r="A93" s="53"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="55">
         <v>2</v>
       </c>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="53" t="s">
         <v>1126</v>
       </c>
       <c r="E93" s="29">
@@ -6954,10 +6975,10 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="62" customHeight="1">
-      <c r="A94" s="54"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="54"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="53"/>
       <c r="E94" s="29">
         <v>124</v>
       </c>
@@ -6969,10 +6990,10 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="62" customHeight="1">
-      <c r="A95" s="54"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="54"/>
+      <c r="A95" s="53"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="53"/>
       <c r="E95" s="29">
         <v>290</v>
       </c>
@@ -6984,12 +7005,12 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="62" customHeight="1">
-      <c r="A96" s="54"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="59">
+      <c r="A96" s="53"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="55">
         <v>3</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" s="53" t="s">
         <v>1127</v>
       </c>
       <c r="E96" s="29">
@@ -7003,10 +7024,10 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="62" customHeight="1">
-      <c r="A97" s="54"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="54"/>
+      <c r="A97" s="53"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="53"/>
       <c r="E97" s="29">
         <v>293</v>
       </c>
@@ -7018,10 +7039,10 @@
       </c>
     </row>
     <row r="98" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A98" s="55"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="55"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="54"/>
       <c r="E98" s="37">
         <v>449</v>
       </c>
@@ -7033,16 +7054,16 @@
       </c>
     </row>
     <row r="99" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="57" t="s">
         <v>1061</v>
       </c>
-      <c r="B99" s="56" t="s">
+      <c r="B99" s="63" t="s">
         <v>1066</v>
       </c>
-      <c r="C99" s="60">
+      <c r="C99" s="58">
         <v>1</v>
       </c>
-      <c r="D99" s="53" t="s">
+      <c r="D99" s="57" t="s">
         <v>1128</v>
       </c>
       <c r="E99" s="36">
@@ -7056,10 +7077,10 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="62" customHeight="1">
-      <c r="A100" s="54"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="54"/>
+      <c r="A100" s="53"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="53"/>
       <c r="E100" s="29">
         <v>182</v>
       </c>
@@ -7071,10 +7092,10 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="62" customHeight="1">
-      <c r="A101" s="54"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="54"/>
+      <c r="A101" s="53"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="53"/>
       <c r="E101" s="29">
         <v>414</v>
       </c>
@@ -7086,10 +7107,10 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="62" customHeight="1">
-      <c r="A102" s="54"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="54"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="53"/>
       <c r="E102" s="29">
         <v>445</v>
       </c>
@@ -7101,12 +7122,12 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="62" customHeight="1">
-      <c r="A103" s="54"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="59">
+      <c r="A103" s="53"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="55">
         <v>2</v>
       </c>
-      <c r="D103" s="54" t="s">
+      <c r="D103" s="53" t="s">
         <v>1129</v>
       </c>
       <c r="E103" s="29">
@@ -7120,10 +7141,10 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="62" customHeight="1">
-      <c r="A104" s="54"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="54"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="55"/>
+      <c r="D104" s="53"/>
       <c r="E104" s="29">
         <v>340</v>
       </c>
@@ -7135,10 +7156,10 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="62" customHeight="1">
-      <c r="A105" s="54"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="54"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="53"/>
       <c r="E105" s="29">
         <v>111</v>
       </c>
@@ -7150,12 +7171,12 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="62" customHeight="1">
-      <c r="A106" s="54"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="59">
+      <c r="A106" s="53"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="55">
         <v>3</v>
       </c>
-      <c r="D106" s="54" t="s">
+      <c r="D106" s="53" t="s">
         <v>1130</v>
       </c>
       <c r="E106" s="29">
@@ -7169,10 +7190,10 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="62" customHeight="1">
-      <c r="A107" s="54"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="54"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="55"/>
+      <c r="D107" s="53"/>
       <c r="E107" s="29">
         <v>347</v>
       </c>
@@ -7184,10 +7205,10 @@
       </c>
     </row>
     <row r="108" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A108" s="55"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="55"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="54"/>
       <c r="E108" s="37">
         <v>487</v>
       </c>
@@ -7199,16 +7220,16 @@
       </c>
     </row>
     <row r="109" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A109" s="53" t="s">
+      <c r="A109" s="57" t="s">
         <v>1061</v>
       </c>
-      <c r="B109" s="56" t="s">
+      <c r="B109" s="63" t="s">
         <v>1067</v>
       </c>
-      <c r="C109" s="60">
+      <c r="C109" s="58">
         <v>1</v>
       </c>
-      <c r="D109" s="53" t="s">
+      <c r="D109" s="57" t="s">
         <v>1131</v>
       </c>
       <c r="E109" s="36">
@@ -7222,10 +7243,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="62" customHeight="1">
-      <c r="A110" s="54"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="54"/>
+      <c r="A110" s="53"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="53"/>
       <c r="E110" s="29">
         <v>97</v>
       </c>
@@ -7237,10 +7258,10 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="62" customHeight="1">
-      <c r="A111" s="54"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="54"/>
+      <c r="A111" s="53"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="53"/>
       <c r="E111" s="29">
         <v>152</v>
       </c>
@@ -7252,10 +7273,10 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="62" customHeight="1">
-      <c r="A112" s="54"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="59"/>
-      <c r="D112" s="54"/>
+      <c r="A112" s="53"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="53"/>
       <c r="E112" s="29">
         <v>317</v>
       </c>
@@ -7267,12 +7288,12 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="62" customHeight="1">
-      <c r="A113" s="54"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="59">
+      <c r="A113" s="53"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="55">
         <v>2</v>
       </c>
-      <c r="D113" s="54" t="s">
+      <c r="D113" s="53" t="s">
         <v>1132</v>
       </c>
       <c r="E113" s="29">
@@ -7286,10 +7307,10 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="62" customHeight="1">
-      <c r="A114" s="54"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="59"/>
-      <c r="D114" s="54"/>
+      <c r="A114" s="53"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="55"/>
+      <c r="D114" s="53"/>
       <c r="E114" s="29">
         <v>301</v>
       </c>
@@ -7301,10 +7322,10 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="62" customHeight="1">
-      <c r="A115" s="54"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="59"/>
-      <c r="D115" s="54"/>
+      <c r="A115" s="53"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="55"/>
+      <c r="D115" s="53"/>
       <c r="E115" s="29">
         <v>334</v>
       </c>
@@ -7316,12 +7337,12 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="62" customHeight="1">
-      <c r="A116" s="54"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="59">
+      <c r="A116" s="53"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="55">
         <v>3</v>
       </c>
-      <c r="D116" s="54" t="s">
+      <c r="D116" s="53" t="s">
         <v>1133</v>
       </c>
       <c r="E116" s="29">
@@ -7335,10 +7356,10 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="62" customHeight="1">
-      <c r="A117" s="54"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="59"/>
-      <c r="D117" s="54"/>
+      <c r="A117" s="53"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="53"/>
       <c r="E117" s="29">
         <v>61</v>
       </c>
@@ -7350,10 +7371,10 @@
       </c>
     </row>
     <row r="118" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A118" s="55"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="61"/>
-      <c r="D118" s="55"/>
+      <c r="A118" s="54"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="54"/>
       <c r="E118" s="37">
         <v>132</v>
       </c>
@@ -7365,16 +7386,16 @@
       </c>
     </row>
     <row r="119" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A119" s="53" t="s">
+      <c r="A119" s="57" t="s">
         <v>1062</v>
       </c>
-      <c r="B119" s="56" t="s">
+      <c r="B119" s="63" t="s">
         <v>1064</v>
       </c>
-      <c r="C119" s="60">
+      <c r="C119" s="58">
         <v>1</v>
       </c>
-      <c r="D119" s="53" t="s">
+      <c r="D119" s="57" t="s">
         <v>1134</v>
       </c>
       <c r="E119" s="36">
@@ -7388,10 +7409,10 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="62" customHeight="1">
-      <c r="A120" s="54"/>
-      <c r="B120" s="57"/>
-      <c r="C120" s="59"/>
-      <c r="D120" s="54"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="53"/>
       <c r="E120" s="29">
         <v>405</v>
       </c>
@@ -7403,10 +7424,10 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="62" customHeight="1">
-      <c r="A121" s="54"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="59"/>
-      <c r="D121" s="54"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="53"/>
       <c r="E121" s="29">
         <v>483</v>
       </c>
@@ -7418,12 +7439,12 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="62" customHeight="1">
-      <c r="A122" s="54"/>
-      <c r="B122" s="57"/>
-      <c r="C122" s="59">
+      <c r="A122" s="53"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="55">
         <v>2</v>
       </c>
-      <c r="D122" s="54" t="s">
+      <c r="D122" s="53" t="s">
         <v>1135</v>
       </c>
       <c r="E122" s="29">
@@ -7437,10 +7458,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="62" customHeight="1">
-      <c r="A123" s="54"/>
-      <c r="B123" s="57"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="54"/>
+      <c r="A123" s="53"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="53"/>
       <c r="E123" s="29">
         <v>151</v>
       </c>
@@ -7452,12 +7473,12 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="62" customHeight="1">
-      <c r="A124" s="54"/>
-      <c r="B124" s="57"/>
-      <c r="C124" s="59">
+      <c r="A124" s="53"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="55">
         <v>3</v>
       </c>
-      <c r="D124" s="54" t="s">
+      <c r="D124" s="53" t="s">
         <v>1136</v>
       </c>
       <c r="E124" s="29">
@@ -7471,10 +7492,10 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="62" customHeight="1">
-      <c r="A125" s="54"/>
-      <c r="B125" s="57"/>
-      <c r="C125" s="59"/>
-      <c r="D125" s="54"/>
+      <c r="A125" s="53"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="53"/>
       <c r="E125" s="29">
         <v>493</v>
       </c>
@@ -7486,10 +7507,10 @@
       </c>
     </row>
     <row r="126" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A126" s="55"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="61"/>
-      <c r="D126" s="55"/>
+      <c r="A126" s="54"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="54"/>
       <c r="E126" s="37">
         <v>256</v>
       </c>
@@ -7501,16 +7522,16 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="62" customHeight="1">
-      <c r="A127" s="53" t="s">
+      <c r="A127" s="57" t="s">
         <v>1062</v>
       </c>
-      <c r="B127" s="57" t="s">
+      <c r="B127" s="64" t="s">
         <v>1065</v>
       </c>
-      <c r="C127" s="60">
+      <c r="C127" s="58">
         <v>1</v>
       </c>
-      <c r="D127" s="54" t="s">
+      <c r="D127" s="53" t="s">
         <v>1137</v>
       </c>
       <c r="E127" s="29">
@@ -7524,10 +7545,10 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="62" customHeight="1">
-      <c r="A128" s="54"/>
-      <c r="B128" s="57"/>
-      <c r="C128" s="59"/>
-      <c r="D128" s="54"/>
+      <c r="A128" s="67"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="68"/>
+      <c r="D128" s="53"/>
       <c r="E128" s="29">
         <v>195</v>
       </c>
@@ -7539,388 +7560,388 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="62" customHeight="1">
-      <c r="A129" s="54"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="59">
+      <c r="A129" s="53"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="55"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="69">
+        <v>121</v>
+      </c>
+      <c r="F129" s="70" t="s">
+        <v>429</v>
+      </c>
+      <c r="G129" s="70" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="62" customHeight="1">
+      <c r="A130" s="53"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="55">
         <v>2</v>
       </c>
-      <c r="D129" s="54" t="s">
+      <c r="D130" s="53" t="s">
         <v>1138</v>
       </c>
-      <c r="E129" s="29">
+      <c r="E130" s="29">
         <v>365</v>
       </c>
-      <c r="F129" s="33" t="s">
+      <c r="F130" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="G129" s="25" t="s">
+      <c r="G130" s="25" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="62" customHeight="1">
-      <c r="A130" s="54"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="59"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="29">
+    <row r="131" spans="1:7" ht="62" customHeight="1">
+      <c r="A131" s="53"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="29">
         <v>270</v>
       </c>
-      <c r="F130" s="25" t="s">
+      <c r="F131" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="G130" s="25" t="s">
+      <c r="G131" s="25" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="62" customHeight="1">
-      <c r="A131" s="54"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="29">
+    <row r="132" spans="1:7" ht="62" customHeight="1">
+      <c r="A132" s="53"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="29">
         <v>471</v>
       </c>
-      <c r="F131" s="25" t="s">
+      <c r="F132" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="G131" s="25" t="s">
+      <c r="G132" s="25" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="62" customHeight="1">
-      <c r="A132" s="54"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="59">
+    <row r="133" spans="1:7" ht="62" customHeight="1">
+      <c r="A133" s="53"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="55">
         <v>3</v>
       </c>
-      <c r="D132" s="54" t="s">
+      <c r="D133" s="53" t="s">
         <v>1139</v>
       </c>
-      <c r="E132" s="29">
+      <c r="E133" s="29">
         <v>443</v>
       </c>
-      <c r="F132" s="33" t="s">
+      <c r="F133" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="G132" s="25" t="s">
+      <c r="G133" s="25" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="62" customHeight="1">
-      <c r="A133" s="54"/>
-      <c r="B133" s="57"/>
-      <c r="C133" s="59"/>
-      <c r="D133" s="54"/>
-      <c r="E133" s="29">
+    <row r="134" spans="1:7" ht="62" customHeight="1">
+      <c r="A134" s="53"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="29">
         <v>76</v>
       </c>
-      <c r="F133" s="25" t="s">
+      <c r="F134" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="G133" s="25" t="s">
+      <c r="G134" s="25" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A134" s="55"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="61"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="37">
+    <row r="135" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A135" s="54"/>
+      <c r="B135" s="65"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="37">
         <v>207</v>
       </c>
-      <c r="F134" s="34" t="s">
+      <c r="F135" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="G134" s="27" t="s">
+      <c r="G135" s="27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A135" s="53" t="s">
+    <row r="136" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A136" s="57" t="s">
         <v>1062</v>
       </c>
-      <c r="B135" s="56" t="s">
+      <c r="B136" s="63" t="s">
         <v>1068</v>
       </c>
-      <c r="C135" s="60">
+      <c r="C136" s="58">
         <v>1</v>
       </c>
-      <c r="D135" s="53" t="s">
+      <c r="D136" s="57" t="s">
         <v>1140</v>
       </c>
-      <c r="E135" s="36">
+      <c r="E136" s="36">
         <v>170</v>
       </c>
-      <c r="F135" s="23" t="s">
+      <c r="F136" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="G135" s="23" t="s">
+      <c r="G136" s="23" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="62" customHeight="1">
-      <c r="A136" s="54"/>
-      <c r="B136" s="57"/>
-      <c r="C136" s="59"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="29">
+    <row r="137" spans="1:7" ht="62" customHeight="1">
+      <c r="A137" s="53"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="55"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="29">
         <v>406</v>
       </c>
-      <c r="F136" s="25" t="s">
+      <c r="F137" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="G136" s="25" t="s">
+      <c r="G137" s="25" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="62" customHeight="1">
-      <c r="A137" s="54"/>
-      <c r="B137" s="57"/>
-      <c r="C137" s="59"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="29">
+    <row r="138" spans="1:7" ht="62" customHeight="1">
+      <c r="A138" s="53"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="29">
         <v>279</v>
       </c>
-      <c r="F137" s="33" t="s">
+      <c r="F138" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="G137" s="25" t="s">
+      <c r="G138" s="25" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="62" customHeight="1">
-      <c r="A138" s="54"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="59">
+    <row r="139" spans="1:7" ht="62" customHeight="1">
+      <c r="A139" s="53"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="55">
         <v>2</v>
       </c>
-      <c r="D138" s="54" t="s">
+      <c r="D139" s="53" t="s">
         <v>1141</v>
       </c>
-      <c r="E138" s="29">
+      <c r="E139" s="29">
         <v>202</v>
       </c>
-      <c r="F138" s="25" t="s">
+      <c r="F139" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="G138" s="25" t="s">
+      <c r="G139" s="25" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="62" customHeight="1">
-      <c r="A139" s="54"/>
-      <c r="B139" s="57"/>
-      <c r="C139" s="59"/>
-      <c r="D139" s="54"/>
-      <c r="E139" s="29">
+    <row r="140" spans="1:7" ht="62" customHeight="1">
+      <c r="A140" s="53"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="53"/>
+      <c r="E140" s="29">
         <v>69</v>
       </c>
-      <c r="F139" s="25" t="s">
+      <c r="F140" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="G139" s="25" t="s">
+      <c r="G140" s="25" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="62" customHeight="1">
-      <c r="A140" s="54"/>
-      <c r="B140" s="57"/>
-      <c r="C140" s="59"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="29">
+    <row r="141" spans="1:7" ht="62" customHeight="1">
+      <c r="A141" s="53"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="55"/>
+      <c r="D141" s="53"/>
+      <c r="E141" s="29">
         <v>378</v>
       </c>
-      <c r="F140" s="25" t="s">
+      <c r="F141" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="G140" s="25" t="s">
+      <c r="G141" s="25" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="62" customHeight="1">
-      <c r="A141" s="54"/>
-      <c r="B141" s="57"/>
-      <c r="C141" s="59">
+    <row r="142" spans="1:7" ht="62" customHeight="1">
+      <c r="A142" s="53"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="55">
         <v>3</v>
       </c>
-      <c r="D141" s="54" t="s">
+      <c r="D142" s="53" t="s">
         <v>1142</v>
       </c>
-      <c r="E141" s="29">
+      <c r="E142" s="29">
         <v>153</v>
       </c>
-      <c r="F141" s="25" t="s">
+      <c r="F142" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="G141" s="25" t="s">
+      <c r="G142" s="25" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="62" customHeight="1">
-      <c r="A142" s="54"/>
-      <c r="B142" s="57"/>
-      <c r="C142" s="59"/>
-      <c r="D142" s="54"/>
-      <c r="E142" s="29">
+    <row r="143" spans="1:7" ht="62" customHeight="1">
+      <c r="A143" s="53"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="55"/>
+      <c r="D143" s="53"/>
+      <c r="E143" s="29">
         <v>167</v>
       </c>
-      <c r="F142" s="25" t="s">
+      <c r="F143" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="G142" s="25" t="s">
+      <c r="G143" s="25" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A143" s="55"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="61"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="37">
+    <row r="144" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A144" s="54"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="56"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="37">
         <v>326</v>
       </c>
-      <c r="F143" s="34" t="s">
+      <c r="F144" s="34" t="s">
         <v>1035</v>
       </c>
-      <c r="G143" s="27" t="s">
+      <c r="G144" s="27" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A144" s="53" t="s">
+    <row r="145" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A145" s="57" t="s">
         <v>1062</v>
       </c>
-      <c r="B144" s="56" t="s">
+      <c r="B145" s="63" t="s">
         <v>1069</v>
       </c>
-      <c r="C144" s="60">
+      <c r="C145" s="58">
         <v>1</v>
       </c>
-      <c r="D144" s="53" t="s">
+      <c r="D145" s="57" t="s">
         <v>1143</v>
       </c>
-      <c r="E144" s="36">
+      <c r="E145" s="36">
         <v>470</v>
       </c>
-      <c r="F144" s="23" t="s">
+      <c r="F145" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="G144" s="23" t="s">
+      <c r="G145" s="23" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="62" customHeight="1">
-      <c r="A145" s="54"/>
-      <c r="B145" s="57"/>
-      <c r="C145" s="59"/>
-      <c r="D145" s="54"/>
-      <c r="E145" s="29">
+    <row r="146" spans="1:7" ht="62" customHeight="1">
+      <c r="A146" s="67"/>
+      <c r="B146" s="71"/>
+      <c r="C146" s="68"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="69">
         <v>203</v>
       </c>
-      <c r="F145" s="25" t="s">
+      <c r="F146" s="70" t="s">
         <v>443</v>
       </c>
-      <c r="G145" s="25" t="s">
+      <c r="G146" s="70" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="62" customHeight="1">
-      <c r="A146" s="54"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="59">
+    <row r="147" spans="1:7" ht="62" customHeight="1">
+      <c r="A147" s="67"/>
+      <c r="B147" s="71"/>
+      <c r="C147" s="68">
         <v>2</v>
       </c>
-      <c r="D146" s="54" t="s">
+      <c r="D147" s="67" t="s">
         <v>1144</v>
       </c>
-      <c r="E146" s="29">
+      <c r="E147" s="69">
         <v>123</v>
       </c>
-      <c r="F146" s="25" t="s">
+      <c r="F147" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="G146" s="25" t="s">
+      <c r="G147" s="70" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="62" customHeight="1">
-      <c r="A147" s="54"/>
-      <c r="B147" s="57"/>
-      <c r="C147" s="59"/>
-      <c r="D147" s="54"/>
-      <c r="E147" s="29">
+    <row r="148" spans="1:7" ht="62" customHeight="1">
+      <c r="A148" s="67"/>
+      <c r="B148" s="71"/>
+      <c r="C148" s="68"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="69">
         <v>53</v>
       </c>
-      <c r="F147" s="25" t="s">
+      <c r="F148" s="70" t="s">
         <v>436</v>
       </c>
-      <c r="G147" s="25" t="s">
+      <c r="G148" s="70" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="62" customHeight="1">
-      <c r="A148" s="54"/>
-      <c r="B148" s="57"/>
-      <c r="C148" s="59"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="29">
+    <row r="149" spans="1:7" ht="62" customHeight="1">
+      <c r="A149" s="67"/>
+      <c r="B149" s="71"/>
+      <c r="C149" s="68"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="69">
         <v>320</v>
       </c>
-      <c r="F148" s="25" t="s">
+      <c r="F149" s="70" t="s">
         <v>434</v>
       </c>
-      <c r="G148" s="25" t="s">
+      <c r="G149" s="70" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="62" customHeight="1">
-      <c r="A149" s="54"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="59">
+    <row r="150" spans="1:7" ht="62" customHeight="1">
+      <c r="A150" s="67"/>
+      <c r="B150" s="71"/>
+      <c r="C150" s="68">
         <v>3</v>
       </c>
-      <c r="D149" s="54" t="s">
+      <c r="D150" s="67" t="s">
         <v>1145</v>
       </c>
-      <c r="E149" s="29">
+      <c r="E150" s="69">
         <v>397</v>
       </c>
-      <c r="F149" s="33" t="s">
+      <c r="F150" s="72" t="s">
         <v>432</v>
       </c>
-      <c r="G149" s="25" t="s">
+      <c r="G150" s="70" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="62" customHeight="1">
-      <c r="A150" s="54"/>
-      <c r="B150" s="57"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="54"/>
-      <c r="E150" s="29">
+    <row r="151" spans="1:7" ht="62" customHeight="1" thickBot="1">
+      <c r="A151" s="54"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="56"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="37">
         <v>85</v>
       </c>
-      <c r="F150" s="20" t="s">
+      <c r="F151" s="73" t="s">
         <v>1048</v>
       </c>
-      <c r="G150" s="25" t="s">
+      <c r="G151" s="27" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A151" s="55"/>
-      <c r="B151" s="58"/>
-      <c r="C151" s="61"/>
-      <c r="D151" s="55"/>
-      <c r="E151" s="37">
-        <v>121</v>
-      </c>
-      <c r="F151" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G151" s="27" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="27">
@@ -7931,6 +7952,110 @@
     </row>
   </sheetData>
   <mergeCells count="128">
+    <mergeCell ref="A119:A126"/>
+    <mergeCell ref="B119:B126"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="A145:A151"/>
+    <mergeCell ref="A127:A135"/>
+    <mergeCell ref="A136:A144"/>
+    <mergeCell ref="B136:B144"/>
+    <mergeCell ref="B145:B151"/>
+    <mergeCell ref="B127:B135"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B99:B108"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="B58:B69"/>
+    <mergeCell ref="B70:B81"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A58:A69"/>
+    <mergeCell ref="A70:A81"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="B30:B40"/>
+    <mergeCell ref="B49:B57"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D136:D138"/>
     <mergeCell ref="D96:D98"/>
     <mergeCell ref="D93:D95"/>
     <mergeCell ref="C96:C98"/>
@@ -7955,110 +8080,6 @@
     <mergeCell ref="D88:D90"/>
     <mergeCell ref="D55:D57"/>
     <mergeCell ref="D58:D61"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D146:D148"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="B99:B108"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="B82:B90"/>
-    <mergeCell ref="B58:B69"/>
-    <mergeCell ref="B70:B81"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="A49:A57"/>
-    <mergeCell ref="A58:A69"/>
-    <mergeCell ref="A70:A81"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="B30:B40"/>
-    <mergeCell ref="B49:B57"/>
-    <mergeCell ref="A119:A126"/>
-    <mergeCell ref="B119:B126"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="A144:A151"/>
-    <mergeCell ref="A127:A134"/>
-    <mergeCell ref="A135:A143"/>
-    <mergeCell ref="B135:B143"/>
-    <mergeCell ref="B144:B151"/>
-    <mergeCell ref="B127:B134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="D149:D151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="D141:D143"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
@@ -8078,8 +8099,8 @@
     <brk id="108" max="6" man="1"/>
     <brk id="118" max="6" man="1"/>
     <brk id="126" max="6" man="1"/>
-    <brk id="134" max="6" man="1"/>
-    <brk id="143" max="6" man="1"/>
+    <brk id="135" max="6" man="1"/>
+    <brk id="144" max="6" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -32542,7 +32563,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -32562,7 +32583,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
@@ -32580,7 +32601,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
@@ -32598,7 +32619,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -32632,7 +32653,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="66" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -32652,7 +32673,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -32670,7 +32691,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="62"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
@@ -32688,7 +32709,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="62"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
@@ -32714,7 +32735,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="66" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -32734,7 +32755,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="62"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
@@ -32752,7 +32773,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="4" t="s">
         <v>57</v>
       </c>
@@ -32770,7 +32791,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="62"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="4" t="s">
         <v>61</v>
       </c>
@@ -32796,7 +32817,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="66" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -32816,7 +32837,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="62"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="4" t="s">
         <v>70</v>
       </c>
@@ -32834,7 +32855,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="62"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="4" t="s">
         <v>74</v>
       </c>
@@ -32852,7 +32873,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="62"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="4" t="s">
         <v>78</v>
       </c>

--- a/content/program/TRISTAN2025_final_program.xlsx
+++ b/content/program/TRISTAN2025_final_program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudasatoki/Desktop/tristan2025-website/content/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB6D1F6-32B8-2B42-AFD2-F57BBC051CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECA8213-FF67-EB4B-B96C-F950A6787317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6B18BE26-13C5-0449-A7C1-25BFDB85670B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{6B18BE26-13C5-0449-A7C1-25BFDB85670B}"/>
   </bookViews>
   <sheets>
     <sheet name="Program list (2)" sheetId="4" r:id="rId1"/>
@@ -4865,7 +4865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4997,34 +4997,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5036,29 +5018,32 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5399,8 +5384,8 @@
   </sheetPr>
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A141" zoomScale="65" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A132" zoomScale="65" zoomScaleNormal="59" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="36" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="31"/>
@@ -5439,16 +5424,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="57" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="61">
         <v>1</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="54" t="s">
         <v>1098</v>
       </c>
       <c r="E2" s="36">
@@ -5462,10 +5447,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="62" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="29">
         <v>55</v>
       </c>
@@ -5477,10 +5462,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="62" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="53"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="29">
         <v>412</v>
       </c>
@@ -5492,12 +5477,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="62" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="55">
+      <c r="A5" s="55"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="60">
         <v>2</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="55" t="s">
         <v>1099</v>
       </c>
       <c r="E5" s="29">
@@ -5511,10 +5496,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="62" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="53"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="29">
         <v>253</v>
       </c>
@@ -5526,10 +5511,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="62" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="53"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="29">
         <v>72</v>
       </c>
@@ -5541,12 +5526,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="62" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="55">
+      <c r="A8" s="55"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="60">
         <v>3</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="55" t="s">
         <v>1100</v>
       </c>
       <c r="E8" s="29">
@@ -5560,10 +5545,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="62" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="53"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="29">
         <v>37</v>
       </c>
@@ -5575,10 +5560,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="54"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="37">
         <v>452</v>
       </c>
@@ -5590,16 +5575,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="62" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>1097</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="58" t="s">
         <v>1065</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="60">
         <v>1</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="54" t="s">
         <v>1101</v>
       </c>
       <c r="E11" s="29">
@@ -5613,10 +5598,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="62" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="53"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="29">
         <v>212</v>
       </c>
@@ -5628,12 +5613,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="62" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="55">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="60">
         <v>2</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="55" t="s">
         <v>1102</v>
       </c>
       <c r="E13" s="29">
@@ -5647,10 +5632,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="62" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="53"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="29">
         <v>457</v>
       </c>
@@ -5662,12 +5647,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="62" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="55">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="60">
         <v>3</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="55" t="s">
         <v>1103</v>
       </c>
       <c r="E15" s="29">
@@ -5681,10 +5666,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="62" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="53"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="29">
         <v>211</v>
       </c>
@@ -5696,10 +5681,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="54"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="37">
         <v>199</v>
       </c>
@@ -5711,16 +5696,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="54" t="s">
         <v>1059</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="57" t="s">
         <v>1066</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="61">
         <v>1</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="54" t="s">
         <v>1104</v>
       </c>
       <c r="E18" s="36">
@@ -5734,10 +5719,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="62" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="53"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="29">
         <v>13</v>
       </c>
@@ -5749,10 +5734,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="62" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="53"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="29">
         <v>17</v>
       </c>
@@ -5764,10 +5749,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="62" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="53"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="29">
         <v>148</v>
       </c>
@@ -5779,12 +5764,12 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="62" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="55">
+      <c r="A22" s="55"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="60">
         <v>2</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="55" t="s">
         <v>1105</v>
       </c>
       <c r="E22" s="29">
@@ -5798,10 +5783,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="62" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="53"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="29">
         <v>247</v>
       </c>
@@ -5813,10 +5798,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="62" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="53"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="29">
         <v>254</v>
       </c>
@@ -5828,10 +5813,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="62" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="53"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="29">
         <v>143</v>
       </c>
@@ -5843,12 +5828,12 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="62" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="55">
+      <c r="A26" s="55"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="60">
         <v>3</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="55" t="s">
         <v>1106</v>
       </c>
       <c r="E26" s="29">
@@ -5862,10 +5847,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="62" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="53"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="29">
         <v>29</v>
       </c>
@@ -5877,10 +5862,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="62" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="53"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="29">
         <v>404</v>
       </c>
@@ -5892,10 +5877,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="54"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="37">
         <v>15</v>
       </c>
@@ -5907,16 +5892,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="54" t="s">
         <v>1059</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="57" t="s">
         <v>1067</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="61">
         <v>1</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="54" t="s">
         <v>1107</v>
       </c>
       <c r="E30" s="36">
@@ -5930,10 +5915,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="62" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="53"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="29">
         <v>484</v>
       </c>
@@ -5945,10 +5930,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="62" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="53"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="29">
         <v>110</v>
       </c>
@@ -5960,10 +5945,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="62" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="53"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="29">
         <v>144</v>
       </c>
@@ -5975,12 +5960,12 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="62" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="55">
+      <c r="A34" s="55"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="60">
         <v>2</v>
       </c>
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="55" t="s">
         <v>1108</v>
       </c>
       <c r="E34" s="29">
@@ -5994,10 +5979,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="62" customHeight="1">
-      <c r="A35" s="53"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="53"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="29">
         <v>385</v>
       </c>
@@ -6009,10 +5994,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="62" customHeight="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="53"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="29">
         <v>160</v>
       </c>
@@ -6024,10 +6009,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="62" customHeight="1">
-      <c r="A37" s="53"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="53"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="29">
         <v>292</v>
       </c>
@@ -6039,12 +6024,12 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="62" customHeight="1">
-      <c r="A38" s="53"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="55">
+      <c r="A38" s="55"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="60">
         <v>3</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="55" t="s">
         <v>1109</v>
       </c>
       <c r="E38" s="29">
@@ -6058,10 +6043,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="62" customHeight="1">
-      <c r="A39" s="53"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="53"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="29">
         <v>181</v>
       </c>
@@ -6073,10 +6058,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A40" s="54"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="54"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="37">
         <v>464</v>
       </c>
@@ -6088,16 +6073,16 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="54" t="s">
         <v>1060</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="57" t="s">
         <v>1064</v>
       </c>
-      <c r="C41" s="58">
+      <c r="C41" s="61">
         <v>1</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="54" t="s">
         <v>1110</v>
       </c>
       <c r="E41" s="36">
@@ -6111,10 +6096,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="62" customHeight="1">
-      <c r="A42" s="53"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="53"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="29">
         <v>204</v>
       </c>
@@ -6126,10 +6111,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="62" customHeight="1">
-      <c r="A43" s="53"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="53"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="29">
         <v>206</v>
       </c>
@@ -6141,12 +6126,12 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="62" customHeight="1">
-      <c r="A44" s="53"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="55">
+      <c r="A44" s="55"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="60">
         <v>2</v>
       </c>
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="55" t="s">
         <v>1111</v>
       </c>
       <c r="E44" s="29">
@@ -6160,10 +6145,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="62" customHeight="1">
-      <c r="A45" s="53"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="53"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="29">
         <v>213</v>
       </c>
@@ -6175,10 +6160,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="62" customHeight="1">
-      <c r="A46" s="53"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="53"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="29">
         <v>141</v>
       </c>
@@ -6190,12 +6175,12 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="62" customHeight="1">
-      <c r="A47" s="53"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="55">
+      <c r="A47" s="55"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="60">
         <v>3</v>
       </c>
-      <c r="D47" s="53" t="s">
+      <c r="D47" s="55" t="s">
         <v>1112</v>
       </c>
       <c r="E47" s="29">
@@ -6209,10 +6194,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="62" customHeight="1" thickBot="1">
-      <c r="A48" s="54"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="54"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="29">
         <v>65</v>
       </c>
@@ -6224,16 +6209,16 @@
       </c>
     </row>
     <row r="49" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="54" t="s">
         <v>1060</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="57" t="s">
         <v>1065</v>
       </c>
-      <c r="C49" s="58">
+      <c r="C49" s="61">
         <v>1</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="54" t="s">
         <v>1113</v>
       </c>
       <c r="E49" s="36">
@@ -6247,10 +6232,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="62" customHeight="1">
-      <c r="A50" s="53"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="53"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="29">
         <v>433</v>
       </c>
@@ -6262,10 +6247,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="62" customHeight="1">
-      <c r="A51" s="53"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="53"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="29">
         <v>163</v>
       </c>
@@ -6277,12 +6262,12 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="62" customHeight="1">
-      <c r="A52" s="53"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="55">
+      <c r="A52" s="55"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="60">
         <v>2</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="55" t="s">
         <v>1114</v>
       </c>
       <c r="E52" s="29">
@@ -6296,10 +6281,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="62" customHeight="1">
-      <c r="A53" s="53"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="53"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="29">
         <v>257</v>
       </c>
@@ -6311,10 +6296,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="62" customHeight="1">
-      <c r="A54" s="53"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="53"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="29">
         <v>344</v>
       </c>
@@ -6326,12 +6311,12 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="62" customHeight="1">
-      <c r="A55" s="53"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="55">
+      <c r="A55" s="55"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="60">
         <v>3</v>
       </c>
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="55" t="s">
         <v>1115</v>
       </c>
       <c r="E55" s="29">
@@ -6345,10 +6330,10 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="62" customHeight="1">
-      <c r="A56" s="53"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="53"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="29">
         <v>276</v>
       </c>
@@ -6360,10 +6345,10 @@
       </c>
     </row>
     <row r="57" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A57" s="54"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="54"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="37">
         <v>366</v>
       </c>
@@ -6375,16 +6360,16 @@
       </c>
     </row>
     <row r="58" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="54" t="s">
         <v>1060</v>
       </c>
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="57" t="s">
         <v>1066</v>
       </c>
-      <c r="C58" s="58">
+      <c r="C58" s="61">
         <v>1</v>
       </c>
-      <c r="D58" s="57" t="s">
+      <c r="D58" s="54" t="s">
         <v>1116</v>
       </c>
       <c r="E58" s="36">
@@ -6398,10 +6383,10 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="62" customHeight="1">
-      <c r="A59" s="53"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="53"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="29">
         <v>351</v>
       </c>
@@ -6413,10 +6398,10 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="62" customHeight="1">
-      <c r="A60" s="53"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="53"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="29">
         <v>489</v>
       </c>
@@ -6428,10 +6413,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="62" customHeight="1">
-      <c r="A61" s="53"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="53"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="29">
         <v>16</v>
       </c>
@@ -6443,12 +6428,12 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="62" customHeight="1">
-      <c r="A62" s="53"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="55">
+      <c r="A62" s="55"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="60">
         <v>2</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="55" t="s">
         <v>1117</v>
       </c>
       <c r="E62" s="29">
@@ -6462,10 +6447,10 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="62" customHeight="1">
-      <c r="A63" s="53"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="53"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="29">
         <v>58</v>
       </c>
@@ -6477,10 +6462,10 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="62" customHeight="1">
-      <c r="A64" s="53"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="53"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="29">
         <v>115</v>
       </c>
@@ -6492,10 +6477,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="62" customHeight="1">
-      <c r="A65" s="53"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="53"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="29">
         <v>130</v>
       </c>
@@ -6507,12 +6492,12 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="62" customHeight="1">
-      <c r="A66" s="53"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="55">
+      <c r="A66" s="55"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="60">
         <v>3</v>
       </c>
-      <c r="D66" s="53" t="s">
+      <c r="D66" s="55" t="s">
         <v>1118</v>
       </c>
       <c r="E66" s="29">
@@ -6526,10 +6511,10 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="62" customHeight="1">
-      <c r="A67" s="53"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="53"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="29">
         <v>329</v>
       </c>
@@ -6541,10 +6526,10 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="62" customHeight="1">
-      <c r="A68" s="53"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="53"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="29">
         <v>474</v>
       </c>
@@ -6556,10 +6541,10 @@
       </c>
     </row>
     <row r="69" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A69" s="54"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="54"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="56"/>
       <c r="E69" s="37">
         <v>283</v>
       </c>
@@ -6571,16 +6556,16 @@
       </c>
     </row>
     <row r="70" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A70" s="57" t="s">
+      <c r="A70" s="54" t="s">
         <v>1060</v>
       </c>
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="57" t="s">
         <v>1067</v>
       </c>
-      <c r="C70" s="58">
+      <c r="C70" s="61">
         <v>1</v>
       </c>
-      <c r="D70" s="57" t="s">
+      <c r="D70" s="54" t="s">
         <v>1119</v>
       </c>
       <c r="E70" s="36">
@@ -6594,10 +6579,10 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="62" customHeight="1">
-      <c r="A71" s="53"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="53"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="29">
         <v>275</v>
       </c>
@@ -6609,10 +6594,10 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="62" customHeight="1">
-      <c r="A72" s="53"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="53"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="55"/>
       <c r="E72" s="29">
         <v>348</v>
       </c>
@@ -6624,10 +6609,10 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="62" customHeight="1">
-      <c r="A73" s="53"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="53"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="55"/>
       <c r="E73" s="29">
         <v>191</v>
       </c>
@@ -6639,12 +6624,12 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="62" customHeight="1">
-      <c r="A74" s="53"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="55">
+      <c r="A74" s="55"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="60">
         <v>2</v>
       </c>
-      <c r="D74" s="53" t="s">
+      <c r="D74" s="55" t="s">
         <v>1120</v>
       </c>
       <c r="E74" s="29">
@@ -6658,10 +6643,10 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="62" customHeight="1">
-      <c r="A75" s="53"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="53"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="29">
         <v>419</v>
       </c>
@@ -6673,10 +6658,10 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="62" customHeight="1">
-      <c r="A76" s="53"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="53"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="55"/>
       <c r="E76" s="29">
         <v>357</v>
       </c>
@@ -6688,10 +6673,10 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="62" customHeight="1">
-      <c r="A77" s="53"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="53"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="55"/>
       <c r="E77" s="29">
         <v>19</v>
       </c>
@@ -6703,12 +6688,12 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="62" customHeight="1">
-      <c r="A78" s="53"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="55">
+      <c r="A78" s="55"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="60">
         <v>3</v>
       </c>
-      <c r="D78" s="53" t="s">
+      <c r="D78" s="55" t="s">
         <v>1121</v>
       </c>
       <c r="E78" s="29">
@@ -6722,10 +6707,10 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="62" customHeight="1">
-      <c r="A79" s="53"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="53"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="29">
         <v>5</v>
       </c>
@@ -6737,10 +6722,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="62" customHeight="1">
-      <c r="A80" s="53"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="53"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="55"/>
       <c r="E80" s="29">
         <v>268</v>
       </c>
@@ -6752,10 +6737,10 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="62" customHeight="1" thickBot="1">
-      <c r="A81" s="53"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="54"/>
+      <c r="A81" s="55"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="56"/>
       <c r="E81" s="29">
         <v>398</v>
       </c>
@@ -6767,16 +6752,16 @@
       </c>
     </row>
     <row r="82" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A82" s="57" t="s">
+      <c r="A82" s="54" t="s">
         <v>1061</v>
       </c>
-      <c r="B82" s="63" t="s">
+      <c r="B82" s="57" t="s">
         <v>1064</v>
       </c>
-      <c r="C82" s="58">
+      <c r="C82" s="61">
         <v>1</v>
       </c>
-      <c r="D82" s="57" t="s">
+      <c r="D82" s="54" t="s">
         <v>1122</v>
       </c>
       <c r="E82" s="36">
@@ -6790,10 +6775,10 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="62" customHeight="1">
-      <c r="A83" s="53"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="53"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="55"/>
       <c r="E83" s="29">
         <v>150</v>
       </c>
@@ -6805,10 +6790,10 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="62" customHeight="1">
-      <c r="A84" s="53"/>
-      <c r="B84" s="64"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="53"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="29">
         <v>117</v>
       </c>
@@ -6820,12 +6805,12 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="62" customHeight="1">
-      <c r="A85" s="53"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="55">
+      <c r="A85" s="55"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="60">
         <v>2</v>
       </c>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="55" t="s">
         <v>1123</v>
       </c>
       <c r="E85" s="29">
@@ -6839,10 +6824,10 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="62" customHeight="1">
-      <c r="A86" s="53"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="53"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="29">
         <v>133</v>
       </c>
@@ -6854,10 +6839,10 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="62" customHeight="1">
-      <c r="A87" s="53"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="53"/>
+      <c r="A87" s="55"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="29">
         <v>242</v>
       </c>
@@ -6869,12 +6854,12 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="62" customHeight="1">
-      <c r="A88" s="53"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="55">
+      <c r="A88" s="55"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="60">
         <v>3</v>
       </c>
-      <c r="D88" s="61" t="s">
+      <c r="D88" s="64" t="s">
         <v>1124</v>
       </c>
       <c r="E88" s="29">
@@ -6888,10 +6873,10 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="62" customHeight="1">
-      <c r="A89" s="53"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="61"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="64"/>
       <c r="E89" s="29">
         <v>304</v>
       </c>
@@ -6903,10 +6888,10 @@
       </c>
     </row>
     <row r="90" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A90" s="54"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="62"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="65"/>
       <c r="E90" s="37">
         <v>316</v>
       </c>
@@ -6918,16 +6903,16 @@
       </c>
     </row>
     <row r="91" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A91" s="57" t="s">
+      <c r="A91" s="54" t="s">
         <v>1061</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B91" s="57" t="s">
         <v>1065</v>
       </c>
-      <c r="C91" s="58">
+      <c r="C91" s="61">
         <v>1</v>
       </c>
-      <c r="D91" s="59" t="s">
+      <c r="D91" s="63" t="s">
         <v>1125</v>
       </c>
       <c r="E91" s="36">
@@ -6941,10 +6926,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="62" customHeight="1">
-      <c r="A92" s="53"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="60"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="68"/>
       <c r="E92" s="29">
         <v>314</v>
       </c>
@@ -6956,782 +6941,782 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="62" customHeight="1">
-      <c r="A93" s="53"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="55">
+      <c r="A93" s="55"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="29">
+        <v>279</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="62" customHeight="1">
+      <c r="A94" s="55"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="60">
         <v>2</v>
       </c>
-      <c r="D93" s="53" t="s">
+      <c r="D94" s="55" t="s">
         <v>1126</v>
       </c>
-      <c r="E93" s="29">
+      <c r="E94" s="29">
         <v>289</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="F94" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="G93" s="25" t="s">
+      <c r="G94" s="25" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="62" customHeight="1">
-      <c r="A94" s="53"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="29">
+    <row r="95" spans="1:7" ht="62" customHeight="1">
+      <c r="A95" s="55"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="29">
         <v>124</v>
       </c>
-      <c r="F94" s="25" t="s">
+      <c r="F95" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="G94" s="25" t="s">
+      <c r="G95" s="25" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="62" customHeight="1">
-      <c r="A95" s="53"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="29">
+    <row r="96" spans="1:7" ht="62" customHeight="1">
+      <c r="A96" s="55"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="29">
         <v>290</v>
       </c>
-      <c r="F95" s="25" t="s">
+      <c r="F96" s="25" t="s">
         <v>552</v>
       </c>
-      <c r="G95" s="25" t="s">
+      <c r="G96" s="25" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="62" customHeight="1">
-      <c r="A96" s="53"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="55">
+    <row r="97" spans="1:7" ht="62" customHeight="1">
+      <c r="A97" s="55"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="60">
         <v>3</v>
       </c>
-      <c r="D96" s="53" t="s">
+      <c r="D97" s="55" t="s">
         <v>1127</v>
       </c>
-      <c r="E96" s="29">
+      <c r="E97" s="29">
         <v>73</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="F97" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="G96" s="25" t="s">
+      <c r="G97" s="25" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="62" customHeight="1">
-      <c r="A97" s="53"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="29">
+    <row r="98" spans="1:7" ht="62" customHeight="1">
+      <c r="A98" s="55"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="29">
         <v>293</v>
       </c>
-      <c r="F97" s="25" t="s">
+      <c r="F98" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="G97" s="25" t="s">
+      <c r="G98" s="25" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A98" s="54"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="37">
+    <row r="99" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A99" s="56"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="37">
         <v>449</v>
       </c>
-      <c r="F98" s="27" t="s">
+      <c r="F99" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="G98" s="27" t="s">
+      <c r="G99" s="27" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A99" s="57" t="s">
+    <row r="100" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A100" s="54" t="s">
         <v>1061</v>
       </c>
-      <c r="B99" s="63" t="s">
+      <c r="B100" s="57" t="s">
         <v>1066</v>
       </c>
-      <c r="C99" s="58">
+      <c r="C100" s="61">
         <v>1</v>
       </c>
-      <c r="D99" s="57" t="s">
+      <c r="D100" s="54" t="s">
         <v>1128</v>
       </c>
-      <c r="E99" s="36">
+      <c r="E100" s="36">
         <v>307</v>
       </c>
-      <c r="F99" s="23" t="s">
+      <c r="F100" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="G99" s="23" t="s">
+      <c r="G100" s="23" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="62" customHeight="1">
-      <c r="A100" s="53"/>
-      <c r="B100" s="64"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="29">
+    <row r="101" spans="1:7" ht="62" customHeight="1">
+      <c r="A101" s="55"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="29">
         <v>182</v>
       </c>
-      <c r="F100" s="25" t="s">
+      <c r="F101" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="G100" s="25" t="s">
+      <c r="G101" s="25" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="62" customHeight="1">
-      <c r="A101" s="53"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="29">
+    <row r="102" spans="1:7" ht="62" customHeight="1">
+      <c r="A102" s="55"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="29">
         <v>414</v>
       </c>
-      <c r="F101" s="25" t="s">
+      <c r="F102" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="G101" s="25" t="s">
+      <c r="G102" s="25" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="62" customHeight="1">
-      <c r="A102" s="53"/>
-      <c r="B102" s="64"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="29">
+    <row r="103" spans="1:7" ht="62" customHeight="1">
+      <c r="A103" s="55"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="29">
         <v>445</v>
       </c>
-      <c r="F102" s="25" t="s">
+      <c r="F103" s="25" t="s">
         <v>910</v>
       </c>
-      <c r="G102" s="25" t="s">
+      <c r="G103" s="25" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="62" customHeight="1">
-      <c r="A103" s="53"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="55">
+    <row r="104" spans="1:7" ht="62" customHeight="1">
+      <c r="A104" s="55"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="60">
         <v>2</v>
       </c>
-      <c r="D103" s="53" t="s">
+      <c r="D104" s="55" t="s">
         <v>1129</v>
       </c>
-      <c r="E103" s="29">
+      <c r="E104" s="29">
         <v>333</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="F104" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="G103" s="25" t="s">
+      <c r="G104" s="25" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="62" customHeight="1">
-      <c r="A104" s="53"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="55"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="29">
+    <row r="105" spans="1:7" ht="62" customHeight="1">
+      <c r="A105" s="55"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="29">
         <v>340</v>
       </c>
-      <c r="F104" s="25" t="s">
+      <c r="F105" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="G104" s="25" t="s">
+      <c r="G105" s="25" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="62" customHeight="1">
-      <c r="A105" s="53"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="55"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="29">
+    <row r="106" spans="1:7" ht="62" customHeight="1">
+      <c r="A106" s="55"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="29">
         <v>111</v>
       </c>
-      <c r="F105" s="25" t="s">
+      <c r="F106" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="G105" s="25" t="s">
+      <c r="G106" s="25" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="62" customHeight="1">
-      <c r="A106" s="53"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="55">
+    <row r="107" spans="1:7" ht="62" customHeight="1">
+      <c r="A107" s="55"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="60">
         <v>3</v>
       </c>
-      <c r="D106" s="53" t="s">
+      <c r="D107" s="55" t="s">
         <v>1130</v>
       </c>
-      <c r="E106" s="29">
+      <c r="E107" s="29">
         <v>100</v>
       </c>
-      <c r="F106" s="33" t="s">
+      <c r="F107" s="33" t="s">
         <v>528</v>
       </c>
-      <c r="G106" s="25" t="s">
+      <c r="G107" s="25" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="62" customHeight="1">
-      <c r="A107" s="53"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="55"/>
-      <c r="D107" s="53"/>
-      <c r="E107" s="29">
+    <row r="108" spans="1:7" ht="62" customHeight="1">
+      <c r="A108" s="55"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="29">
         <v>347</v>
       </c>
-      <c r="F107" s="33" t="s">
+      <c r="F108" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="G107" s="25" t="s">
+      <c r="G108" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A108" s="54"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="37">
+    <row r="109" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A109" s="56"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="37">
         <v>487</v>
       </c>
-      <c r="F108" s="27" t="s">
+      <c r="F109" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="G109" s="27" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A109" s="57" t="s">
+    <row r="110" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A110" s="54" t="s">
         <v>1061</v>
       </c>
-      <c r="B109" s="63" t="s">
+      <c r="B110" s="57" t="s">
         <v>1067</v>
       </c>
-      <c r="C109" s="58">
+      <c r="C110" s="61">
         <v>1</v>
       </c>
-      <c r="D109" s="57" t="s">
+      <c r="D110" s="54" t="s">
         <v>1131</v>
       </c>
-      <c r="E109" s="36">
+      <c r="E110" s="36">
         <v>244</v>
       </c>
-      <c r="F109" s="23" t="s">
+      <c r="F110" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="G110" s="23" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="62" customHeight="1">
-      <c r="A110" s="53"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="29">
+    <row r="111" spans="1:7" ht="62" customHeight="1">
+      <c r="A111" s="55"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="29">
         <v>97</v>
       </c>
-      <c r="F110" s="25" t="s">
+      <c r="F111" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="G110" s="25" t="s">
+      <c r="G111" s="25" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="62" customHeight="1">
-      <c r="A111" s="53"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="55"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="29">
+    <row r="112" spans="1:7" ht="62" customHeight="1">
+      <c r="A112" s="55"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="60"/>
+      <c r="D112" s="55"/>
+      <c r="E112" s="29">
         <v>152</v>
       </c>
-      <c r="F111" s="25" t="s">
+      <c r="F112" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="G111" s="25" t="s">
+      <c r="G112" s="25" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="62" customHeight="1">
-      <c r="A112" s="53"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="29">
+    <row r="113" spans="1:7" ht="62" customHeight="1">
+      <c r="A113" s="55"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="29">
         <v>317</v>
       </c>
-      <c r="F112" s="25" t="s">
+      <c r="F113" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="G112" s="25" t="s">
+      <c r="G113" s="25" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="62" customHeight="1">
-      <c r="A113" s="53"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="55">
+    <row r="114" spans="1:7" ht="62" customHeight="1">
+      <c r="A114" s="55"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="60">
         <v>2</v>
       </c>
-      <c r="D113" s="53" t="s">
+      <c r="D114" s="55" t="s">
         <v>1132</v>
       </c>
-      <c r="E113" s="29">
+      <c r="E114" s="29">
         <v>250</v>
       </c>
-      <c r="F113" s="25" t="s">
+      <c r="F114" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="G113" s="25" t="s">
+      <c r="G114" s="25" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="62" customHeight="1">
-      <c r="A114" s="53"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="53"/>
-      <c r="E114" s="29">
+    <row r="115" spans="1:7" ht="62" customHeight="1">
+      <c r="A115" s="55"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="29">
         <v>301</v>
       </c>
-      <c r="F114" s="33" t="s">
+      <c r="F115" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="G114" s="25" t="s">
+      <c r="G115" s="25" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="62" customHeight="1">
-      <c r="A115" s="53"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="55"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="29">
+    <row r="116" spans="1:7" ht="62" customHeight="1">
+      <c r="A116" s="55"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="29">
         <v>334</v>
       </c>
-      <c r="F115" s="25" t="s">
+      <c r="F116" s="25" t="s">
         <v>948</v>
       </c>
-      <c r="G115" s="25" t="s">
+      <c r="G116" s="25" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="62" customHeight="1">
-      <c r="A116" s="53"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="55">
+    <row r="117" spans="1:7" ht="62" customHeight="1">
+      <c r="A117" s="55"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="60">
         <v>3</v>
       </c>
-      <c r="D116" s="53" t="s">
+      <c r="D117" s="55" t="s">
         <v>1133</v>
       </c>
-      <c r="E116" s="29">
+      <c r="E117" s="29">
         <v>255</v>
       </c>
-      <c r="F116" s="25" t="s">
+      <c r="F117" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="G116" s="25" t="s">
+      <c r="G117" s="25" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="62" customHeight="1">
-      <c r="A117" s="53"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="55"/>
-      <c r="D117" s="53"/>
-      <c r="E117" s="29">
+    <row r="118" spans="1:7" ht="62" customHeight="1">
+      <c r="A118" s="55"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="60"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="29">
         <v>61</v>
       </c>
-      <c r="F117" s="25" t="s">
+      <c r="F118" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="G117" s="25" t="s">
+      <c r="G118" s="25" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A118" s="54"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="56"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="37">
+    <row r="119" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A119" s="56"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="56"/>
+      <c r="E119" s="37">
         <v>132</v>
       </c>
-      <c r="F118" s="27" t="s">
+      <c r="F119" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="G118" s="27" t="s">
+      <c r="G119" s="27" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A119" s="57" t="s">
+    <row r="120" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A120" s="54" t="s">
         <v>1062</v>
       </c>
-      <c r="B119" s="63" t="s">
+      <c r="B120" s="57" t="s">
         <v>1064</v>
       </c>
-      <c r="C119" s="58">
+      <c r="C120" s="61">
         <v>1</v>
       </c>
-      <c r="D119" s="57" t="s">
+      <c r="D120" s="54" t="s">
         <v>1134</v>
       </c>
-      <c r="E119" s="36">
+      <c r="E120" s="36">
         <v>198</v>
       </c>
-      <c r="F119" s="23" t="s">
+      <c r="F120" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="G119" s="23" t="s">
+      <c r="G120" s="23" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="62" customHeight="1">
-      <c r="A120" s="53"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="53"/>
-      <c r="E120" s="29">
+    <row r="121" spans="1:7" ht="62" customHeight="1">
+      <c r="A121" s="55"/>
+      <c r="B121" s="58"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="29">
         <v>405</v>
       </c>
-      <c r="F120" s="25" t="s">
+      <c r="F121" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="G120" s="25" t="s">
+      <c r="G121" s="25" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="62" customHeight="1">
-      <c r="A121" s="53"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="29">
+    <row r="122" spans="1:7" ht="62" customHeight="1">
+      <c r="A122" s="55"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="29">
         <v>483</v>
       </c>
-      <c r="F121" s="25" t="s">
+      <c r="F122" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="G121" s="25" t="s">
+      <c r="G122" s="25" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="62" customHeight="1">
-      <c r="A122" s="53"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="55">
+    <row r="123" spans="1:7" ht="62" customHeight="1">
+      <c r="A123" s="55"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="60">
         <v>2</v>
       </c>
-      <c r="D122" s="53" t="s">
+      <c r="D123" s="55" t="s">
         <v>1135</v>
       </c>
-      <c r="E122" s="29">
+      <c r="E123" s="29">
         <v>71</v>
       </c>
-      <c r="F122" s="52" t="s">
+      <c r="F123" s="52" t="s">
         <v>1093</v>
       </c>
-      <c r="G122" s="25" t="s">
+      <c r="G123" s="25" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="62" customHeight="1">
-      <c r="A123" s="53"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="53"/>
-      <c r="E123" s="29">
+    <row r="124" spans="1:7" ht="62" customHeight="1">
+      <c r="A124" s="55"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="29">
         <v>151</v>
       </c>
-      <c r="F123" s="25" t="s">
+      <c r="F124" s="25" t="s">
         <v>980</v>
       </c>
-      <c r="G123" s="25" t="s">
+      <c r="G124" s="25" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="62" customHeight="1">
-      <c r="A124" s="53"/>
-      <c r="B124" s="64"/>
-      <c r="C124" s="55">
+    <row r="125" spans="1:7" ht="62" customHeight="1">
+      <c r="A125" s="55"/>
+      <c r="B125" s="58"/>
+      <c r="C125" s="60">
         <v>3</v>
       </c>
-      <c r="D124" s="53" t="s">
+      <c r="D125" s="55" t="s">
         <v>1136</v>
       </c>
-      <c r="E124" s="29">
+      <c r="E125" s="29">
         <v>66</v>
       </c>
-      <c r="F124" s="25" t="s">
+      <c r="F125" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="G124" s="25" t="s">
+      <c r="G125" s="25" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="62" customHeight="1">
-      <c r="A125" s="53"/>
-      <c r="B125" s="64"/>
-      <c r="C125" s="55"/>
-      <c r="D125" s="53"/>
-      <c r="E125" s="29">
+    <row r="126" spans="1:7" ht="62" customHeight="1">
+      <c r="A126" s="55"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="60"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="29">
         <v>493</v>
       </c>
-      <c r="F125" s="25" t="s">
+      <c r="F126" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="G125" s="25" t="s">
+      <c r="G126" s="25" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A126" s="54"/>
-      <c r="B126" s="65"/>
-      <c r="C126" s="56"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="37">
+    <row r="127" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A127" s="56"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="37">
         <v>256</v>
       </c>
-      <c r="F126" s="27" t="s">
+      <c r="F127" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="G126" s="27" t="s">
+      <c r="G127" s="27" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="62" customHeight="1">
-      <c r="A127" s="57" t="s">
+    <row r="128" spans="1:7" ht="62" customHeight="1">
+      <c r="A128" s="54" t="s">
         <v>1062</v>
       </c>
-      <c r="B127" s="64" t="s">
+      <c r="B128" s="58" t="s">
         <v>1065</v>
       </c>
-      <c r="C127" s="58">
+      <c r="C128" s="61">
         <v>1</v>
       </c>
-      <c r="D127" s="53" t="s">
+      <c r="D128" s="55" t="s">
         <v>1137</v>
       </c>
-      <c r="E127" s="29">
+      <c r="E128" s="29">
         <v>374</v>
       </c>
-      <c r="F127" s="25" t="s">
+      <c r="F128" s="25" t="s">
         <v>1096</v>
       </c>
-      <c r="G127" s="25" t="s">
+      <c r="G128" s="25" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="62" customHeight="1">
-      <c r="A128" s="67"/>
-      <c r="B128" s="64"/>
-      <c r="C128" s="68"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="29">
+    <row r="129" spans="1:7" ht="62" customHeight="1">
+      <c r="A129" s="55"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="55"/>
+      <c r="E129" s="29">
         <v>195</v>
       </c>
-      <c r="F128" s="25" t="s">
+      <c r="F129" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="G128" s="25" t="s">
+      <c r="G129" s="25" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="62" customHeight="1">
-      <c r="A129" s="53"/>
-      <c r="B129" s="64"/>
-      <c r="C129" s="55"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="69">
+    <row r="130" spans="1:7" ht="62" customHeight="1">
+      <c r="A130" s="55"/>
+      <c r="B130" s="58"/>
+      <c r="C130" s="60"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="29">
         <v>121</v>
       </c>
-      <c r="F129" s="70" t="s">
+      <c r="F130" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="G129" s="70" t="s">
+      <c r="G130" s="25" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="62" customHeight="1">
-      <c r="A130" s="53"/>
-      <c r="B130" s="64"/>
-      <c r="C130" s="55">
+    <row r="131" spans="1:7" ht="62" customHeight="1">
+      <c r="A131" s="55"/>
+      <c r="B131" s="58"/>
+      <c r="C131" s="60">
         <v>2</v>
       </c>
-      <c r="D130" s="53" t="s">
+      <c r="D131" s="55" t="s">
         <v>1138</v>
       </c>
-      <c r="E130" s="29">
+      <c r="E131" s="29">
         <v>365</v>
       </c>
-      <c r="F130" s="33" t="s">
+      <c r="F131" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="G130" s="25" t="s">
+      <c r="G131" s="25" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="62" customHeight="1">
-      <c r="A131" s="53"/>
-      <c r="B131" s="64"/>
-      <c r="C131" s="55"/>
-      <c r="D131" s="53"/>
-      <c r="E131" s="29">
+    <row r="132" spans="1:7" ht="62" customHeight="1">
+      <c r="A132" s="55"/>
+      <c r="B132" s="58"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="29">
         <v>270</v>
       </c>
-      <c r="F131" s="25" t="s">
+      <c r="F132" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="G131" s="25" t="s">
+      <c r="G132" s="25" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="62" customHeight="1">
-      <c r="A132" s="53"/>
-      <c r="B132" s="64"/>
-      <c r="C132" s="55"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="29">
+    <row r="133" spans="1:7" ht="62" customHeight="1">
+      <c r="A133" s="55"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="55"/>
+      <c r="E133" s="29">
         <v>471</v>
       </c>
-      <c r="F132" s="25" t="s">
+      <c r="F133" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="G132" s="25" t="s">
+      <c r="G133" s="25" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="62" customHeight="1">
-      <c r="A133" s="53"/>
-      <c r="B133" s="64"/>
-      <c r="C133" s="55">
+    <row r="134" spans="1:7" ht="62" customHeight="1">
+      <c r="A134" s="55"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="60">
         <v>3</v>
       </c>
-      <c r="D133" s="53" t="s">
+      <c r="D134" s="55" t="s">
         <v>1139</v>
       </c>
-      <c r="E133" s="29">
+      <c r="E134" s="29">
         <v>443</v>
       </c>
-      <c r="F133" s="33" t="s">
+      <c r="F134" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="G133" s="25" t="s">
+      <c r="G134" s="25" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="62" customHeight="1">
-      <c r="A134" s="53"/>
-      <c r="B134" s="64"/>
-      <c r="C134" s="55"/>
-      <c r="D134" s="53"/>
-      <c r="E134" s="29">
+    <row r="135" spans="1:7" ht="62" customHeight="1">
+      <c r="A135" s="55"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="29">
         <v>76</v>
       </c>
-      <c r="F134" s="25" t="s">
+      <c r="F135" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="G134" s="25" t="s">
+      <c r="G135" s="25" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A135" s="54"/>
-      <c r="B135" s="65"/>
-      <c r="C135" s="56"/>
-      <c r="D135" s="54"/>
-      <c r="E135" s="37">
+    <row r="136" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
+      <c r="A136" s="56"/>
+      <c r="B136" s="59"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="56"/>
+      <c r="E136" s="37">
         <v>207</v>
       </c>
-      <c r="F135" s="34" t="s">
+      <c r="F136" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="G135" s="27" t="s">
+      <c r="G136" s="27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A136" s="57" t="s">
+    <row r="137" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
+      <c r="A137" s="54" t="s">
         <v>1062</v>
       </c>
-      <c r="B136" s="63" t="s">
+      <c r="B137" s="57" t="s">
         <v>1068</v>
       </c>
-      <c r="C136" s="58">
+      <c r="C137" s="61">
         <v>1</v>
       </c>
-      <c r="D136" s="57" t="s">
+      <c r="D137" s="54" t="s">
         <v>1140</v>
       </c>
-      <c r="E136" s="36">
+      <c r="E137" s="36">
         <v>170</v>
       </c>
-      <c r="F136" s="23" t="s">
+      <c r="F137" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="G136" s="23" t="s">
+      <c r="G137" s="23" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="62" customHeight="1">
-      <c r="A137" s="53"/>
-      <c r="B137" s="64"/>
-      <c r="C137" s="55"/>
-      <c r="D137" s="53"/>
-      <c r="E137" s="29">
+    <row r="138" spans="1:7" ht="62" customHeight="1">
+      <c r="A138" s="55"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="29">
         <v>406</v>
       </c>
-      <c r="F137" s="25" t="s">
+      <c r="F138" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="G137" s="25" t="s">
+      <c r="G138" s="25" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="62" customHeight="1">
-      <c r="A138" s="53"/>
-      <c r="B138" s="64"/>
-      <c r="C138" s="55"/>
-      <c r="D138" s="53"/>
-      <c r="E138" s="29">
-        <v>279</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="G138" s="25" t="s">
-        <v>458</v>
-      </c>
-    </row>
     <row r="139" spans="1:7" ht="62" customHeight="1">
-      <c r="A139" s="53"/>
-      <c r="B139" s="64"/>
-      <c r="C139" s="55">
+      <c r="A139" s="55"/>
+      <c r="B139" s="58"/>
+      <c r="C139" s="60">
         <v>2</v>
       </c>
-      <c r="D139" s="53" t="s">
+      <c r="D139" s="55" t="s">
         <v>1141</v>
       </c>
       <c r="E139" s="29">
@@ -7745,10 +7730,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="62" customHeight="1">
-      <c r="A140" s="53"/>
-      <c r="B140" s="64"/>
-      <c r="C140" s="55"/>
-      <c r="D140" s="53"/>
+      <c r="A140" s="55"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="60"/>
+      <c r="D140" s="55"/>
       <c r="E140" s="29">
         <v>69</v>
       </c>
@@ -7760,10 +7745,10 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="62" customHeight="1">
-      <c r="A141" s="53"/>
-      <c r="B141" s="64"/>
-      <c r="C141" s="55"/>
-      <c r="D141" s="53"/>
+      <c r="A141" s="55"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="60"/>
+      <c r="D141" s="55"/>
       <c r="E141" s="29">
         <v>378</v>
       </c>
@@ -7775,12 +7760,12 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="62" customHeight="1">
-      <c r="A142" s="53"/>
-      <c r="B142" s="64"/>
-      <c r="C142" s="55">
+      <c r="A142" s="55"/>
+      <c r="B142" s="58"/>
+      <c r="C142" s="60">
         <v>3</v>
       </c>
-      <c r="D142" s="53" t="s">
+      <c r="D142" s="55" t="s">
         <v>1142</v>
       </c>
       <c r="E142" s="29">
@@ -7794,10 +7779,10 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="62" customHeight="1">
-      <c r="A143" s="53"/>
-      <c r="B143" s="64"/>
-      <c r="C143" s="55"/>
-      <c r="D143" s="53"/>
+      <c r="A143" s="55"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="60"/>
+      <c r="D143" s="55"/>
       <c r="E143" s="29">
         <v>167</v>
       </c>
@@ -7809,10 +7794,10 @@
       </c>
     </row>
     <row r="144" spans="1:7" s="14" customFormat="1" ht="62" customHeight="1" thickBot="1">
-      <c r="A144" s="54"/>
-      <c r="B144" s="65"/>
-      <c r="C144" s="56"/>
-      <c r="D144" s="54"/>
+      <c r="A144" s="56"/>
+      <c r="B144" s="59"/>
+      <c r="C144" s="62"/>
+      <c r="D144" s="56"/>
       <c r="E144" s="37">
         <v>326</v>
       </c>
@@ -7824,16 +7809,16 @@
       </c>
     </row>
     <row r="145" spans="1:7" s="16" customFormat="1" ht="62" customHeight="1">
-      <c r="A145" s="57" t="s">
+      <c r="A145" s="54" t="s">
         <v>1062</v>
       </c>
-      <c r="B145" s="63" t="s">
+      <c r="B145" s="57" t="s">
         <v>1069</v>
       </c>
-      <c r="C145" s="58">
+      <c r="C145" s="61">
         <v>1</v>
       </c>
-      <c r="D145" s="57" t="s">
+      <c r="D145" s="54" t="s">
         <v>1143</v>
       </c>
       <c r="E145" s="36">
@@ -7847,97 +7832,97 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="62" customHeight="1">
-      <c r="A146" s="67"/>
-      <c r="B146" s="71"/>
-      <c r="C146" s="68"/>
-      <c r="D146" s="67"/>
-      <c r="E146" s="69">
+      <c r="A146" s="55"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="29">
         <v>203</v>
       </c>
-      <c r="F146" s="70" t="s">
+      <c r="F146" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="G146" s="70" t="s">
+      <c r="G146" s="25" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="62" customHeight="1">
-      <c r="A147" s="67"/>
-      <c r="B147" s="71"/>
-      <c r="C147" s="68">
+      <c r="A147" s="55"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="60">
         <v>2</v>
       </c>
-      <c r="D147" s="67" t="s">
+      <c r="D147" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="E147" s="69">
+      <c r="E147" s="29">
         <v>123</v>
       </c>
-      <c r="F147" s="70" t="s">
+      <c r="F147" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="G147" s="70" t="s">
+      <c r="G147" s="25" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="62" customHeight="1">
-      <c r="A148" s="67"/>
-      <c r="B148" s="71"/>
-      <c r="C148" s="68"/>
-      <c r="D148" s="67"/>
-      <c r="E148" s="69">
+      <c r="A148" s="55"/>
+      <c r="B148" s="58"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="29">
         <v>53</v>
       </c>
-      <c r="F148" s="70" t="s">
+      <c r="F148" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="G148" s="70" t="s">
+      <c r="G148" s="25" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="62" customHeight="1">
-      <c r="A149" s="67"/>
-      <c r="B149" s="71"/>
-      <c r="C149" s="68"/>
-      <c r="D149" s="67"/>
-      <c r="E149" s="69">
+      <c r="A149" s="55"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="55"/>
+      <c r="E149" s="29">
         <v>320</v>
       </c>
-      <c r="F149" s="70" t="s">
+      <c r="F149" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="G149" s="70" t="s">
+      <c r="G149" s="25" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="62" customHeight="1">
-      <c r="A150" s="67"/>
-      <c r="B150" s="71"/>
-      <c r="C150" s="68">
+      <c r="A150" s="55"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="60">
         <v>3</v>
       </c>
-      <c r="D150" s="67" t="s">
+      <c r="D150" s="55" t="s">
         <v>1145</v>
       </c>
-      <c r="E150" s="69">
+      <c r="E150" s="29">
         <v>397</v>
       </c>
-      <c r="F150" s="72" t="s">
+      <c r="F150" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="G150" s="70" t="s">
+      <c r="G150" s="25" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="62" customHeight="1" thickBot="1">
-      <c r="A151" s="54"/>
-      <c r="B151" s="65"/>
-      <c r="C151" s="56"/>
-      <c r="D151" s="54"/>
+      <c r="A151" s="56"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="62"/>
+      <c r="D151" s="56"/>
       <c r="E151" s="37">
         <v>85</v>
       </c>
-      <c r="F151" s="73" t="s">
+      <c r="F151" s="53" t="s">
         <v>1048</v>
       </c>
       <c r="G151" s="27" t="s">
@@ -7952,70 +7937,50 @@
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="A119:A126"/>
-    <mergeCell ref="B119:B126"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="A145:A151"/>
-    <mergeCell ref="A127:A135"/>
-    <mergeCell ref="A136:A144"/>
-    <mergeCell ref="B136:B144"/>
-    <mergeCell ref="B145:B151"/>
-    <mergeCell ref="B127:B135"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="B99:B108"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="B82:B90"/>
-    <mergeCell ref="B58:B69"/>
-    <mergeCell ref="B70:B81"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="A49:A57"/>
-    <mergeCell ref="A58:A69"/>
-    <mergeCell ref="A70:A81"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="B30:B40"/>
-    <mergeCell ref="B49:B57"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="D137:D138"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="C78:C81"/>
     <mergeCell ref="C74:C77"/>
@@ -8036,50 +8001,70 @@
     <mergeCell ref="D78:D81"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="D62:D65"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B91:B99"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B110:B119"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="B58:B69"/>
+    <mergeCell ref="B70:B81"/>
+    <mergeCell ref="A100:A109"/>
+    <mergeCell ref="A110:A119"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A58:A69"/>
+    <mergeCell ref="A70:A81"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="B30:B40"/>
+    <mergeCell ref="B49:B57"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="A145:A151"/>
+    <mergeCell ref="A128:A136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="B137:B144"/>
+    <mergeCell ref="B145:B151"/>
+    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="D142:D144"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
@@ -8095,11 +8080,11 @@
     <brk id="69" max="6" man="1"/>
     <brk id="81" max="6" man="1"/>
     <brk id="90" max="6" man="1"/>
-    <brk id="98" max="6" man="1"/>
-    <brk id="108" max="6" man="1"/>
-    <brk id="118" max="6" man="1"/>
-    <brk id="126" max="6" man="1"/>
-    <brk id="135" max="6" man="1"/>
+    <brk id="99" max="6" man="1"/>
+    <brk id="109" max="6" man="1"/>
+    <brk id="119" max="6" man="1"/>
+    <brk id="127" max="6" man="1"/>
+    <brk id="136" max="6" man="1"/>
     <brk id="144" max="6" man="1"/>
   </rowBreaks>
 </worksheet>
